--- a/blocks/1903/TestCase-Module -1903.xlsx
+++ b/blocks/1903/TestCase-Module -1903.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\template1900\blocks\1903\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8355" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -1181,9 +1181,6 @@
     <t>Fix bug on mobile</t>
   </si>
   <si>
-    <t xml:space="preserve">Block </t>
-  </si>
-  <si>
     <r>
       <t>- Trường form, trong tr</t>
     </r>
@@ -1547,6 +1544,9 @@
   </si>
   <si>
     <t>6/3/2019</t>
+  </si>
+  <si>
+    <t>Block 1903</t>
   </si>
 </sst>
 </file>
@@ -2190,6 +2190,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2214,6 +2217,51 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2223,39 +2271,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2265,17 +2280,17 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2286,6 +2301,27 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2304,6 +2340,126 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2345,162 +2501,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3957,7 +3957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
@@ -4911,35 +4911,35 @@
       <c r="M17" s="45"/>
       <c r="N17" s="45"/>
       <c r="O17" s="45"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
       <c r="Z17" s="45"/>
       <c r="AA17" s="45"/>
       <c r="AB17" s="45"/>
       <c r="AC17" s="45"/>
       <c r="AD17" s="45"/>
       <c r="AE17" s="45"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="72"/>
-      <c r="AL17" s="72"/>
-      <c r="AM17" s="72"/>
-      <c r="AN17" s="72"/>
-      <c r="AO17" s="72"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="73"/>
+      <c r="AP17" s="73"/>
+      <c r="AQ17" s="73"/>
+      <c r="AR17" s="73"/>
       <c r="AS17" s="45"/>
       <c r="AT17" s="45"/>
       <c r="AU17" s="45"/>
@@ -5147,16 +5147,16 @@
       <c r="M21" s="45"/>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
       <c r="AB21" s="45"/>
@@ -6197,8 +6197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="13.5"/>
@@ -6213,7 +6213,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="19" customFormat="1" ht="24">
       <c r="A1" s="24" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24" t="s">
@@ -6419,286 +6419,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="160" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="154"/>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="154"/>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
-      <c r="AJ1" s="161" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="135" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="162"/>
-      <c r="AL1" s="162"/>
-      <c r="AM1" s="162"/>
-      <c r="AN1" s="163" t="s">
+      <c r="AK1" s="137"/>
+      <c r="AL1" s="137"/>
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="161"/>
-      <c r="AP1" s="162"/>
-      <c r="AQ1" s="162"/>
-      <c r="AR1" s="162"/>
-      <c r="AS1" s="163" t="s">
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="137"/>
+      <c r="AQ1" s="137"/>
+      <c r="AR1" s="137"/>
+      <c r="AS1" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="AT1" s="162"/>
-      <c r="AU1" s="162"/>
-      <c r="AV1" s="162"/>
-      <c r="AW1" s="129" t="s">
+      <c r="AT1" s="137"/>
+      <c r="AU1" s="137"/>
+      <c r="AV1" s="137"/>
+      <c r="AW1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="130"/>
-      <c r="AY1" s="130"/>
-      <c r="AZ1" s="131"/>
-      <c r="BA1" s="152" t="s">
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="131"/>
+      <c r="AZ1" s="132"/>
+      <c r="BA1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="BB1" s="152"/>
-      <c r="BC1" s="152"/>
-      <c r="BD1" s="152"/>
-      <c r="BE1" s="152"/>
-      <c r="BF1" s="152"/>
-      <c r="BG1" s="152"/>
-      <c r="BH1" s="152"/>
+      <c r="BB1" s="134"/>
+      <c r="BC1" s="134"/>
+      <c r="BD1" s="134"/>
+      <c r="BE1" s="134"/>
+      <c r="BF1" s="134"/>
+      <c r="BG1" s="134"/>
+      <c r="BH1" s="134"/>
       <c r="BI1" s="15"/>
     </row>
     <row r="2" spans="1:61">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="154"/>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
-      <c r="AJ2" s="156" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="AK2" s="157"/>
-      <c r="AL2" s="157"/>
-      <c r="AM2" s="157"/>
-      <c r="AN2" s="158" t="s">
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="AO2" s="156"/>
-      <c r="AP2" s="157"/>
-      <c r="AQ2" s="157"/>
-      <c r="AR2" s="157"/>
-      <c r="AS2" s="158">
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="129">
         <f>COUNTIF($AR:$AR,"NG")</f>
         <v>0</v>
       </c>
-      <c r="AT2" s="157"/>
-      <c r="AU2" s="157"/>
-      <c r="AV2" s="157"/>
-      <c r="AW2" s="129" t="s">
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="AX2" s="130"/>
-      <c r="AY2" s="130"/>
-      <c r="AZ2" s="131"/>
-      <c r="BA2" s="159" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB2" s="152"/>
-      <c r="BC2" s="152"/>
-      <c r="BD2" s="152"/>
-      <c r="BE2" s="152"/>
-      <c r="BF2" s="152"/>
-      <c r="BG2" s="152"/>
-      <c r="BH2" s="152"/>
+      <c r="AX2" s="131"/>
+      <c r="AY2" s="131"/>
+      <c r="AZ2" s="132"/>
+      <c r="BA2" s="133" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB2" s="134"/>
+      <c r="BC2" s="134"/>
+      <c r="BD2" s="134"/>
+      <c r="BE2" s="134"/>
+      <c r="BF2" s="134"/>
+      <c r="BG2" s="134"/>
+      <c r="BH2" s="134"/>
       <c r="BI2" s="15"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="129" t="s">
+      <c r="A3" s="161"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="169"/>
+      <c r="AJ3" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="130"/>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="131"/>
-      <c r="AN3" s="143"/>
-      <c r="AO3" s="144"/>
-      <c r="AP3" s="144"/>
-      <c r="AQ3" s="144"/>
-      <c r="AR3" s="144"/>
-      <c r="AS3" s="144"/>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="144"/>
-      <c r="AV3" s="145"/>
-      <c r="AW3" s="129"/>
-      <c r="AX3" s="130"/>
-      <c r="AY3" s="130"/>
-      <c r="AZ3" s="131"/>
-      <c r="BA3" s="143"/>
-      <c r="BB3" s="144"/>
-      <c r="BC3" s="144"/>
-      <c r="BD3" s="144"/>
-      <c r="BE3" s="144"/>
-      <c r="BF3" s="144"/>
-      <c r="BG3" s="144"/>
-      <c r="BH3" s="145"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="132"/>
+      <c r="AN3" s="139"/>
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="140"/>
+      <c r="AT3" s="140"/>
+      <c r="AU3" s="140"/>
+      <c r="AV3" s="141"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="131"/>
+      <c r="AY3" s="131"/>
+      <c r="AZ3" s="132"/>
+      <c r="BA3" s="139"/>
+      <c r="BB3" s="140"/>
+      <c r="BC3" s="140"/>
+      <c r="BD3" s="140"/>
+      <c r="BE3" s="140"/>
+      <c r="BF3" s="140"/>
+      <c r="BG3" s="140"/>
+      <c r="BH3" s="141"/>
       <c r="BI3" s="15"/>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="120"/>
-      <c r="AJ4" s="146" t="s">
+      <c r="A4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="171"/>
+      <c r="U4" s="171"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
+      <c r="Y4" s="171"/>
+      <c r="Z4" s="171"/>
+      <c r="AA4" s="171"/>
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="171"/>
+      <c r="AD4" s="171"/>
+      <c r="AE4" s="171"/>
+      <c r="AF4" s="171"/>
+      <c r="AG4" s="171"/>
+      <c r="AH4" s="171"/>
+      <c r="AI4" s="172"/>
+      <c r="AJ4" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="147"/>
-      <c r="AL4" s="147"/>
-      <c r="AM4" s="148"/>
-      <c r="AN4" s="149"/>
-      <c r="AO4" s="150"/>
-      <c r="AP4" s="150"/>
-      <c r="AQ4" s="150"/>
-      <c r="AR4" s="150"/>
-      <c r="AS4" s="150"/>
-      <c r="AT4" s="150"/>
-      <c r="AU4" s="150"/>
-      <c r="AV4" s="151"/>
-      <c r="AW4" s="146" t="s">
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="142"/>
+      <c r="AO4" s="143"/>
+      <c r="AP4" s="143"/>
+      <c r="AQ4" s="143"/>
+      <c r="AR4" s="143"/>
+      <c r="AS4" s="143"/>
+      <c r="AT4" s="143"/>
+      <c r="AU4" s="143"/>
+      <c r="AV4" s="144"/>
+      <c r="AW4" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="AX4" s="147"/>
-      <c r="AY4" s="147"/>
-      <c r="AZ4" s="148"/>
-      <c r="BA4" s="149"/>
-      <c r="BB4" s="150"/>
-      <c r="BC4" s="150"/>
-      <c r="BD4" s="150"/>
-      <c r="BE4" s="150"/>
-      <c r="BF4" s="150"/>
-      <c r="BG4" s="150"/>
-      <c r="BH4" s="151"/>
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="122"/>
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="142"/>
+      <c r="BB4" s="143"/>
+      <c r="BC4" s="143"/>
+      <c r="BD4" s="143"/>
+      <c r="BE4" s="143"/>
+      <c r="BF4" s="143"/>
+      <c r="BG4" s="143"/>
+      <c r="BH4" s="144"/>
     </row>
     <row r="5" spans="1:61" s="10" customFormat="1">
       <c r="A5" s="14"/>
@@ -6764,3083 +6764,3318 @@
       <c r="BI5" s="14"/>
     </row>
     <row r="6" spans="1:61" ht="14.25">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="137" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="123" t="s">
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
-      <c r="X6" s="124"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="123" t="s">
+      <c r="U6" s="155"/>
+      <c r="V6" s="155"/>
+      <c r="W6" s="155"/>
+      <c r="X6" s="155"/>
+      <c r="Y6" s="155"/>
+      <c r="Z6" s="155"/>
+      <c r="AA6" s="155"/>
+      <c r="AB6" s="156"/>
+      <c r="AC6" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="124"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="123" t="s">
+      <c r="AD6" s="155"/>
+      <c r="AE6" s="155"/>
+      <c r="AF6" s="155"/>
+      <c r="AG6" s="155"/>
+      <c r="AH6" s="155"/>
+      <c r="AI6" s="155"/>
+      <c r="AJ6" s="155"/>
+      <c r="AK6" s="155"/>
+      <c r="AL6" s="155"/>
+      <c r="AM6" s="156"/>
+      <c r="AN6" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="AO6" s="124"/>
-      <c r="AP6" s="124"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="123" t="s">
+      <c r="AO6" s="155"/>
+      <c r="AP6" s="155"/>
+      <c r="AQ6" s="156"/>
+      <c r="AR6" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="AS6" s="124"/>
-      <c r="AT6" s="125"/>
-      <c r="AU6" s="123" t="s">
+      <c r="AS6" s="155"/>
+      <c r="AT6" s="156"/>
+      <c r="AU6" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="AV6" s="124"/>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="123" t="s">
+      <c r="AV6" s="155"/>
+      <c r="AW6" s="156"/>
+      <c r="AX6" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="AY6" s="124"/>
-      <c r="AZ6" s="125"/>
-      <c r="BA6" s="142" t="s">
+      <c r="AY6" s="155"/>
+      <c r="AZ6" s="156"/>
+      <c r="BA6" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="BB6" s="142"/>
-      <c r="BC6" s="142"/>
-      <c r="BD6" s="142"/>
-      <c r="BE6" s="142"/>
-      <c r="BF6" s="142"/>
-      <c r="BG6" s="142"/>
-      <c r="BH6" s="142"/>
+      <c r="BB6" s="160"/>
+      <c r="BC6" s="160"/>
+      <c r="BD6" s="160"/>
+      <c r="BE6" s="160"/>
+      <c r="BF6" s="160"/>
+      <c r="BG6" s="160"/>
+      <c r="BH6" s="160"/>
       <c r="BI6" s="16"/>
     </row>
     <row r="7" spans="1:61" s="11" customFormat="1" ht="14.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="139" t="s">
+      <c r="A7" s="174"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140" t="s">
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="141" t="s">
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="127"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="127"/>
-      <c r="AH7" s="127"/>
-      <c r="AI7" s="127"/>
-      <c r="AJ7" s="127"/>
-      <c r="AK7" s="127"/>
-      <c r="AL7" s="127"/>
-      <c r="AM7" s="128"/>
-      <c r="AN7" s="126"/>
-      <c r="AO7" s="127"/>
-      <c r="AP7" s="127"/>
-      <c r="AQ7" s="128"/>
-      <c r="AR7" s="126"/>
-      <c r="AS7" s="127"/>
-      <c r="AT7" s="128"/>
-      <c r="AU7" s="126"/>
-      <c r="AV7" s="127"/>
-      <c r="AW7" s="128"/>
-      <c r="AX7" s="126"/>
-      <c r="AY7" s="127"/>
-      <c r="AZ7" s="128"/>
-      <c r="BA7" s="142"/>
-      <c r="BB7" s="142"/>
-      <c r="BC7" s="142"/>
-      <c r="BD7" s="142"/>
-      <c r="BE7" s="142"/>
-      <c r="BF7" s="142"/>
-      <c r="BG7" s="142"/>
-      <c r="BH7" s="142"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="158"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="158"/>
+      <c r="X7" s="158"/>
+      <c r="Y7" s="158"/>
+      <c r="Z7" s="158"/>
+      <c r="AA7" s="158"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="158"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="158"/>
+      <c r="AG7" s="158"/>
+      <c r="AH7" s="158"/>
+      <c r="AI7" s="158"/>
+      <c r="AJ7" s="158"/>
+      <c r="AK7" s="158"/>
+      <c r="AL7" s="158"/>
+      <c r="AM7" s="159"/>
+      <c r="AN7" s="157"/>
+      <c r="AO7" s="158"/>
+      <c r="AP7" s="158"/>
+      <c r="AQ7" s="159"/>
+      <c r="AR7" s="157"/>
+      <c r="AS7" s="158"/>
+      <c r="AT7" s="159"/>
+      <c r="AU7" s="157"/>
+      <c r="AV7" s="158"/>
+      <c r="AW7" s="159"/>
+      <c r="AX7" s="157"/>
+      <c r="AY7" s="158"/>
+      <c r="AZ7" s="159"/>
+      <c r="BA7" s="160"/>
+      <c r="BB7" s="160"/>
+      <c r="BC7" s="160"/>
+      <c r="BD7" s="160"/>
+      <c r="BE7" s="160"/>
+      <c r="BF7" s="160"/>
+      <c r="BG7" s="160"/>
+      <c r="BH7" s="160"/>
       <c r="BI7" s="17"/>
     </row>
     <row r="8" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A8" s="96">
+      <c r="A8" s="91">
         <v>1</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="82" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="82" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="88" t="s">
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="81"/>
+      <c r="AJ8" s="81"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="76"/>
+      <c r="AR8" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="76"/>
+      <c r="AU8" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="76"/>
+      <c r="BA8" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB8" s="96"/>
+      <c r="BC8" s="96"/>
+      <c r="BD8" s="96"/>
+      <c r="BE8" s="96"/>
+      <c r="BF8" s="96"/>
+      <c r="BG8" s="96"/>
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="18"/>
+    </row>
+    <row r="9" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A9" s="93"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="118"/>
+      <c r="AD9" s="119"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="119"/>
+      <c r="AG9" s="119"/>
+      <c r="AH9" s="119"/>
+      <c r="AI9" s="119"/>
+      <c r="AJ9" s="119"/>
+      <c r="AK9" s="119"/>
+      <c r="AL9" s="119"/>
+      <c r="AM9" s="120"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="79"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="79"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="79"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="79"/>
+      <c r="BA9" s="115"/>
+      <c r="BB9" s="116"/>
+      <c r="BC9" s="116"/>
+      <c r="BD9" s="116"/>
+      <c r="BE9" s="116"/>
+      <c r="BF9" s="116"/>
+      <c r="BG9" s="116"/>
+      <c r="BH9" s="117"/>
+      <c r="BI9" s="18"/>
+    </row>
+    <row r="10" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A10" s="91">
+        <v>2</v>
+      </c>
+      <c r="B10" s="92"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="81"/>
+      <c r="AJ10" s="81"/>
+      <c r="AK10" s="81"/>
+      <c r="AL10" s="81"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB10" s="145"/>
+      <c r="BC10" s="145"/>
+      <c r="BD10" s="145"/>
+      <c r="BE10" s="145"/>
+      <c r="BF10" s="145"/>
+      <c r="BG10" s="145"/>
+      <c r="BH10" s="146"/>
+      <c r="BI10" s="18"/>
+    </row>
+    <row r="11" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A11" s="93"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="79"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="79"/>
+      <c r="AX11" s="77"/>
+      <c r="AY11" s="78"/>
+      <c r="AZ11" s="79"/>
+      <c r="BA11" s="95"/>
+      <c r="BB11" s="147"/>
+      <c r="BC11" s="147"/>
+      <c r="BD11" s="147"/>
+      <c r="BE11" s="147"/>
+      <c r="BF11" s="147"/>
+      <c r="BG11" s="147"/>
+      <c r="BH11" s="148"/>
+      <c r="BI11" s="18"/>
+    </row>
+    <row r="12" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A12" s="91">
+        <v>3</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="81"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="81"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="81"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="75"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV12" s="75"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB12" s="145"/>
+      <c r="BC12" s="145"/>
+      <c r="BD12" s="145"/>
+      <c r="BE12" s="145"/>
+      <c r="BF12" s="145"/>
+      <c r="BG12" s="145"/>
+      <c r="BH12" s="146"/>
+      <c r="BI12" s="18"/>
+    </row>
+    <row r="13" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="119"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="119"/>
+      <c r="AI13" s="119"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="119"/>
+      <c r="AL13" s="119"/>
+      <c r="AM13" s="120"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="78"/>
+      <c r="AP13" s="78"/>
+      <c r="AQ13" s="79"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="79"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="78"/>
+      <c r="AW13" s="79"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="78"/>
+      <c r="AZ13" s="79"/>
+      <c r="BA13" s="95"/>
+      <c r="BB13" s="147"/>
+      <c r="BC13" s="147"/>
+      <c r="BD13" s="147"/>
+      <c r="BE13" s="147"/>
+      <c r="BF13" s="147"/>
+      <c r="BG13" s="147"/>
+      <c r="BH13" s="148"/>
+      <c r="BI13" s="18"/>
+    </row>
+    <row r="14" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A14" s="91">
+        <v>4</v>
+      </c>
+      <c r="B14" s="92"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="95" t="s">
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="81"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="76"/>
+      <c r="AR14" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="76"/>
+      <c r="AU14" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="76"/>
+      <c r="BA14" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB14" s="96"/>
+      <c r="BC14" s="96"/>
+      <c r="BD14" s="96"/>
+      <c r="BE14" s="96"/>
+      <c r="BF14" s="96"/>
+      <c r="BG14" s="96"/>
+      <c r="BH14" s="97"/>
+      <c r="BI14" s="18"/>
+    </row>
+    <row r="15" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A15" s="93"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="83"/>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="83"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="84"/>
+      <c r="AN15" s="77"/>
+      <c r="AO15" s="78"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="79"/>
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="79"/>
+      <c r="AU15" s="77"/>
+      <c r="AV15" s="78"/>
+      <c r="AW15" s="79"/>
+      <c r="AX15" s="77"/>
+      <c r="AY15" s="78"/>
+      <c r="AZ15" s="79"/>
+      <c r="BA15" s="95"/>
+      <c r="BB15" s="96"/>
+      <c r="BC15" s="96"/>
+      <c r="BD15" s="96"/>
+      <c r="BE15" s="96"/>
+      <c r="BF15" s="96"/>
+      <c r="BG15" s="96"/>
+      <c r="BH15" s="97"/>
+      <c r="BI15" s="57"/>
+    </row>
+    <row r="16" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A16" s="91">
+        <v>5</v>
+      </c>
+      <c r="B16" s="92"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="90"/>
-      <c r="AN8" s="73" t="s">
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="81"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="81"/>
+      <c r="AL16" s="81"/>
+      <c r="AM16" s="82"/>
+      <c r="AN16" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="75"/>
-      <c r="AR8" s="73" t="s">
+      <c r="AO16" s="75"/>
+      <c r="AP16" s="75"/>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AS8" s="74"/>
-      <c r="AT8" s="75"/>
-      <c r="AU8" s="73" t="s">
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="76"/>
+      <c r="AU16" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AV8" s="74"/>
-      <c r="AW8" s="75"/>
-      <c r="AX8" s="73" t="s">
+      <c r="AV16" s="75"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AY8" s="74"/>
-      <c r="AZ8" s="75"/>
-      <c r="BA8" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB8" s="80"/>
-      <c r="BC8" s="80"/>
-      <c r="BD8" s="80"/>
-      <c r="BE8" s="80"/>
-      <c r="BF8" s="80"/>
-      <c r="BG8" s="80"/>
-      <c r="BH8" s="81"/>
-      <c r="BI8" s="18"/>
-    </row>
-    <row r="9" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="107"/>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="107"/>
-      <c r="AL9" s="107"/>
-      <c r="AM9" s="108"/>
-      <c r="AN9" s="76"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="76"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="76"/>
-      <c r="AY9" s="77"/>
-      <c r="AZ9" s="78"/>
-      <c r="BA9" s="103"/>
-      <c r="BB9" s="104"/>
-      <c r="BC9" s="104"/>
-      <c r="BD9" s="104"/>
-      <c r="BE9" s="104"/>
-      <c r="BF9" s="104"/>
-      <c r="BG9" s="104"/>
-      <c r="BH9" s="105"/>
-      <c r="BI9" s="18"/>
-    </row>
-    <row r="10" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A10" s="96">
-        <v>2</v>
-      </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="82" t="s">
+      <c r="AY16" s="75"/>
+      <c r="AZ16" s="76"/>
+      <c r="BA16" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB16" s="96"/>
+      <c r="BC16" s="96"/>
+      <c r="BD16" s="96"/>
+      <c r="BE16" s="96"/>
+      <c r="BF16" s="96"/>
+      <c r="BG16" s="96"/>
+      <c r="BH16" s="97"/>
+      <c r="BI16" s="59"/>
+    </row>
+    <row r="17" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A17" s="93"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="119"/>
+      <c r="AF17" s="119"/>
+      <c r="AG17" s="119"/>
+      <c r="AH17" s="119"/>
+      <c r="AI17" s="119"/>
+      <c r="AJ17" s="119"/>
+      <c r="AK17" s="119"/>
+      <c r="AL17" s="119"/>
+      <c r="AM17" s="120"/>
+      <c r="AN17" s="77"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="79"/>
+      <c r="AR17" s="77"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="79"/>
+      <c r="AU17" s="77"/>
+      <c r="AV17" s="78"/>
+      <c r="AW17" s="79"/>
+      <c r="AX17" s="77"/>
+      <c r="AY17" s="78"/>
+      <c r="AZ17" s="79"/>
+      <c r="BA17" s="109"/>
+      <c r="BB17" s="110"/>
+      <c r="BC17" s="110"/>
+      <c r="BD17" s="110"/>
+      <c r="BE17" s="110"/>
+      <c r="BF17" s="110"/>
+      <c r="BG17" s="110"/>
+      <c r="BH17" s="111"/>
+      <c r="BI17" s="18"/>
+    </row>
+    <row r="18" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A18" s="91">
+        <v>6</v>
+      </c>
+      <c r="B18" s="92"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="90"/>
-      <c r="AN10" s="73" t="s">
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="81"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="81"/>
+      <c r="AL18" s="81"/>
+      <c r="AM18" s="82"/>
+      <c r="AN18" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="73" t="s">
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="75"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="73" t="s">
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="73" t="s">
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="75"/>
-      <c r="BA10" s="134" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB10" s="135"/>
-      <c r="BC10" s="135"/>
-      <c r="BD10" s="135"/>
-      <c r="BE10" s="135"/>
-      <c r="BF10" s="135"/>
-      <c r="BG10" s="135"/>
-      <c r="BH10" s="136"/>
-      <c r="BI10" s="18"/>
-    </row>
-    <row r="11" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="91"/>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="91"/>
-      <c r="AE11" s="91"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="91"/>
-      <c r="AJ11" s="91"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="91"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="76"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="76"/>
-      <c r="AS11" s="77"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="76"/>
-      <c r="AV11" s="77"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="76"/>
-      <c r="AY11" s="77"/>
-      <c r="AZ11" s="78"/>
-      <c r="BA11" s="79"/>
-      <c r="BB11" s="132"/>
-      <c r="BC11" s="132"/>
-      <c r="BD11" s="132"/>
-      <c r="BE11" s="132"/>
-      <c r="BF11" s="132"/>
-      <c r="BG11" s="132"/>
-      <c r="BH11" s="133"/>
-      <c r="BI11" s="18"/>
-    </row>
-    <row r="12" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A12" s="96">
-        <v>3</v>
-      </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="82" t="s">
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="76"/>
+      <c r="BA18" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB18" s="96"/>
+      <c r="BC18" s="96"/>
+      <c r="BD18" s="96"/>
+      <c r="BE18" s="96"/>
+      <c r="BF18" s="96"/>
+      <c r="BG18" s="96"/>
+      <c r="BH18" s="97"/>
+      <c r="BI18" s="59"/>
+    </row>
+    <row r="19" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A19" s="93"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="83"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="83"/>
+      <c r="AH19" s="83"/>
+      <c r="AI19" s="83"/>
+      <c r="AJ19" s="83"/>
+      <c r="AK19" s="83"/>
+      <c r="AL19" s="83"/>
+      <c r="AM19" s="84"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="78"/>
+      <c r="AQ19" s="79"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="79"/>
+      <c r="AU19" s="77"/>
+      <c r="AV19" s="78"/>
+      <c r="AW19" s="79"/>
+      <c r="AX19" s="77"/>
+      <c r="AY19" s="78"/>
+      <c r="AZ19" s="79"/>
+      <c r="BA19" s="95"/>
+      <c r="BB19" s="96"/>
+      <c r="BC19" s="96"/>
+      <c r="BD19" s="96"/>
+      <c r="BE19" s="96"/>
+      <c r="BF19" s="96"/>
+      <c r="BG19" s="96"/>
+      <c r="BH19" s="97"/>
+      <c r="BI19" s="57"/>
+    </row>
+    <row r="20" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A20" s="91">
+        <v>7</v>
+      </c>
+      <c r="B20" s="92"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="95" t="s">
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="81"/>
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="82"/>
+      <c r="AN20" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO20" s="75"/>
+      <c r="AP20" s="75"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS20" s="75"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV20" s="75"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY20" s="75"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB20" s="96"/>
+      <c r="BC20" s="96"/>
+      <c r="BD20" s="96"/>
+      <c r="BE20" s="96"/>
+      <c r="BF20" s="96"/>
+      <c r="BG20" s="96"/>
+      <c r="BH20" s="97"/>
+      <c r="BI20" s="59"/>
+    </row>
+    <row r="21" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="83"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="84"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="78"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="79"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="78"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="78"/>
+      <c r="AZ21" s="79"/>
+      <c r="BA21" s="95"/>
+      <c r="BB21" s="96"/>
+      <c r="BC21" s="96"/>
+      <c r="BD21" s="96"/>
+      <c r="BE21" s="96"/>
+      <c r="BF21" s="96"/>
+      <c r="BG21" s="96"/>
+      <c r="BH21" s="97"/>
+      <c r="BI21" s="57"/>
+    </row>
+    <row r="22" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A22" s="91">
+        <v>8</v>
+      </c>
+      <c r="B22" s="92"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="81"/>
+      <c r="AM22" s="82"/>
+      <c r="AN22" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO22" s="75"/>
+      <c r="AP22" s="75"/>
+      <c r="AQ22" s="76"/>
+      <c r="AR22" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS22" s="75"/>
+      <c r="AT22" s="76"/>
+      <c r="AU22" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV22" s="75"/>
+      <c r="AW22" s="76"/>
+      <c r="AX22" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY22" s="75"/>
+      <c r="AZ22" s="76"/>
+      <c r="BA22" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB22" s="96"/>
+      <c r="BC22" s="96"/>
+      <c r="BD22" s="96"/>
+      <c r="BE22" s="96"/>
+      <c r="BF22" s="96"/>
+      <c r="BG22" s="96"/>
+      <c r="BH22" s="97"/>
+      <c r="BI22" s="59"/>
+    </row>
+    <row r="23" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="83"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="83"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="78"/>
+      <c r="AP23" s="78"/>
+      <c r="AQ23" s="79"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="78"/>
+      <c r="AT23" s="79"/>
+      <c r="AU23" s="77"/>
+      <c r="AV23" s="78"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="77"/>
+      <c r="AY23" s="78"/>
+      <c r="AZ23" s="79"/>
+      <c r="BA23" s="95"/>
+      <c r="BB23" s="96"/>
+      <c r="BC23" s="96"/>
+      <c r="BD23" s="96"/>
+      <c r="BE23" s="96"/>
+      <c r="BF23" s="96"/>
+      <c r="BG23" s="96"/>
+      <c r="BH23" s="97"/>
+      <c r="BI23" s="57"/>
+    </row>
+    <row r="24" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A24" s="91">
+        <v>9</v>
+      </c>
+      <c r="B24" s="92"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="81"/>
+      <c r="AL24" s="81"/>
+      <c r="AM24" s="82"/>
+      <c r="AN24" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO24" s="75"/>
+      <c r="AP24" s="75"/>
+      <c r="AQ24" s="76"/>
+      <c r="AR24" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS24" s="75"/>
+      <c r="AT24" s="76"/>
+      <c r="AU24" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV24" s="75"/>
+      <c r="AW24" s="76"/>
+      <c r="AX24" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY24" s="75"/>
+      <c r="AZ24" s="76"/>
+      <c r="BA24" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB24" s="96"/>
+      <c r="BC24" s="96"/>
+      <c r="BD24" s="96"/>
+      <c r="BE24" s="96"/>
+      <c r="BF24" s="96"/>
+      <c r="BG24" s="96"/>
+      <c r="BH24" s="97"/>
+      <c r="BI24" s="59"/>
+    </row>
+    <row r="25" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A25" s="93"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="83"/>
+      <c r="AE25" s="83"/>
+      <c r="AF25" s="83"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="83"/>
+      <c r="AK25" s="83"/>
+      <c r="AL25" s="83"/>
+      <c r="AM25" s="84"/>
+      <c r="AN25" s="77"/>
+      <c r="AO25" s="78"/>
+      <c r="AP25" s="78"/>
+      <c r="AQ25" s="79"/>
+      <c r="AR25" s="77"/>
+      <c r="AS25" s="78"/>
+      <c r="AT25" s="79"/>
+      <c r="AU25" s="77"/>
+      <c r="AV25" s="78"/>
+      <c r="AW25" s="79"/>
+      <c r="AX25" s="77"/>
+      <c r="AY25" s="78"/>
+      <c r="AZ25" s="79"/>
+      <c r="BA25" s="95"/>
+      <c r="BB25" s="96"/>
+      <c r="BC25" s="96"/>
+      <c r="BD25" s="96"/>
+      <c r="BE25" s="96"/>
+      <c r="BF25" s="96"/>
+      <c r="BG25" s="96"/>
+      <c r="BH25" s="97"/>
+      <c r="BI25" s="57"/>
+    </row>
+    <row r="26" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A26" s="91">
+        <v>10</v>
+      </c>
+      <c r="B26" s="92"/>
+      <c r="C26" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="101"/>
+      <c r="AN26" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO26" s="75"/>
+      <c r="AP26" s="75"/>
+      <c r="AQ26" s="76"/>
+      <c r="AR26" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS26" s="75"/>
+      <c r="AT26" s="76"/>
+      <c r="AU26" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV26" s="75"/>
+      <c r="AW26" s="76"/>
+      <c r="AX26" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY26" s="75"/>
+      <c r="AZ26" s="76"/>
+      <c r="BA26" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB26" s="96"/>
+      <c r="BC26" s="96"/>
+      <c r="BD26" s="96"/>
+      <c r="BE26" s="96"/>
+      <c r="BF26" s="96"/>
+      <c r="BG26" s="96"/>
+      <c r="BH26" s="97"/>
+      <c r="BI26" s="59"/>
+    </row>
+    <row r="27" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A27" s="93"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="102"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="103"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="103"/>
+      <c r="AJ27" s="103"/>
+      <c r="AK27" s="103"/>
+      <c r="AL27" s="103"/>
+      <c r="AM27" s="104"/>
+      <c r="AN27" s="77"/>
+      <c r="AO27" s="78"/>
+      <c r="AP27" s="78"/>
+      <c r="AQ27" s="79"/>
+      <c r="AR27" s="77"/>
+      <c r="AS27" s="78"/>
+      <c r="AT27" s="79"/>
+      <c r="AU27" s="77"/>
+      <c r="AV27" s="78"/>
+      <c r="AW27" s="79"/>
+      <c r="AX27" s="77"/>
+      <c r="AY27" s="78"/>
+      <c r="AZ27" s="79"/>
+      <c r="BA27" s="95"/>
+      <c r="BB27" s="96"/>
+      <c r="BC27" s="96"/>
+      <c r="BD27" s="96"/>
+      <c r="BE27" s="96"/>
+      <c r="BF27" s="96"/>
+      <c r="BG27" s="96"/>
+      <c r="BH27" s="97"/>
+      <c r="BI27" s="57"/>
+    </row>
+    <row r="28" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A28" s="91">
+        <v>11</v>
+      </c>
+      <c r="B28" s="92"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="81"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="81"/>
+      <c r="AM28" s="82"/>
+      <c r="AN28" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO28" s="75"/>
+      <c r="AP28" s="75"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS28" s="75"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV28" s="75"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY28" s="75"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB28" s="96"/>
+      <c r="BC28" s="96"/>
+      <c r="BD28" s="96"/>
+      <c r="BE28" s="96"/>
+      <c r="BF28" s="96"/>
+      <c r="BG28" s="96"/>
+      <c r="BH28" s="97"/>
+      <c r="BI28" s="59"/>
+    </row>
+    <row r="29" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A29" s="93"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="99"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="84"/>
+      <c r="AN29" s="77"/>
+      <c r="AO29" s="78"/>
+      <c r="AP29" s="78"/>
+      <c r="AQ29" s="79"/>
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="78"/>
+      <c r="AT29" s="79"/>
+      <c r="AU29" s="77"/>
+      <c r="AV29" s="78"/>
+      <c r="AW29" s="79"/>
+      <c r="AX29" s="77"/>
+      <c r="AY29" s="78"/>
+      <c r="AZ29" s="79"/>
+      <c r="BA29" s="95"/>
+      <c r="BB29" s="96"/>
+      <c r="BC29" s="96"/>
+      <c r="BD29" s="96"/>
+      <c r="BE29" s="96"/>
+      <c r="BF29" s="96"/>
+      <c r="BG29" s="96"/>
+      <c r="BH29" s="97"/>
+      <c r="BI29" s="57"/>
+    </row>
+    <row r="30" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A30" s="91">
+        <v>12</v>
+      </c>
+      <c r="B30" s="92"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="73" t="s">
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="81"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="82"/>
+      <c r="AN30" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AO12" s="74"/>
-      <c r="AP12" s="74"/>
-      <c r="AQ12" s="75"/>
-      <c r="AR12" s="73" t="s">
+      <c r="AO30" s="75"/>
+      <c r="AP30" s="75"/>
+      <c r="AQ30" s="76"/>
+      <c r="AR30" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AS12" s="74"/>
-      <c r="AT12" s="75"/>
-      <c r="AU12" s="73" t="s">
+      <c r="AS30" s="75"/>
+      <c r="AT30" s="76"/>
+      <c r="AU30" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AV12" s="74"/>
-      <c r="AW12" s="75"/>
-      <c r="AX12" s="73" t="s">
+      <c r="AV30" s="75"/>
+      <c r="AW30" s="76"/>
+      <c r="AX30" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AY12" s="74"/>
-      <c r="AZ12" s="75"/>
-      <c r="BA12" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="BB12" s="135"/>
-      <c r="BC12" s="135"/>
-      <c r="BD12" s="135"/>
-      <c r="BE12" s="135"/>
-      <c r="BF12" s="135"/>
-      <c r="BG12" s="135"/>
-      <c r="BH12" s="136"/>
-      <c r="BI12" s="18"/>
-    </row>
-    <row r="13" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A13" s="98"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="91"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="107"/>
-      <c r="AJ13" s="107"/>
-      <c r="AK13" s="107"/>
-      <c r="AL13" s="107"/>
-      <c r="AM13" s="108"/>
-      <c r="AN13" s="76"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="78"/>
-      <c r="AR13" s="76"/>
-      <c r="AS13" s="77"/>
-      <c r="AT13" s="78"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="77"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="76"/>
-      <c r="AY13" s="77"/>
-      <c r="AZ13" s="78"/>
-      <c r="BA13" s="79"/>
-      <c r="BB13" s="132"/>
-      <c r="BC13" s="132"/>
-      <c r="BD13" s="132"/>
-      <c r="BE13" s="132"/>
-      <c r="BF13" s="132"/>
-      <c r="BG13" s="132"/>
-      <c r="BH13" s="133"/>
-      <c r="BI13" s="18"/>
-    </row>
-    <row r="14" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A14" s="96">
-        <v>4</v>
-      </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="90"/>
-      <c r="AN14" s="73" t="s">
+      <c r="AY30" s="75"/>
+      <c r="AZ30" s="76"/>
+      <c r="BA30" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB30" s="96"/>
+      <c r="BC30" s="96"/>
+      <c r="BD30" s="96"/>
+      <c r="BE30" s="96"/>
+      <c r="BF30" s="96"/>
+      <c r="BG30" s="96"/>
+      <c r="BH30" s="97"/>
+      <c r="BI30" s="59"/>
+    </row>
+    <row r="31" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A31" s="93"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="83"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
+      <c r="Y31" s="83"/>
+      <c r="Z31" s="83"/>
+      <c r="AA31" s="83"/>
+      <c r="AB31" s="83"/>
+      <c r="AC31" s="99"/>
+      <c r="AD31" s="83"/>
+      <c r="AE31" s="83"/>
+      <c r="AF31" s="83"/>
+      <c r="AG31" s="83"/>
+      <c r="AH31" s="83"/>
+      <c r="AI31" s="83"/>
+      <c r="AJ31" s="83"/>
+      <c r="AK31" s="83"/>
+      <c r="AL31" s="83"/>
+      <c r="AM31" s="84"/>
+      <c r="AN31" s="77"/>
+      <c r="AO31" s="78"/>
+      <c r="AP31" s="78"/>
+      <c r="AQ31" s="79"/>
+      <c r="AR31" s="77"/>
+      <c r="AS31" s="78"/>
+      <c r="AT31" s="79"/>
+      <c r="AU31" s="77"/>
+      <c r="AV31" s="78"/>
+      <c r="AW31" s="79"/>
+      <c r="AX31" s="77"/>
+      <c r="AY31" s="78"/>
+      <c r="AZ31" s="79"/>
+      <c r="BA31" s="95"/>
+      <c r="BB31" s="96"/>
+      <c r="BC31" s="96"/>
+      <c r="BD31" s="96"/>
+      <c r="BE31" s="96"/>
+      <c r="BF31" s="96"/>
+      <c r="BG31" s="96"/>
+      <c r="BH31" s="97"/>
+      <c r="BI31" s="57"/>
+    </row>
+    <row r="32" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A32" s="91">
+        <v>13</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="82"/>
+      <c r="AN32" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AO14" s="74"/>
-      <c r="AP14" s="74"/>
-      <c r="AQ14" s="75"/>
-      <c r="AR14" s="73" t="s">
+      <c r="AO32" s="75"/>
+      <c r="AP32" s="75"/>
+      <c r="AQ32" s="76"/>
+      <c r="AR32" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AS14" s="74"/>
-      <c r="AT14" s="75"/>
-      <c r="AU14" s="73" t="s">
+      <c r="AS32" s="75"/>
+      <c r="AT32" s="76"/>
+      <c r="AU32" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AV14" s="74"/>
-      <c r="AW14" s="75"/>
-      <c r="AX14" s="73" t="s">
+      <c r="AV32" s="75"/>
+      <c r="AW32" s="76"/>
+      <c r="AX32" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AY14" s="74"/>
-      <c r="AZ14" s="75"/>
-      <c r="BA14" s="169" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB14" s="80"/>
-      <c r="BC14" s="80"/>
-      <c r="BD14" s="80"/>
-      <c r="BE14" s="80"/>
-      <c r="BF14" s="80"/>
-      <c r="BG14" s="80"/>
-      <c r="BH14" s="81"/>
-      <c r="BI14" s="18"/>
-    </row>
-    <row r="15" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A15" s="98"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="91"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="91"/>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="91"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="91"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="91"/>
-      <c r="AH15" s="91"/>
-      <c r="AI15" s="91"/>
-      <c r="AJ15" s="91"/>
-      <c r="AK15" s="91"/>
-      <c r="AL15" s="91"/>
-      <c r="AM15" s="92"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="78"/>
-      <c r="AR15" s="76"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="77"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="76"/>
-      <c r="AY15" s="77"/>
-      <c r="AZ15" s="78"/>
-      <c r="BA15" s="79"/>
-      <c r="BB15" s="80"/>
-      <c r="BC15" s="80"/>
-      <c r="BD15" s="80"/>
-      <c r="BE15" s="80"/>
-      <c r="BF15" s="80"/>
-      <c r="BG15" s="80"/>
-      <c r="BH15" s="81"/>
-      <c r="BI15" s="57"/>
-    </row>
-    <row r="16" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A16" s="96">
-        <v>5</v>
-      </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="89"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="89"/>
-      <c r="AJ16" s="89"/>
-      <c r="AK16" s="89"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="90"/>
-      <c r="AN16" s="73" t="s">
+      <c r="AY32" s="75"/>
+      <c r="AZ32" s="76"/>
+      <c r="BA32" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB32" s="96"/>
+      <c r="BC32" s="96"/>
+      <c r="BD32" s="96"/>
+      <c r="BE32" s="96"/>
+      <c r="BF32" s="96"/>
+      <c r="BG32" s="96"/>
+      <c r="BH32" s="97"/>
+      <c r="BI32" s="59"/>
+    </row>
+    <row r="33" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A33" s="93"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="83"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="83"/>
+      <c r="X33" s="83"/>
+      <c r="Y33" s="83"/>
+      <c r="Z33" s="83"/>
+      <c r="AA33" s="83"/>
+      <c r="AB33" s="83"/>
+      <c r="AC33" s="99"/>
+      <c r="AD33" s="83"/>
+      <c r="AE33" s="83"/>
+      <c r="AF33" s="83"/>
+      <c r="AG33" s="83"/>
+      <c r="AH33" s="83"/>
+      <c r="AI33" s="83"/>
+      <c r="AJ33" s="83"/>
+      <c r="AK33" s="83"/>
+      <c r="AL33" s="83"/>
+      <c r="AM33" s="84"/>
+      <c r="AN33" s="77"/>
+      <c r="AO33" s="78"/>
+      <c r="AP33" s="78"/>
+      <c r="AQ33" s="79"/>
+      <c r="AR33" s="77"/>
+      <c r="AS33" s="78"/>
+      <c r="AT33" s="79"/>
+      <c r="AU33" s="77"/>
+      <c r="AV33" s="78"/>
+      <c r="AW33" s="79"/>
+      <c r="AX33" s="77"/>
+      <c r="AY33" s="78"/>
+      <c r="AZ33" s="79"/>
+      <c r="BA33" s="95"/>
+      <c r="BB33" s="96"/>
+      <c r="BC33" s="96"/>
+      <c r="BD33" s="96"/>
+      <c r="BE33" s="96"/>
+      <c r="BF33" s="96"/>
+      <c r="BG33" s="96"/>
+      <c r="BH33" s="97"/>
+      <c r="BI33" s="57"/>
+    </row>
+    <row r="34" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A34" s="91">
+        <v>14</v>
+      </c>
+      <c r="B34" s="92"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="81"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="U34" s="81"/>
+      <c r="V34" s="81"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="81"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="81"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="81"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="81"/>
+      <c r="AM34" s="82"/>
+      <c r="AN34" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AO16" s="74"/>
-      <c r="AP16" s="74"/>
-      <c r="AQ16" s="75"/>
-      <c r="AR16" s="73" t="s">
+      <c r="AO34" s="75"/>
+      <c r="AP34" s="75"/>
+      <c r="AQ34" s="76"/>
+      <c r="AR34" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AS16" s="74"/>
-      <c r="AT16" s="75"/>
-      <c r="AU16" s="73" t="s">
+      <c r="AS34" s="75"/>
+      <c r="AT34" s="76"/>
+      <c r="AU34" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AV16" s="74"/>
-      <c r="AW16" s="75"/>
-      <c r="AX16" s="73" t="s">
+      <c r="AV34" s="75"/>
+      <c r="AW34" s="76"/>
+      <c r="AX34" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AY16" s="74"/>
-      <c r="AZ16" s="75"/>
-      <c r="BA16" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="BB16" s="80"/>
-      <c r="BC16" s="80"/>
-      <c r="BD16" s="80"/>
-      <c r="BE16" s="80"/>
-      <c r="BF16" s="80"/>
-      <c r="BG16" s="80"/>
-      <c r="BH16" s="81"/>
-      <c r="BI16" s="59"/>
-    </row>
-    <row r="17" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="91"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="91"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="107"/>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="107"/>
-      <c r="AK17" s="107"/>
-      <c r="AL17" s="107"/>
-      <c r="AM17" s="108"/>
-      <c r="AN17" s="76"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="77"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="76"/>
-      <c r="AS17" s="77"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="76"/>
-      <c r="AV17" s="77"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="76"/>
-      <c r="AY17" s="77"/>
-      <c r="AZ17" s="78"/>
-      <c r="BA17" s="134"/>
-      <c r="BB17" s="164"/>
-      <c r="BC17" s="164"/>
-      <c r="BD17" s="164"/>
-      <c r="BE17" s="164"/>
-      <c r="BF17" s="164"/>
-      <c r="BG17" s="164"/>
-      <c r="BH17" s="165"/>
-      <c r="BI17" s="18"/>
-    </row>
-    <row r="18" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A18" s="96">
-        <v>6</v>
-      </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="90"/>
-      <c r="AN18" s="73" t="s">
+      <c r="AY34" s="75"/>
+      <c r="AZ34" s="76"/>
+      <c r="BA34" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB34" s="96"/>
+      <c r="BC34" s="96"/>
+      <c r="BD34" s="96"/>
+      <c r="BE34" s="96"/>
+      <c r="BF34" s="96"/>
+      <c r="BG34" s="96"/>
+      <c r="BH34" s="97"/>
+      <c r="BI34" s="59"/>
+    </row>
+    <row r="35" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A35" s="93"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="83"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="83"/>
+      <c r="Y35" s="83"/>
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="83"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="83"/>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="83"/>
+      <c r="AG35" s="83"/>
+      <c r="AH35" s="83"/>
+      <c r="AI35" s="83"/>
+      <c r="AJ35" s="83"/>
+      <c r="AK35" s="83"/>
+      <c r="AL35" s="83"/>
+      <c r="AM35" s="84"/>
+      <c r="AN35" s="77"/>
+      <c r="AO35" s="78"/>
+      <c r="AP35" s="78"/>
+      <c r="AQ35" s="79"/>
+      <c r="AR35" s="77"/>
+      <c r="AS35" s="78"/>
+      <c r="AT35" s="79"/>
+      <c r="AU35" s="77"/>
+      <c r="AV35" s="78"/>
+      <c r="AW35" s="79"/>
+      <c r="AX35" s="77"/>
+      <c r="AY35" s="78"/>
+      <c r="AZ35" s="79"/>
+      <c r="BA35" s="95"/>
+      <c r="BB35" s="96"/>
+      <c r="BC35" s="96"/>
+      <c r="BD35" s="96"/>
+      <c r="BE35" s="96"/>
+      <c r="BF35" s="96"/>
+      <c r="BG35" s="96"/>
+      <c r="BH35" s="97"/>
+      <c r="BI35" s="57"/>
+    </row>
+    <row r="36" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A36" s="91">
+        <v>15</v>
+      </c>
+      <c r="B36" s="92"/>
+      <c r="C36" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="U36" s="81"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="81"/>
+      <c r="AF36" s="81"/>
+      <c r="AG36" s="81"/>
+      <c r="AH36" s="81"/>
+      <c r="AI36" s="81"/>
+      <c r="AJ36" s="81"/>
+      <c r="AK36" s="81"/>
+      <c r="AL36" s="81"/>
+      <c r="AM36" s="82"/>
+      <c r="AN36" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AO18" s="74"/>
-      <c r="AP18" s="74"/>
-      <c r="AQ18" s="75"/>
-      <c r="AR18" s="73" t="s">
+      <c r="AO36" s="75"/>
+      <c r="AP36" s="75"/>
+      <c r="AQ36" s="76"/>
+      <c r="AR36" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AS18" s="74"/>
-      <c r="AT18" s="75"/>
-      <c r="AU18" s="73" t="s">
+      <c r="AS36" s="75"/>
+      <c r="AT36" s="76"/>
+      <c r="AU36" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AV18" s="74"/>
-      <c r="AW18" s="75"/>
-      <c r="AX18" s="73" t="s">
+      <c r="AV36" s="75"/>
+      <c r="AW36" s="76"/>
+      <c r="AX36" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AY18" s="74"/>
-      <c r="AZ18" s="75"/>
-      <c r="BA18" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB18" s="80"/>
-      <c r="BC18" s="80"/>
-      <c r="BD18" s="80"/>
-      <c r="BE18" s="80"/>
-      <c r="BF18" s="80"/>
-      <c r="BG18" s="80"/>
-      <c r="BH18" s="81"/>
-      <c r="BI18" s="59"/>
-    </row>
-    <row r="19" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A19" s="98"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="91"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="91"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="91"/>
-      <c r="AI19" s="91"/>
-      <c r="AJ19" s="91"/>
-      <c r="AK19" s="91"/>
-      <c r="AL19" s="91"/>
-      <c r="AM19" s="92"/>
-      <c r="AN19" s="76"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
-      <c r="AQ19" s="78"/>
-      <c r="AR19" s="76"/>
-      <c r="AS19" s="77"/>
-      <c r="AT19" s="78"/>
-      <c r="AU19" s="76"/>
-      <c r="AV19" s="77"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="76"/>
-      <c r="AY19" s="77"/>
-      <c r="AZ19" s="78"/>
-      <c r="BA19" s="79"/>
-      <c r="BB19" s="80"/>
-      <c r="BC19" s="80"/>
-      <c r="BD19" s="80"/>
-      <c r="BE19" s="80"/>
-      <c r="BF19" s="80"/>
-      <c r="BG19" s="80"/>
-      <c r="BH19" s="81"/>
-      <c r="BI19" s="57"/>
-    </row>
-    <row r="20" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A20" s="96">
-        <v>7</v>
-      </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="89"/>
-      <c r="AJ20" s="89"/>
-      <c r="AK20" s="89"/>
-      <c r="AL20" s="89"/>
-      <c r="AM20" s="90"/>
-      <c r="AN20" s="73" t="s">
+      <c r="AY36" s="75"/>
+      <c r="AZ36" s="76"/>
+      <c r="BA36" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB36" s="96"/>
+      <c r="BC36" s="96"/>
+      <c r="BD36" s="96"/>
+      <c r="BE36" s="96"/>
+      <c r="BF36" s="96"/>
+      <c r="BG36" s="96"/>
+      <c r="BH36" s="97"/>
+      <c r="BI36" s="59"/>
+    </row>
+    <row r="37" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A37" s="93"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="83"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="83"/>
+      <c r="X37" s="83"/>
+      <c r="Y37" s="83"/>
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="83"/>
+      <c r="AC37" s="99"/>
+      <c r="AD37" s="83"/>
+      <c r="AE37" s="83"/>
+      <c r="AF37" s="83"/>
+      <c r="AG37" s="83"/>
+      <c r="AH37" s="83"/>
+      <c r="AI37" s="83"/>
+      <c r="AJ37" s="83"/>
+      <c r="AK37" s="83"/>
+      <c r="AL37" s="83"/>
+      <c r="AM37" s="84"/>
+      <c r="AN37" s="77"/>
+      <c r="AO37" s="78"/>
+      <c r="AP37" s="78"/>
+      <c r="AQ37" s="79"/>
+      <c r="AR37" s="77"/>
+      <c r="AS37" s="78"/>
+      <c r="AT37" s="79"/>
+      <c r="AU37" s="77"/>
+      <c r="AV37" s="78"/>
+      <c r="AW37" s="79"/>
+      <c r="AX37" s="77"/>
+      <c r="AY37" s="78"/>
+      <c r="AZ37" s="79"/>
+      <c r="BA37" s="95"/>
+      <c r="BB37" s="96"/>
+      <c r="BC37" s="96"/>
+      <c r="BD37" s="96"/>
+      <c r="BE37" s="96"/>
+      <c r="BF37" s="96"/>
+      <c r="BG37" s="96"/>
+      <c r="BH37" s="97"/>
+      <c r="BI37" s="57"/>
+    </row>
+    <row r="38" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A38" s="91">
+        <v>16</v>
+      </c>
+      <c r="B38" s="92"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
+      <c r="W38" s="81"/>
+      <c r="X38" s="81"/>
+      <c r="Y38" s="81"/>
+      <c r="Z38" s="81"/>
+      <c r="AA38" s="81"/>
+      <c r="AB38" s="81"/>
+      <c r="AC38" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD38" s="81"/>
+      <c r="AE38" s="81"/>
+      <c r="AF38" s="81"/>
+      <c r="AG38" s="81"/>
+      <c r="AH38" s="81"/>
+      <c r="AI38" s="81"/>
+      <c r="AJ38" s="81"/>
+      <c r="AK38" s="81"/>
+      <c r="AL38" s="81"/>
+      <c r="AM38" s="82"/>
+      <c r="AN38" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AO20" s="74"/>
-      <c r="AP20" s="74"/>
-      <c r="AQ20" s="75"/>
-      <c r="AR20" s="73" t="s">
+      <c r="AO38" s="75"/>
+      <c r="AP38" s="75"/>
+      <c r="AQ38" s="76"/>
+      <c r="AR38" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AS20" s="74"/>
-      <c r="AT20" s="75"/>
-      <c r="AU20" s="73" t="s">
+      <c r="AS38" s="75"/>
+      <c r="AT38" s="76"/>
+      <c r="AU38" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AV20" s="74"/>
-      <c r="AW20" s="75"/>
-      <c r="AX20" s="73" t="s">
+      <c r="AV38" s="75"/>
+      <c r="AW38" s="76"/>
+      <c r="AX38" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AY20" s="74"/>
-      <c r="AZ20" s="75"/>
-      <c r="BA20" s="169" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB20" s="80"/>
-      <c r="BC20" s="80"/>
-      <c r="BD20" s="80"/>
-      <c r="BE20" s="80"/>
-      <c r="BF20" s="80"/>
-      <c r="BG20" s="80"/>
-      <c r="BH20" s="81"/>
-      <c r="BI20" s="59"/>
-    </row>
-    <row r="21" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A21" s="98"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="91"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="91"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="91"/>
-      <c r="AJ21" s="91"/>
-      <c r="AK21" s="91"/>
-      <c r="AL21" s="91"/>
-      <c r="AM21" s="92"/>
-      <c r="AN21" s="76"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="77"/>
-      <c r="AQ21" s="78"/>
-      <c r="AR21" s="76"/>
-      <c r="AS21" s="77"/>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="76"/>
-      <c r="AV21" s="77"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="76"/>
-      <c r="AY21" s="77"/>
-      <c r="AZ21" s="78"/>
-      <c r="BA21" s="79"/>
-      <c r="BB21" s="80"/>
-      <c r="BC21" s="80"/>
-      <c r="BD21" s="80"/>
-      <c r="BE21" s="80"/>
-      <c r="BF21" s="80"/>
-      <c r="BG21" s="80"/>
-      <c r="BH21" s="81"/>
-      <c r="BI21" s="57"/>
-    </row>
-    <row r="22" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A22" s="96">
-        <v>8</v>
-      </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="89"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="89"/>
-      <c r="AJ22" s="89"/>
-      <c r="AK22" s="89"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="90"/>
-      <c r="AN22" s="73" t="s">
+      <c r="AY38" s="75"/>
+      <c r="AZ38" s="76"/>
+      <c r="BA38" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB38" s="96"/>
+      <c r="BC38" s="96"/>
+      <c r="BD38" s="96"/>
+      <c r="BE38" s="96"/>
+      <c r="BF38" s="96"/>
+      <c r="BG38" s="96"/>
+      <c r="BH38" s="97"/>
+      <c r="BI38" s="59"/>
+    </row>
+    <row r="39" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A39" s="93"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="83"/>
+      <c r="V39" s="83"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="83"/>
+      <c r="Y39" s="83"/>
+      <c r="Z39" s="83"/>
+      <c r="AA39" s="83"/>
+      <c r="AB39" s="83"/>
+      <c r="AC39" s="99"/>
+      <c r="AD39" s="83"/>
+      <c r="AE39" s="83"/>
+      <c r="AF39" s="83"/>
+      <c r="AG39" s="83"/>
+      <c r="AH39" s="83"/>
+      <c r="AI39" s="83"/>
+      <c r="AJ39" s="83"/>
+      <c r="AK39" s="83"/>
+      <c r="AL39" s="83"/>
+      <c r="AM39" s="84"/>
+      <c r="AN39" s="77"/>
+      <c r="AO39" s="78"/>
+      <c r="AP39" s="78"/>
+      <c r="AQ39" s="79"/>
+      <c r="AR39" s="77"/>
+      <c r="AS39" s="78"/>
+      <c r="AT39" s="79"/>
+      <c r="AU39" s="77"/>
+      <c r="AV39" s="78"/>
+      <c r="AW39" s="79"/>
+      <c r="AX39" s="77"/>
+      <c r="AY39" s="78"/>
+      <c r="AZ39" s="79"/>
+      <c r="BA39" s="95"/>
+      <c r="BB39" s="96"/>
+      <c r="BC39" s="96"/>
+      <c r="BD39" s="96"/>
+      <c r="BE39" s="96"/>
+      <c r="BF39" s="96"/>
+      <c r="BG39" s="96"/>
+      <c r="BH39" s="97"/>
+      <c r="BI39" s="57"/>
+    </row>
+    <row r="40" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A40" s="91">
+        <v>17</v>
+      </c>
+      <c r="B40" s="92"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="U40" s="81"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="81"/>
+      <c r="Z40" s="81"/>
+      <c r="AA40" s="81"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD40" s="81"/>
+      <c r="AE40" s="81"/>
+      <c r="AF40" s="81"/>
+      <c r="AG40" s="81"/>
+      <c r="AH40" s="81"/>
+      <c r="AI40" s="81"/>
+      <c r="AJ40" s="81"/>
+      <c r="AK40" s="81"/>
+      <c r="AL40" s="81"/>
+      <c r="AM40" s="82"/>
+      <c r="AN40" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AO22" s="74"/>
-      <c r="AP22" s="74"/>
-      <c r="AQ22" s="75"/>
-      <c r="AR22" s="73" t="s">
+      <c r="AO40" s="75"/>
+      <c r="AP40" s="75"/>
+      <c r="AQ40" s="76"/>
+      <c r="AR40" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AS22" s="74"/>
-      <c r="AT22" s="75"/>
-      <c r="AU22" s="73" t="s">
+      <c r="AS40" s="75"/>
+      <c r="AT40" s="76"/>
+      <c r="AU40" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AV22" s="74"/>
-      <c r="AW22" s="75"/>
-      <c r="AX22" s="73" t="s">
+      <c r="AV40" s="75"/>
+      <c r="AW40" s="76"/>
+      <c r="AX40" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AY22" s="74"/>
-      <c r="AZ22" s="75"/>
-      <c r="BA22" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB22" s="80"/>
-      <c r="BC22" s="80"/>
-      <c r="BD22" s="80"/>
-      <c r="BE22" s="80"/>
-      <c r="BF22" s="80"/>
-      <c r="BG22" s="80"/>
-      <c r="BH22" s="81"/>
-      <c r="BI22" s="59"/>
-    </row>
-    <row r="23" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="91"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="91"/>
-      <c r="AC23" s="94"/>
-      <c r="AD23" s="91"/>
-      <c r="AE23" s="91"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="91"/>
-      <c r="AH23" s="91"/>
-      <c r="AI23" s="91"/>
-      <c r="AJ23" s="91"/>
-      <c r="AK23" s="91"/>
-      <c r="AL23" s="91"/>
-      <c r="AM23" s="92"/>
-      <c r="AN23" s="76"/>
-      <c r="AO23" s="77"/>
-      <c r="AP23" s="77"/>
-      <c r="AQ23" s="78"/>
-      <c r="AR23" s="76"/>
-      <c r="AS23" s="77"/>
-      <c r="AT23" s="78"/>
-      <c r="AU23" s="76"/>
-      <c r="AV23" s="77"/>
-      <c r="AW23" s="78"/>
-      <c r="AX23" s="76"/>
-      <c r="AY23" s="77"/>
-      <c r="AZ23" s="78"/>
-      <c r="BA23" s="79"/>
-      <c r="BB23" s="80"/>
-      <c r="BC23" s="80"/>
-      <c r="BD23" s="80"/>
-      <c r="BE23" s="80"/>
-      <c r="BF23" s="80"/>
-      <c r="BG23" s="80"/>
-      <c r="BH23" s="81"/>
-      <c r="BI23" s="57"/>
-    </row>
-    <row r="24" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A24" s="96">
-        <v>9</v>
-      </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="89"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="89"/>
-      <c r="AJ24" s="89"/>
-      <c r="AK24" s="89"/>
-      <c r="AL24" s="89"/>
-      <c r="AM24" s="90"/>
-      <c r="AN24" s="73" t="s">
+      <c r="AY40" s="75"/>
+      <c r="AZ40" s="76"/>
+      <c r="BA40" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB40" s="96"/>
+      <c r="BC40" s="96"/>
+      <c r="BD40" s="96"/>
+      <c r="BE40" s="96"/>
+      <c r="BF40" s="96"/>
+      <c r="BG40" s="96"/>
+      <c r="BH40" s="97"/>
+      <c r="BI40" s="59"/>
+    </row>
+    <row r="41" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A41" s="93"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="83"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="83"/>
+      <c r="X41" s="83"/>
+      <c r="Y41" s="83"/>
+      <c r="Z41" s="83"/>
+      <c r="AA41" s="83"/>
+      <c r="AB41" s="83"/>
+      <c r="AC41" s="99"/>
+      <c r="AD41" s="83"/>
+      <c r="AE41" s="83"/>
+      <c r="AF41" s="83"/>
+      <c r="AG41" s="83"/>
+      <c r="AH41" s="83"/>
+      <c r="AI41" s="83"/>
+      <c r="AJ41" s="83"/>
+      <c r="AK41" s="83"/>
+      <c r="AL41" s="83"/>
+      <c r="AM41" s="84"/>
+      <c r="AN41" s="77"/>
+      <c r="AO41" s="78"/>
+      <c r="AP41" s="78"/>
+      <c r="AQ41" s="79"/>
+      <c r="AR41" s="77"/>
+      <c r="AS41" s="78"/>
+      <c r="AT41" s="79"/>
+      <c r="AU41" s="77"/>
+      <c r="AV41" s="78"/>
+      <c r="AW41" s="79"/>
+      <c r="AX41" s="77"/>
+      <c r="AY41" s="78"/>
+      <c r="AZ41" s="79"/>
+      <c r="BA41" s="95"/>
+      <c r="BB41" s="96"/>
+      <c r="BC41" s="96"/>
+      <c r="BD41" s="96"/>
+      <c r="BE41" s="96"/>
+      <c r="BF41" s="96"/>
+      <c r="BG41" s="96"/>
+      <c r="BH41" s="97"/>
+      <c r="BI41" s="57"/>
+    </row>
+    <row r="42" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A42" s="91">
+        <v>18</v>
+      </c>
+      <c r="B42" s="92"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="81"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="U42" s="81"/>
+      <c r="V42" s="81"/>
+      <c r="W42" s="81"/>
+      <c r="X42" s="81"/>
+      <c r="Y42" s="81"/>
+      <c r="Z42" s="81"/>
+      <c r="AA42" s="81"/>
+      <c r="AB42" s="81"/>
+      <c r="AC42" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD42" s="81"/>
+      <c r="AE42" s="81"/>
+      <c r="AF42" s="81"/>
+      <c r="AG42" s="81"/>
+      <c r="AH42" s="81"/>
+      <c r="AI42" s="81"/>
+      <c r="AJ42" s="81"/>
+      <c r="AK42" s="81"/>
+      <c r="AL42" s="81"/>
+      <c r="AM42" s="82"/>
+      <c r="AN42" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AO24" s="74"/>
-      <c r="AP24" s="74"/>
-      <c r="AQ24" s="75"/>
-      <c r="AR24" s="73" t="s">
+      <c r="AO42" s="75"/>
+      <c r="AP42" s="75"/>
+      <c r="AQ42" s="76"/>
+      <c r="AR42" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AS24" s="74"/>
-      <c r="AT24" s="75"/>
-      <c r="AU24" s="73" t="s">
+      <c r="AS42" s="75"/>
+      <c r="AT42" s="76"/>
+      <c r="AU42" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AV24" s="74"/>
-      <c r="AW24" s="75"/>
-      <c r="AX24" s="73" t="s">
+      <c r="AV42" s="75"/>
+      <c r="AW42" s="76"/>
+      <c r="AX42" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AY24" s="74"/>
-      <c r="AZ24" s="75"/>
-      <c r="BA24" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB24" s="80"/>
-      <c r="BC24" s="80"/>
-      <c r="BD24" s="80"/>
-      <c r="BE24" s="80"/>
-      <c r="BF24" s="80"/>
-      <c r="BG24" s="80"/>
-      <c r="BH24" s="81"/>
-      <c r="BI24" s="59"/>
-    </row>
-    <row r="25" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A25" s="98"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="91"/>
-      <c r="AB25" s="91"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="91"/>
-      <c r="AE25" s="91"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="91"/>
-      <c r="AH25" s="91"/>
-      <c r="AI25" s="91"/>
-      <c r="AJ25" s="91"/>
-      <c r="AK25" s="91"/>
-      <c r="AL25" s="91"/>
-      <c r="AM25" s="92"/>
-      <c r="AN25" s="76"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="77"/>
-      <c r="AQ25" s="78"/>
-      <c r="AR25" s="76"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="78"/>
-      <c r="AU25" s="76"/>
-      <c r="AV25" s="77"/>
-      <c r="AW25" s="78"/>
-      <c r="AX25" s="76"/>
-      <c r="AY25" s="77"/>
-      <c r="AZ25" s="78"/>
-      <c r="BA25" s="79"/>
-      <c r="BB25" s="80"/>
-      <c r="BC25" s="80"/>
-      <c r="BD25" s="80"/>
-      <c r="BE25" s="80"/>
-      <c r="BF25" s="80"/>
-      <c r="BG25" s="80"/>
-      <c r="BH25" s="81"/>
-      <c r="BI25" s="57"/>
-    </row>
-    <row r="26" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A26" s="96">
-        <v>10</v>
-      </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="U26" s="89"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="88"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="88"/>
-      <c r="AK26" s="88"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="170"/>
-      <c r="AN26" s="73" t="s">
+      <c r="AY42" s="75"/>
+      <c r="AZ42" s="76"/>
+      <c r="BA42" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB42" s="96"/>
+      <c r="BC42" s="96"/>
+      <c r="BD42" s="96"/>
+      <c r="BE42" s="96"/>
+      <c r="BF42" s="96"/>
+      <c r="BG42" s="96"/>
+      <c r="BH42" s="97"/>
+      <c r="BI42" s="18"/>
+    </row>
+    <row r="43" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A43" s="93"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="83"/>
+      <c r="V43" s="83"/>
+      <c r="W43" s="83"/>
+      <c r="X43" s="83"/>
+      <c r="Y43" s="83"/>
+      <c r="Z43" s="83"/>
+      <c r="AA43" s="83"/>
+      <c r="AB43" s="83"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="83"/>
+      <c r="AE43" s="83"/>
+      <c r="AF43" s="83"/>
+      <c r="AG43" s="83"/>
+      <c r="AH43" s="83"/>
+      <c r="AI43" s="83"/>
+      <c r="AJ43" s="83"/>
+      <c r="AK43" s="83"/>
+      <c r="AL43" s="83"/>
+      <c r="AM43" s="84"/>
+      <c r="AN43" s="77"/>
+      <c r="AO43" s="78"/>
+      <c r="AP43" s="78"/>
+      <c r="AQ43" s="79"/>
+      <c r="AR43" s="77"/>
+      <c r="AS43" s="78"/>
+      <c r="AT43" s="79"/>
+      <c r="AU43" s="77"/>
+      <c r="AV43" s="78"/>
+      <c r="AW43" s="79"/>
+      <c r="AX43" s="77"/>
+      <c r="AY43" s="78"/>
+      <c r="AZ43" s="79"/>
+      <c r="BA43" s="95"/>
+      <c r="BB43" s="96"/>
+      <c r="BC43" s="96"/>
+      <c r="BD43" s="96"/>
+      <c r="BE43" s="96"/>
+      <c r="BF43" s="96"/>
+      <c r="BG43" s="96"/>
+      <c r="BH43" s="97"/>
+      <c r="BI43" s="18"/>
+    </row>
+    <row r="44" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A44" s="91">
+        <v>19</v>
+      </c>
+      <c r="B44" s="92"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="81"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="U44" s="81"/>
+      <c r="V44" s="81"/>
+      <c r="W44" s="81"/>
+      <c r="X44" s="81"/>
+      <c r="Y44" s="81"/>
+      <c r="Z44" s="81"/>
+      <c r="AA44" s="81"/>
+      <c r="AB44" s="81"/>
+      <c r="AC44" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD44" s="81"/>
+      <c r="AE44" s="81"/>
+      <c r="AF44" s="81"/>
+      <c r="AG44" s="81"/>
+      <c r="AH44" s="81"/>
+      <c r="AI44" s="81"/>
+      <c r="AJ44" s="81"/>
+      <c r="AK44" s="81"/>
+      <c r="AL44" s="81"/>
+      <c r="AM44" s="82"/>
+      <c r="AN44" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AO26" s="74"/>
-      <c r="AP26" s="74"/>
-      <c r="AQ26" s="75"/>
-      <c r="AR26" s="73" t="s">
+      <c r="AO44" s="75"/>
+      <c r="AP44" s="75"/>
+      <c r="AQ44" s="76"/>
+      <c r="AR44" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AS26" s="74"/>
-      <c r="AT26" s="75"/>
-      <c r="AU26" s="73" t="s">
+      <c r="AS44" s="75"/>
+      <c r="AT44" s="76"/>
+      <c r="AU44" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AV26" s="74"/>
-      <c r="AW26" s="75"/>
-      <c r="AX26" s="73" t="s">
+      <c r="AV44" s="75"/>
+      <c r="AW44" s="76"/>
+      <c r="AX44" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AY26" s="74"/>
-      <c r="AZ26" s="75"/>
-      <c r="BA26" s="169" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB26" s="80"/>
-      <c r="BC26" s="80"/>
-      <c r="BD26" s="80"/>
-      <c r="BE26" s="80"/>
-      <c r="BF26" s="80"/>
-      <c r="BG26" s="80"/>
-      <c r="BH26" s="81"/>
-      <c r="BI26" s="59"/>
-    </row>
-    <row r="27" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="91"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="171"/>
-      <c r="AD27" s="172"/>
-      <c r="AE27" s="172"/>
-      <c r="AF27" s="172"/>
-      <c r="AG27" s="172"/>
-      <c r="AH27" s="172"/>
-      <c r="AI27" s="172"/>
-      <c r="AJ27" s="172"/>
-      <c r="AK27" s="172"/>
-      <c r="AL27" s="172"/>
-      <c r="AM27" s="173"/>
-      <c r="AN27" s="76"/>
-      <c r="AO27" s="77"/>
-      <c r="AP27" s="77"/>
-      <c r="AQ27" s="78"/>
-      <c r="AR27" s="76"/>
-      <c r="AS27" s="77"/>
-      <c r="AT27" s="78"/>
-      <c r="AU27" s="76"/>
-      <c r="AV27" s="77"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="76"/>
-      <c r="AY27" s="77"/>
-      <c r="AZ27" s="78"/>
-      <c r="BA27" s="79"/>
-      <c r="BB27" s="80"/>
-      <c r="BC27" s="80"/>
-      <c r="BD27" s="80"/>
-      <c r="BE27" s="80"/>
-      <c r="BF27" s="80"/>
-      <c r="BG27" s="80"/>
-      <c r="BH27" s="81"/>
-      <c r="BI27" s="57"/>
-    </row>
-    <row r="28" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A28" s="96">
-        <v>11</v>
-      </c>
-      <c r="B28" s="97"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD28" s="89"/>
-      <c r="AE28" s="89"/>
-      <c r="AF28" s="89"/>
-      <c r="AG28" s="89"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="89"/>
-      <c r="AJ28" s="89"/>
-      <c r="AK28" s="89"/>
-      <c r="AL28" s="89"/>
-      <c r="AM28" s="90"/>
-      <c r="AN28" s="73" t="s">
+      <c r="AY44" s="75"/>
+      <c r="AZ44" s="76"/>
+      <c r="BA44" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB44" s="96"/>
+      <c r="BC44" s="96"/>
+      <c r="BD44" s="96"/>
+      <c r="BE44" s="96"/>
+      <c r="BF44" s="96"/>
+      <c r="BG44" s="96"/>
+      <c r="BH44" s="97"/>
+      <c r="BI44" s="18"/>
+    </row>
+    <row r="45" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A45" s="93"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="84"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="83"/>
+      <c r="V45" s="83"/>
+      <c r="W45" s="83"/>
+      <c r="X45" s="83"/>
+      <c r="Y45" s="83"/>
+      <c r="Z45" s="83"/>
+      <c r="AA45" s="83"/>
+      <c r="AB45" s="83"/>
+      <c r="AC45" s="99"/>
+      <c r="AD45" s="83"/>
+      <c r="AE45" s="83"/>
+      <c r="AF45" s="83"/>
+      <c r="AG45" s="83"/>
+      <c r="AH45" s="83"/>
+      <c r="AI45" s="83"/>
+      <c r="AJ45" s="83"/>
+      <c r="AK45" s="83"/>
+      <c r="AL45" s="83"/>
+      <c r="AM45" s="84"/>
+      <c r="AN45" s="77"/>
+      <c r="AO45" s="78"/>
+      <c r="AP45" s="78"/>
+      <c r="AQ45" s="79"/>
+      <c r="AR45" s="77"/>
+      <c r="AS45" s="78"/>
+      <c r="AT45" s="79"/>
+      <c r="AU45" s="77"/>
+      <c r="AV45" s="78"/>
+      <c r="AW45" s="79"/>
+      <c r="AX45" s="77"/>
+      <c r="AY45" s="78"/>
+      <c r="AZ45" s="79"/>
+      <c r="BA45" s="95"/>
+      <c r="BB45" s="96"/>
+      <c r="BC45" s="96"/>
+      <c r="BD45" s="96"/>
+      <c r="BE45" s="96"/>
+      <c r="BF45" s="96"/>
+      <c r="BG45" s="96"/>
+      <c r="BH45" s="97"/>
+      <c r="BI45" s="18"/>
+    </row>
+    <row r="46" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A46" s="91">
+        <v>20</v>
+      </c>
+      <c r="B46" s="92"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="U46" s="81"/>
+      <c r="V46" s="81"/>
+      <c r="W46" s="81"/>
+      <c r="X46" s="81"/>
+      <c r="Y46" s="81"/>
+      <c r="Z46" s="81"/>
+      <c r="AA46" s="81"/>
+      <c r="AB46" s="81"/>
+      <c r="AC46" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD46" s="81"/>
+      <c r="AE46" s="81"/>
+      <c r="AF46" s="81"/>
+      <c r="AG46" s="81"/>
+      <c r="AH46" s="81"/>
+      <c r="AI46" s="81"/>
+      <c r="AJ46" s="81"/>
+      <c r="AK46" s="81"/>
+      <c r="AL46" s="81"/>
+      <c r="AM46" s="82"/>
+      <c r="AN46" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AO28" s="74"/>
-      <c r="AP28" s="74"/>
-      <c r="AQ28" s="75"/>
-      <c r="AR28" s="73" t="s">
+      <c r="AO46" s="75"/>
+      <c r="AP46" s="75"/>
+      <c r="AQ46" s="76"/>
+      <c r="AR46" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AS28" s="74"/>
-      <c r="AT28" s="75"/>
-      <c r="AU28" s="73" t="s">
+      <c r="AS46" s="75"/>
+      <c r="AT46" s="76"/>
+      <c r="AU46" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AV28" s="74"/>
-      <c r="AW28" s="75"/>
-      <c r="AX28" s="73" t="s">
+      <c r="AV46" s="75"/>
+      <c r="AW46" s="76"/>
+      <c r="AX46" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AY28" s="74"/>
-      <c r="AZ28" s="75"/>
-      <c r="BA28" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="BB28" s="80"/>
-      <c r="BC28" s="80"/>
-      <c r="BD28" s="80"/>
-      <c r="BE28" s="80"/>
-      <c r="BF28" s="80"/>
-      <c r="BG28" s="80"/>
-      <c r="BH28" s="81"/>
-      <c r="BI28" s="59"/>
-    </row>
-    <row r="29" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="91"/>
-      <c r="Y29" s="91"/>
-      <c r="Z29" s="91"/>
-      <c r="AA29" s="91"/>
-      <c r="AB29" s="91"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="91"/>
-      <c r="AE29" s="91"/>
-      <c r="AF29" s="91"/>
-      <c r="AG29" s="91"/>
-      <c r="AH29" s="91"/>
-      <c r="AI29" s="91"/>
-      <c r="AJ29" s="91"/>
-      <c r="AK29" s="91"/>
-      <c r="AL29" s="91"/>
-      <c r="AM29" s="92"/>
-      <c r="AN29" s="76"/>
-      <c r="AO29" s="77"/>
-      <c r="AP29" s="77"/>
-      <c r="AQ29" s="78"/>
-      <c r="AR29" s="76"/>
-      <c r="AS29" s="77"/>
-      <c r="AT29" s="78"/>
-      <c r="AU29" s="76"/>
-      <c r="AV29" s="77"/>
-      <c r="AW29" s="78"/>
-      <c r="AX29" s="76"/>
-      <c r="AY29" s="77"/>
-      <c r="AZ29" s="78"/>
-      <c r="BA29" s="79"/>
-      <c r="BB29" s="80"/>
-      <c r="BC29" s="80"/>
-      <c r="BD29" s="80"/>
-      <c r="BE29" s="80"/>
-      <c r="BF29" s="80"/>
-      <c r="BG29" s="80"/>
-      <c r="BH29" s="81"/>
-      <c r="BI29" s="57"/>
-    </row>
-    <row r="30" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A30" s="96">
-        <v>12</v>
-      </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
-      <c r="AC30" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD30" s="89"/>
-      <c r="AE30" s="89"/>
-      <c r="AF30" s="89"/>
-      <c r="AG30" s="89"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="89"/>
-      <c r="AJ30" s="89"/>
-      <c r="AK30" s="89"/>
-      <c r="AL30" s="89"/>
-      <c r="AM30" s="90"/>
-      <c r="AN30" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO30" s="74"/>
-      <c r="AP30" s="74"/>
-      <c r="AQ30" s="75"/>
-      <c r="AR30" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS30" s="74"/>
-      <c r="AT30" s="75"/>
-      <c r="AU30" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV30" s="74"/>
-      <c r="AW30" s="75"/>
-      <c r="AX30" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY30" s="74"/>
-      <c r="AZ30" s="75"/>
-      <c r="BA30" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB30" s="80"/>
-      <c r="BC30" s="80"/>
-      <c r="BD30" s="80"/>
-      <c r="BE30" s="80"/>
-      <c r="BF30" s="80"/>
-      <c r="BG30" s="80"/>
-      <c r="BH30" s="81"/>
-      <c r="BI30" s="59"/>
-    </row>
-    <row r="31" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="91"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="91"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="91"/>
-      <c r="AH31" s="91"/>
-      <c r="AI31" s="91"/>
-      <c r="AJ31" s="91"/>
-      <c r="AK31" s="91"/>
-      <c r="AL31" s="91"/>
-      <c r="AM31" s="92"/>
-      <c r="AN31" s="76"/>
-      <c r="AO31" s="77"/>
-      <c r="AP31" s="77"/>
-      <c r="AQ31" s="78"/>
-      <c r="AR31" s="76"/>
-      <c r="AS31" s="77"/>
-      <c r="AT31" s="78"/>
-      <c r="AU31" s="76"/>
-      <c r="AV31" s="77"/>
-      <c r="AW31" s="78"/>
-      <c r="AX31" s="76"/>
-      <c r="AY31" s="77"/>
-      <c r="AZ31" s="78"/>
-      <c r="BA31" s="79"/>
-      <c r="BB31" s="80"/>
-      <c r="BC31" s="80"/>
-      <c r="BD31" s="80"/>
-      <c r="BE31" s="80"/>
-      <c r="BF31" s="80"/>
-      <c r="BG31" s="80"/>
-      <c r="BH31" s="81"/>
-      <c r="BI31" s="57"/>
-    </row>
-    <row r="32" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A32" s="96">
-        <v>13</v>
-      </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="89"/>
-      <c r="AC32" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD32" s="89"/>
-      <c r="AE32" s="89"/>
-      <c r="AF32" s="89"/>
-      <c r="AG32" s="89"/>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="89"/>
-      <c r="AJ32" s="89"/>
-      <c r="AK32" s="89"/>
-      <c r="AL32" s="89"/>
-      <c r="AM32" s="90"/>
-      <c r="AN32" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO32" s="74"/>
-      <c r="AP32" s="74"/>
-      <c r="AQ32" s="75"/>
-      <c r="AR32" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS32" s="74"/>
-      <c r="AT32" s="75"/>
-      <c r="AU32" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV32" s="74"/>
-      <c r="AW32" s="75"/>
-      <c r="AX32" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY32" s="74"/>
-      <c r="AZ32" s="75"/>
-      <c r="BA32" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB32" s="80"/>
-      <c r="BC32" s="80"/>
-      <c r="BD32" s="80"/>
-      <c r="BE32" s="80"/>
-      <c r="BF32" s="80"/>
-      <c r="BG32" s="80"/>
-      <c r="BH32" s="81"/>
-      <c r="BI32" s="59"/>
-    </row>
-    <row r="33" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A33" s="98"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="91"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="91"/>
-      <c r="AE33" s="91"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="91"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="91"/>
-      <c r="AJ33" s="91"/>
-      <c r="AK33" s="91"/>
-      <c r="AL33" s="91"/>
-      <c r="AM33" s="92"/>
-      <c r="AN33" s="76"/>
-      <c r="AO33" s="77"/>
-      <c r="AP33" s="77"/>
-      <c r="AQ33" s="78"/>
-      <c r="AR33" s="76"/>
-      <c r="AS33" s="77"/>
-      <c r="AT33" s="78"/>
-      <c r="AU33" s="76"/>
-      <c r="AV33" s="77"/>
-      <c r="AW33" s="78"/>
-      <c r="AX33" s="76"/>
-      <c r="AY33" s="77"/>
-      <c r="AZ33" s="78"/>
-      <c r="BA33" s="79"/>
-      <c r="BB33" s="80"/>
-      <c r="BC33" s="80"/>
-      <c r="BD33" s="80"/>
-      <c r="BE33" s="80"/>
-      <c r="BF33" s="80"/>
-      <c r="BG33" s="80"/>
-      <c r="BH33" s="81"/>
-      <c r="BI33" s="57"/>
-    </row>
-    <row r="34" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A34" s="96">
-        <v>14</v>
-      </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="89"/>
-      <c r="AB34" s="89"/>
-      <c r="AC34" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD34" s="89"/>
-      <c r="AE34" s="89"/>
-      <c r="AF34" s="89"/>
-      <c r="AG34" s="89"/>
-      <c r="AH34" s="89"/>
-      <c r="AI34" s="89"/>
-      <c r="AJ34" s="89"/>
-      <c r="AK34" s="89"/>
-      <c r="AL34" s="89"/>
-      <c r="AM34" s="90"/>
-      <c r="AN34" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO34" s="74"/>
-      <c r="AP34" s="74"/>
-      <c r="AQ34" s="75"/>
-      <c r="AR34" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS34" s="74"/>
-      <c r="AT34" s="75"/>
-      <c r="AU34" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV34" s="74"/>
-      <c r="AW34" s="75"/>
-      <c r="AX34" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY34" s="74"/>
-      <c r="AZ34" s="75"/>
-      <c r="BA34" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="BB34" s="80"/>
-      <c r="BC34" s="80"/>
-      <c r="BD34" s="80"/>
-      <c r="BE34" s="80"/>
-      <c r="BF34" s="80"/>
-      <c r="BG34" s="80"/>
-      <c r="BH34" s="81"/>
-      <c r="BI34" s="59"/>
-    </row>
-    <row r="35" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A35" s="98"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="91"/>
-      <c r="Z35" s="91"/>
-      <c r="AA35" s="91"/>
-      <c r="AB35" s="91"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="91"/>
-      <c r="AE35" s="91"/>
-      <c r="AF35" s="91"/>
-      <c r="AG35" s="91"/>
-      <c r="AH35" s="91"/>
-      <c r="AI35" s="91"/>
-      <c r="AJ35" s="91"/>
-      <c r="AK35" s="91"/>
-      <c r="AL35" s="91"/>
-      <c r="AM35" s="92"/>
-      <c r="AN35" s="76"/>
-      <c r="AO35" s="77"/>
-      <c r="AP35" s="77"/>
-      <c r="AQ35" s="78"/>
-      <c r="AR35" s="76"/>
-      <c r="AS35" s="77"/>
-      <c r="AT35" s="78"/>
-      <c r="AU35" s="76"/>
-      <c r="AV35" s="77"/>
-      <c r="AW35" s="78"/>
-      <c r="AX35" s="76"/>
-      <c r="AY35" s="77"/>
-      <c r="AZ35" s="78"/>
-      <c r="BA35" s="79"/>
-      <c r="BB35" s="80"/>
-      <c r="BC35" s="80"/>
-      <c r="BD35" s="80"/>
-      <c r="BE35" s="80"/>
-      <c r="BF35" s="80"/>
-      <c r="BG35" s="80"/>
-      <c r="BH35" s="81"/>
-      <c r="BI35" s="57"/>
-    </row>
-    <row r="36" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A36" s="96">
-        <v>15</v>
-      </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
-      <c r="AA36" s="89"/>
-      <c r="AB36" s="89"/>
-      <c r="AC36" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD36" s="89"/>
-      <c r="AE36" s="89"/>
-      <c r="AF36" s="89"/>
-      <c r="AG36" s="89"/>
-      <c r="AH36" s="89"/>
-      <c r="AI36" s="89"/>
-      <c r="AJ36" s="89"/>
-      <c r="AK36" s="89"/>
-      <c r="AL36" s="89"/>
-      <c r="AM36" s="90"/>
-      <c r="AN36" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO36" s="74"/>
-      <c r="AP36" s="74"/>
-      <c r="AQ36" s="75"/>
-      <c r="AR36" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS36" s="74"/>
-      <c r="AT36" s="75"/>
-      <c r="AU36" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV36" s="74"/>
-      <c r="AW36" s="75"/>
-      <c r="AX36" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY36" s="74"/>
-      <c r="AZ36" s="75"/>
-      <c r="BA36" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB36" s="80"/>
-      <c r="BC36" s="80"/>
-      <c r="BD36" s="80"/>
-      <c r="BE36" s="80"/>
-      <c r="BF36" s="80"/>
-      <c r="BG36" s="80"/>
-      <c r="BH36" s="81"/>
-      <c r="BI36" s="59"/>
-    </row>
-    <row r="37" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="91"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="91"/>
-      <c r="Z37" s="91"/>
-      <c r="AA37" s="91"/>
-      <c r="AB37" s="91"/>
-      <c r="AC37" s="94"/>
-      <c r="AD37" s="91"/>
-      <c r="AE37" s="91"/>
-      <c r="AF37" s="91"/>
-      <c r="AG37" s="91"/>
-      <c r="AH37" s="91"/>
-      <c r="AI37" s="91"/>
-      <c r="AJ37" s="91"/>
-      <c r="AK37" s="91"/>
-      <c r="AL37" s="91"/>
-      <c r="AM37" s="92"/>
-      <c r="AN37" s="76"/>
-      <c r="AO37" s="77"/>
-      <c r="AP37" s="77"/>
-      <c r="AQ37" s="78"/>
-      <c r="AR37" s="76"/>
-      <c r="AS37" s="77"/>
-      <c r="AT37" s="78"/>
-      <c r="AU37" s="76"/>
-      <c r="AV37" s="77"/>
-      <c r="AW37" s="78"/>
-      <c r="AX37" s="76"/>
-      <c r="AY37" s="77"/>
-      <c r="AZ37" s="78"/>
-      <c r="BA37" s="79"/>
-      <c r="BB37" s="80"/>
-      <c r="BC37" s="80"/>
-      <c r="BD37" s="80"/>
-      <c r="BE37" s="80"/>
-      <c r="BF37" s="80"/>
-      <c r="BG37" s="80"/>
-      <c r="BH37" s="81"/>
-      <c r="BI37" s="57"/>
-    </row>
-    <row r="38" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A38" s="96">
-        <v>16</v>
-      </c>
-      <c r="B38" s="97"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="89"/>
-      <c r="AB38" s="89"/>
-      <c r="AC38" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD38" s="89"/>
-      <c r="AE38" s="89"/>
-      <c r="AF38" s="89"/>
-      <c r="AG38" s="89"/>
-      <c r="AH38" s="89"/>
-      <c r="AI38" s="89"/>
-      <c r="AJ38" s="89"/>
-      <c r="AK38" s="89"/>
-      <c r="AL38" s="89"/>
-      <c r="AM38" s="90"/>
-      <c r="AN38" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO38" s="74"/>
-      <c r="AP38" s="74"/>
-      <c r="AQ38" s="75"/>
-      <c r="AR38" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS38" s="74"/>
-      <c r="AT38" s="75"/>
-      <c r="AU38" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV38" s="74"/>
-      <c r="AW38" s="75"/>
-      <c r="AX38" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY38" s="74"/>
-      <c r="AZ38" s="75"/>
-      <c r="BA38" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB38" s="80"/>
-      <c r="BC38" s="80"/>
-      <c r="BD38" s="80"/>
-      <c r="BE38" s="80"/>
-      <c r="BF38" s="80"/>
-      <c r="BG38" s="80"/>
-      <c r="BH38" s="81"/>
-      <c r="BI38" s="59"/>
-    </row>
-    <row r="39" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A39" s="98"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="91"/>
-      <c r="W39" s="91"/>
-      <c r="X39" s="91"/>
-      <c r="Y39" s="91"/>
-      <c r="Z39" s="91"/>
-      <c r="AA39" s="91"/>
-      <c r="AB39" s="91"/>
-      <c r="AC39" s="94"/>
-      <c r="AD39" s="91"/>
-      <c r="AE39" s="91"/>
-      <c r="AF39" s="91"/>
-      <c r="AG39" s="91"/>
-      <c r="AH39" s="91"/>
-      <c r="AI39" s="91"/>
-      <c r="AJ39" s="91"/>
-      <c r="AK39" s="91"/>
-      <c r="AL39" s="91"/>
-      <c r="AM39" s="92"/>
-      <c r="AN39" s="76"/>
-      <c r="AO39" s="77"/>
-      <c r="AP39" s="77"/>
-      <c r="AQ39" s="78"/>
-      <c r="AR39" s="76"/>
-      <c r="AS39" s="77"/>
-      <c r="AT39" s="78"/>
-      <c r="AU39" s="76"/>
-      <c r="AV39" s="77"/>
-      <c r="AW39" s="78"/>
-      <c r="AX39" s="76"/>
-      <c r="AY39" s="77"/>
-      <c r="AZ39" s="78"/>
-      <c r="BA39" s="79"/>
-      <c r="BB39" s="80"/>
-      <c r="BC39" s="80"/>
-      <c r="BD39" s="80"/>
-      <c r="BE39" s="80"/>
-      <c r="BF39" s="80"/>
-      <c r="BG39" s="80"/>
-      <c r="BH39" s="81"/>
-      <c r="BI39" s="57"/>
-    </row>
-    <row r="40" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A40" s="96">
-        <v>17</v>
-      </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="89"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="U40" s="89"/>
-      <c r="V40" s="89"/>
-      <c r="W40" s="89"/>
-      <c r="X40" s="89"/>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="89"/>
-      <c r="AA40" s="89"/>
-      <c r="AB40" s="89"/>
-      <c r="AC40" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD40" s="89"/>
-      <c r="AE40" s="89"/>
-      <c r="AF40" s="89"/>
-      <c r="AG40" s="89"/>
-      <c r="AH40" s="89"/>
-      <c r="AI40" s="89"/>
-      <c r="AJ40" s="89"/>
-      <c r="AK40" s="89"/>
-      <c r="AL40" s="89"/>
-      <c r="AM40" s="90"/>
-      <c r="AN40" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO40" s="74"/>
-      <c r="AP40" s="74"/>
-      <c r="AQ40" s="75"/>
-      <c r="AR40" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS40" s="74"/>
-      <c r="AT40" s="75"/>
-      <c r="AU40" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV40" s="74"/>
-      <c r="AW40" s="75"/>
-      <c r="AX40" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY40" s="74"/>
-      <c r="AZ40" s="75"/>
-      <c r="BA40" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB40" s="80"/>
-      <c r="BC40" s="80"/>
-      <c r="BD40" s="80"/>
-      <c r="BE40" s="80"/>
-      <c r="BF40" s="80"/>
-      <c r="BG40" s="80"/>
-      <c r="BH40" s="81"/>
-      <c r="BI40" s="59"/>
-    </row>
-    <row r="41" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A41" s="98"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="94"/>
-      <c r="U41" s="91"/>
-      <c r="V41" s="91"/>
-      <c r="W41" s="91"/>
-      <c r="X41" s="91"/>
-      <c r="Y41" s="91"/>
-      <c r="Z41" s="91"/>
-      <c r="AA41" s="91"/>
-      <c r="AB41" s="91"/>
-      <c r="AC41" s="94"/>
-      <c r="AD41" s="91"/>
-      <c r="AE41" s="91"/>
-      <c r="AF41" s="91"/>
-      <c r="AG41" s="91"/>
-      <c r="AH41" s="91"/>
-      <c r="AI41" s="91"/>
-      <c r="AJ41" s="91"/>
-      <c r="AK41" s="91"/>
-      <c r="AL41" s="91"/>
-      <c r="AM41" s="92"/>
-      <c r="AN41" s="76"/>
-      <c r="AO41" s="77"/>
-      <c r="AP41" s="77"/>
-      <c r="AQ41" s="78"/>
-      <c r="AR41" s="76"/>
-      <c r="AS41" s="77"/>
-      <c r="AT41" s="78"/>
-      <c r="AU41" s="76"/>
-      <c r="AV41" s="77"/>
-      <c r="AW41" s="78"/>
-      <c r="AX41" s="76"/>
-      <c r="AY41" s="77"/>
-      <c r="AZ41" s="78"/>
-      <c r="BA41" s="79"/>
-      <c r="BB41" s="80"/>
-      <c r="BC41" s="80"/>
-      <c r="BD41" s="80"/>
-      <c r="BE41" s="80"/>
-      <c r="BF41" s="80"/>
-      <c r="BG41" s="80"/>
-      <c r="BH41" s="81"/>
-      <c r="BI41" s="57"/>
-    </row>
-    <row r="42" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A42" s="96">
-        <v>18</v>
-      </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="89"/>
-      <c r="Q42" s="89"/>
-      <c r="R42" s="89"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="U42" s="89"/>
-      <c r="V42" s="89"/>
-      <c r="W42" s="89"/>
-      <c r="X42" s="89"/>
-      <c r="Y42" s="89"/>
-      <c r="Z42" s="89"/>
-      <c r="AA42" s="89"/>
-      <c r="AB42" s="89"/>
-      <c r="AC42" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD42" s="89"/>
-      <c r="AE42" s="89"/>
-      <c r="AF42" s="89"/>
-      <c r="AG42" s="89"/>
-      <c r="AH42" s="89"/>
-      <c r="AI42" s="89"/>
-      <c r="AJ42" s="89"/>
-      <c r="AK42" s="89"/>
-      <c r="AL42" s="89"/>
-      <c r="AM42" s="90"/>
-      <c r="AN42" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO42" s="74"/>
-      <c r="AP42" s="74"/>
-      <c r="AQ42" s="75"/>
-      <c r="AR42" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS42" s="74"/>
-      <c r="AT42" s="75"/>
-      <c r="AU42" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV42" s="74"/>
-      <c r="AW42" s="75"/>
-      <c r="AX42" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY42" s="74"/>
-      <c r="AZ42" s="75"/>
-      <c r="BA42" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB42" s="80"/>
-      <c r="BC42" s="80"/>
-      <c r="BD42" s="80"/>
-      <c r="BE42" s="80"/>
-      <c r="BF42" s="80"/>
-      <c r="BG42" s="80"/>
-      <c r="BH42" s="81"/>
-      <c r="BI42" s="18"/>
-    </row>
-    <row r="43" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A43" s="98"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="91"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="94"/>
-      <c r="U43" s="91"/>
-      <c r="V43" s="91"/>
-      <c r="W43" s="91"/>
-      <c r="X43" s="91"/>
-      <c r="Y43" s="91"/>
-      <c r="Z43" s="91"/>
-      <c r="AA43" s="91"/>
-      <c r="AB43" s="91"/>
-      <c r="AC43" s="94"/>
-      <c r="AD43" s="91"/>
-      <c r="AE43" s="91"/>
-      <c r="AF43" s="91"/>
-      <c r="AG43" s="91"/>
-      <c r="AH43" s="91"/>
-      <c r="AI43" s="91"/>
-      <c r="AJ43" s="91"/>
-      <c r="AK43" s="91"/>
-      <c r="AL43" s="91"/>
-      <c r="AM43" s="92"/>
-      <c r="AN43" s="76"/>
-      <c r="AO43" s="77"/>
-      <c r="AP43" s="77"/>
-      <c r="AQ43" s="78"/>
-      <c r="AR43" s="76"/>
-      <c r="AS43" s="77"/>
-      <c r="AT43" s="78"/>
-      <c r="AU43" s="76"/>
-      <c r="AV43" s="77"/>
-      <c r="AW43" s="78"/>
-      <c r="AX43" s="76"/>
-      <c r="AY43" s="77"/>
-      <c r="AZ43" s="78"/>
-      <c r="BA43" s="79"/>
-      <c r="BB43" s="80"/>
-      <c r="BC43" s="80"/>
-      <c r="BD43" s="80"/>
-      <c r="BE43" s="80"/>
-      <c r="BF43" s="80"/>
-      <c r="BG43" s="80"/>
-      <c r="BH43" s="81"/>
-      <c r="BI43" s="18"/>
-    </row>
-    <row r="44" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A44" s="96">
-        <v>19</v>
-      </c>
-      <c r="B44" s="97"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="U44" s="89"/>
-      <c r="V44" s="89"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="89"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="89"/>
-      <c r="AB44" s="89"/>
-      <c r="AC44" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD44" s="89"/>
-      <c r="AE44" s="89"/>
-      <c r="AF44" s="89"/>
-      <c r="AG44" s="89"/>
-      <c r="AH44" s="89"/>
-      <c r="AI44" s="89"/>
-      <c r="AJ44" s="89"/>
-      <c r="AK44" s="89"/>
-      <c r="AL44" s="89"/>
-      <c r="AM44" s="90"/>
-      <c r="AN44" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO44" s="74"/>
-      <c r="AP44" s="74"/>
-      <c r="AQ44" s="75"/>
-      <c r="AR44" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS44" s="74"/>
-      <c r="AT44" s="75"/>
-      <c r="AU44" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV44" s="74"/>
-      <c r="AW44" s="75"/>
-      <c r="AX44" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY44" s="74"/>
-      <c r="AZ44" s="75"/>
-      <c r="BA44" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB44" s="80"/>
-      <c r="BC44" s="80"/>
-      <c r="BD44" s="80"/>
-      <c r="BE44" s="80"/>
-      <c r="BF44" s="80"/>
-      <c r="BG44" s="80"/>
-      <c r="BH44" s="81"/>
-      <c r="BI44" s="18"/>
-    </row>
-    <row r="45" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A45" s="98"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="91"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="91"/>
-      <c r="V45" s="91"/>
-      <c r="W45" s="91"/>
-      <c r="X45" s="91"/>
-      <c r="Y45" s="91"/>
-      <c r="Z45" s="91"/>
-      <c r="AA45" s="91"/>
-      <c r="AB45" s="91"/>
-      <c r="AC45" s="94"/>
-      <c r="AD45" s="91"/>
-      <c r="AE45" s="91"/>
-      <c r="AF45" s="91"/>
-      <c r="AG45" s="91"/>
-      <c r="AH45" s="91"/>
-      <c r="AI45" s="91"/>
-      <c r="AJ45" s="91"/>
-      <c r="AK45" s="91"/>
-      <c r="AL45" s="91"/>
-      <c r="AM45" s="92"/>
-      <c r="AN45" s="76"/>
-      <c r="AO45" s="77"/>
-      <c r="AP45" s="77"/>
-      <c r="AQ45" s="78"/>
-      <c r="AR45" s="76"/>
-      <c r="AS45" s="77"/>
-      <c r="AT45" s="78"/>
-      <c r="AU45" s="76"/>
-      <c r="AV45" s="77"/>
-      <c r="AW45" s="78"/>
-      <c r="AX45" s="76"/>
-      <c r="AY45" s="77"/>
-      <c r="AZ45" s="78"/>
-      <c r="BA45" s="79"/>
-      <c r="BB45" s="80"/>
-      <c r="BC45" s="80"/>
-      <c r="BD45" s="80"/>
-      <c r="BE45" s="80"/>
-      <c r="BF45" s="80"/>
-      <c r="BG45" s="80"/>
-      <c r="BH45" s="81"/>
-      <c r="BI45" s="18"/>
-    </row>
-    <row r="46" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A46" s="96">
-        <v>20</v>
-      </c>
-      <c r="B46" s="97"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="N46" s="89"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="89"/>
-      <c r="Q46" s="89"/>
-      <c r="R46" s="89"/>
-      <c r="S46" s="90"/>
-      <c r="T46" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="U46" s="89"/>
-      <c r="V46" s="89"/>
-      <c r="W46" s="89"/>
-      <c r="X46" s="89"/>
-      <c r="Y46" s="89"/>
-      <c r="Z46" s="89"/>
-      <c r="AA46" s="89"/>
-      <c r="AB46" s="89"/>
-      <c r="AC46" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD46" s="89"/>
-      <c r="AE46" s="89"/>
-      <c r="AF46" s="89"/>
-      <c r="AG46" s="89"/>
-      <c r="AH46" s="89"/>
-      <c r="AI46" s="89"/>
-      <c r="AJ46" s="89"/>
-      <c r="AK46" s="89"/>
-      <c r="AL46" s="89"/>
-      <c r="AM46" s="90"/>
-      <c r="AN46" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO46" s="74"/>
-      <c r="AP46" s="74"/>
-      <c r="AQ46" s="75"/>
-      <c r="AR46" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS46" s="74"/>
-      <c r="AT46" s="75"/>
-      <c r="AU46" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV46" s="74"/>
-      <c r="AW46" s="75"/>
-      <c r="AX46" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY46" s="74"/>
-      <c r="AZ46" s="75"/>
-      <c r="BA46" s="166" t="s">
+      <c r="AY46" s="75"/>
+      <c r="AZ46" s="76"/>
+      <c r="BA46" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="BB46" s="167"/>
-      <c r="BC46" s="167"/>
-      <c r="BD46" s="167"/>
-      <c r="BE46" s="167"/>
-      <c r="BF46" s="167"/>
-      <c r="BG46" s="167"/>
-      <c r="BH46" s="168"/>
+      <c r="BB46" s="113"/>
+      <c r="BC46" s="113"/>
+      <c r="BD46" s="113"/>
+      <c r="BE46" s="113"/>
+      <c r="BF46" s="113"/>
+      <c r="BG46" s="113"/>
+      <c r="BH46" s="114"/>
       <c r="BI46" s="18"/>
     </row>
     <row r="47" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A47" s="98"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="91"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
-      <c r="S47" s="92"/>
-      <c r="T47" s="94"/>
-      <c r="U47" s="91"/>
-      <c r="V47" s="91"/>
-      <c r="W47" s="91"/>
-      <c r="X47" s="91"/>
-      <c r="Y47" s="91"/>
-      <c r="Z47" s="91"/>
-      <c r="AA47" s="91"/>
-      <c r="AB47" s="91"/>
-      <c r="AC47" s="94"/>
-      <c r="AD47" s="91"/>
-      <c r="AE47" s="91"/>
-      <c r="AF47" s="91"/>
-      <c r="AG47" s="91"/>
-      <c r="AH47" s="91"/>
-      <c r="AI47" s="91"/>
-      <c r="AJ47" s="91"/>
-      <c r="AK47" s="91"/>
-      <c r="AL47" s="91"/>
-      <c r="AM47" s="92"/>
-      <c r="AN47" s="76"/>
-      <c r="AO47" s="77"/>
-      <c r="AP47" s="77"/>
-      <c r="AQ47" s="78"/>
-      <c r="AR47" s="76"/>
-      <c r="AS47" s="77"/>
-      <c r="AT47" s="78"/>
-      <c r="AU47" s="76"/>
-      <c r="AV47" s="77"/>
-      <c r="AW47" s="78"/>
-      <c r="AX47" s="76"/>
-      <c r="AY47" s="77"/>
-      <c r="AZ47" s="78"/>
-      <c r="BA47" s="103"/>
-      <c r="BB47" s="104"/>
-      <c r="BC47" s="104"/>
-      <c r="BD47" s="104"/>
-      <c r="BE47" s="104"/>
-      <c r="BF47" s="104"/>
-      <c r="BG47" s="104"/>
-      <c r="BH47" s="105"/>
+      <c r="A47" s="93"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="84"/>
+      <c r="T47" s="99"/>
+      <c r="U47" s="83"/>
+      <c r="V47" s="83"/>
+      <c r="W47" s="83"/>
+      <c r="X47" s="83"/>
+      <c r="Y47" s="83"/>
+      <c r="Z47" s="83"/>
+      <c r="AA47" s="83"/>
+      <c r="AB47" s="83"/>
+      <c r="AC47" s="99"/>
+      <c r="AD47" s="83"/>
+      <c r="AE47" s="83"/>
+      <c r="AF47" s="83"/>
+      <c r="AG47" s="83"/>
+      <c r="AH47" s="83"/>
+      <c r="AI47" s="83"/>
+      <c r="AJ47" s="83"/>
+      <c r="AK47" s="83"/>
+      <c r="AL47" s="83"/>
+      <c r="AM47" s="84"/>
+      <c r="AN47" s="77"/>
+      <c r="AO47" s="78"/>
+      <c r="AP47" s="78"/>
+      <c r="AQ47" s="79"/>
+      <c r="AR47" s="77"/>
+      <c r="AS47" s="78"/>
+      <c r="AT47" s="79"/>
+      <c r="AU47" s="77"/>
+      <c r="AV47" s="78"/>
+      <c r="AW47" s="79"/>
+      <c r="AX47" s="77"/>
+      <c r="AY47" s="78"/>
+      <c r="AZ47" s="79"/>
+      <c r="BA47" s="115"/>
+      <c r="BB47" s="116"/>
+      <c r="BC47" s="116"/>
+      <c r="BD47" s="116"/>
+      <c r="BE47" s="116"/>
+      <c r="BF47" s="116"/>
+      <c r="BG47" s="116"/>
+      <c r="BH47" s="117"/>
       <c r="BI47" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="259">
+    <mergeCell ref="AN42:AQ43"/>
+    <mergeCell ref="AR42:AT43"/>
+    <mergeCell ref="AU42:AW43"/>
+    <mergeCell ref="AX42:AZ43"/>
+    <mergeCell ref="BA42:BH42"/>
+    <mergeCell ref="BA43:BH43"/>
+    <mergeCell ref="BA44:BH44"/>
+    <mergeCell ref="BA45:BH45"/>
+    <mergeCell ref="AX44:AZ45"/>
+    <mergeCell ref="AU44:AW45"/>
+    <mergeCell ref="AR44:AT45"/>
+    <mergeCell ref="AN44:AQ45"/>
+    <mergeCell ref="H42:L43"/>
+    <mergeCell ref="M42:S43"/>
+    <mergeCell ref="T42:AB43"/>
+    <mergeCell ref="AC42:AM43"/>
+    <mergeCell ref="H44:L45"/>
+    <mergeCell ref="M44:S45"/>
+    <mergeCell ref="T44:AB45"/>
+    <mergeCell ref="AC44:AM45"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C36:G47"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="H36:L37"/>
+    <mergeCell ref="M36:S37"/>
+    <mergeCell ref="T36:AB37"/>
+    <mergeCell ref="AC36:AM37"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="H10:L11"/>
+    <mergeCell ref="M10:S11"/>
+    <mergeCell ref="T10:AB11"/>
+    <mergeCell ref="BA8:BH8"/>
+    <mergeCell ref="AX8:AZ9"/>
+    <mergeCell ref="AU8:AW9"/>
+    <mergeCell ref="AR8:AT9"/>
+    <mergeCell ref="AN8:AQ9"/>
+    <mergeCell ref="BA9:BH9"/>
+    <mergeCell ref="AC8:AM9"/>
+    <mergeCell ref="AC10:AM11"/>
+    <mergeCell ref="AR10:AT11"/>
+    <mergeCell ref="AU10:AW11"/>
+    <mergeCell ref="AX10:AZ11"/>
+    <mergeCell ref="BA11:BH11"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="H3:AI4"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="T6:AB7"/>
+    <mergeCell ref="AC6:AM7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="H8:L9"/>
+    <mergeCell ref="M8:S9"/>
+    <mergeCell ref="T8:AB9"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="C8:G25"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="H18:L19"/>
+    <mergeCell ref="M18:S19"/>
+    <mergeCell ref="T18:AB19"/>
+    <mergeCell ref="AC18:AM19"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="H24:L25"/>
+    <mergeCell ref="M24:S25"/>
+    <mergeCell ref="T24:AB25"/>
+    <mergeCell ref="AC24:AM25"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:L13"/>
+    <mergeCell ref="M12:S13"/>
+    <mergeCell ref="BA12:BH12"/>
+    <mergeCell ref="BA13:BH13"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="AR6:AT7"/>
+    <mergeCell ref="AU6:AW7"/>
+    <mergeCell ref="AX6:AZ7"/>
+    <mergeCell ref="AN6:AQ7"/>
+    <mergeCell ref="BA6:BH7"/>
+    <mergeCell ref="AN10:AQ11"/>
+    <mergeCell ref="T12:AB13"/>
+    <mergeCell ref="AC12:AM13"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="AN12:AQ13"/>
+    <mergeCell ref="AN3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BA3:BH3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="BA4:BH4"/>
+    <mergeCell ref="BA10:BH10"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BH2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="AU16:AW17"/>
+    <mergeCell ref="AU46:AW47"/>
+    <mergeCell ref="AX14:AZ15"/>
+    <mergeCell ref="AX16:AZ17"/>
+    <mergeCell ref="BA16:BH16"/>
+    <mergeCell ref="BA17:BH17"/>
+    <mergeCell ref="BA46:BH46"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="H14:L15"/>
+    <mergeCell ref="M14:S15"/>
+    <mergeCell ref="T14:AB15"/>
+    <mergeCell ref="AC14:AM15"/>
+    <mergeCell ref="H16:L17"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="BA47:BH47"/>
+    <mergeCell ref="AC46:AM47"/>
+    <mergeCell ref="T46:AB47"/>
+    <mergeCell ref="M46:S47"/>
+    <mergeCell ref="H46:L47"/>
+    <mergeCell ref="AX46:AZ47"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="M16:S17"/>
+    <mergeCell ref="T16:AB17"/>
+    <mergeCell ref="AC16:AM17"/>
+    <mergeCell ref="BA14:BH14"/>
+    <mergeCell ref="BA15:BH15"/>
+    <mergeCell ref="AN14:AQ15"/>
+    <mergeCell ref="AN46:AQ47"/>
+    <mergeCell ref="AN16:AQ17"/>
+    <mergeCell ref="AR14:AT15"/>
+    <mergeCell ref="AR16:AT17"/>
+    <mergeCell ref="AR46:AT47"/>
+    <mergeCell ref="AU14:AW15"/>
+    <mergeCell ref="AX18:AZ19"/>
+    <mergeCell ref="BA18:BH18"/>
+    <mergeCell ref="BA19:BH19"/>
+    <mergeCell ref="AX20:AZ21"/>
+    <mergeCell ref="BA20:BH20"/>
+    <mergeCell ref="BA21:BH21"/>
+    <mergeCell ref="AX24:AZ25"/>
+    <mergeCell ref="BA24:BH24"/>
+    <mergeCell ref="BA25:BH25"/>
+    <mergeCell ref="AX26:AZ27"/>
+    <mergeCell ref="BA26:BH26"/>
+    <mergeCell ref="BA27:BH27"/>
+    <mergeCell ref="AN18:AQ19"/>
+    <mergeCell ref="AR18:AT19"/>
+    <mergeCell ref="AU18:AW19"/>
+    <mergeCell ref="AX22:AZ23"/>
+    <mergeCell ref="BA22:BH22"/>
+    <mergeCell ref="BA23:BH23"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="H20:L21"/>
+    <mergeCell ref="M20:S21"/>
+    <mergeCell ref="T20:AB21"/>
+    <mergeCell ref="AC20:AM21"/>
+    <mergeCell ref="AN20:AQ21"/>
+    <mergeCell ref="AR20:AT21"/>
+    <mergeCell ref="AU20:AW21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="H22:L23"/>
+    <mergeCell ref="M22:S23"/>
+    <mergeCell ref="T22:AB23"/>
+    <mergeCell ref="AC22:AM23"/>
+    <mergeCell ref="AN22:AQ23"/>
+    <mergeCell ref="AR22:AT23"/>
+    <mergeCell ref="AU22:AW23"/>
+    <mergeCell ref="AN24:AQ25"/>
+    <mergeCell ref="AR24:AT25"/>
+    <mergeCell ref="AU24:AW25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="H26:L27"/>
+    <mergeCell ref="M26:S27"/>
+    <mergeCell ref="T26:AB27"/>
+    <mergeCell ref="AC26:AM27"/>
+    <mergeCell ref="AN26:AQ27"/>
+    <mergeCell ref="AR26:AT27"/>
+    <mergeCell ref="AU26:AW27"/>
+    <mergeCell ref="C26:G35"/>
+    <mergeCell ref="AU34:AW35"/>
+    <mergeCell ref="AR34:AT35"/>
+    <mergeCell ref="AN34:AQ35"/>
+    <mergeCell ref="AC34:AM35"/>
+    <mergeCell ref="T34:AB35"/>
+    <mergeCell ref="AX34:AZ35"/>
+    <mergeCell ref="AX28:AZ29"/>
+    <mergeCell ref="BA28:BH28"/>
+    <mergeCell ref="BA29:BH29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="H30:L31"/>
+    <mergeCell ref="M30:S31"/>
+    <mergeCell ref="T30:AB31"/>
+    <mergeCell ref="AC30:AM31"/>
+    <mergeCell ref="AN30:AQ31"/>
+    <mergeCell ref="AR30:AT31"/>
+    <mergeCell ref="AU30:AW31"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="H28:L29"/>
+    <mergeCell ref="M28:S29"/>
+    <mergeCell ref="T28:AB29"/>
+    <mergeCell ref="AC28:AM29"/>
+    <mergeCell ref="AN28:AQ29"/>
+    <mergeCell ref="AR28:AT29"/>
+    <mergeCell ref="AU28:AW29"/>
+    <mergeCell ref="BA30:BH30"/>
+    <mergeCell ref="AX40:AZ41"/>
+    <mergeCell ref="BA40:BH40"/>
+    <mergeCell ref="BA41:BH41"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="H38:L39"/>
+    <mergeCell ref="M38:S39"/>
+    <mergeCell ref="T38:AB39"/>
+    <mergeCell ref="AC38:AM39"/>
+    <mergeCell ref="AN38:AQ39"/>
+    <mergeCell ref="AR38:AT39"/>
+    <mergeCell ref="AU38:AW39"/>
+    <mergeCell ref="AX38:AZ39"/>
+    <mergeCell ref="BA38:BH38"/>
+    <mergeCell ref="BA39:BH39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="H40:L41"/>
+    <mergeCell ref="M40:S41"/>
+    <mergeCell ref="T40:AB41"/>
+    <mergeCell ref="AC40:AM41"/>
+    <mergeCell ref="AN40:AQ41"/>
+    <mergeCell ref="AR40:AT41"/>
+    <mergeCell ref="AU40:AW41"/>
     <mergeCell ref="AN36:AQ37"/>
     <mergeCell ref="AR36:AT37"/>
     <mergeCell ref="AU36:AW37"/>
@@ -9865,241 +10100,6 @@
     <mergeCell ref="BA33:BH33"/>
     <mergeCell ref="BA34:BH34"/>
     <mergeCell ref="BA35:BH35"/>
-    <mergeCell ref="AX40:AZ41"/>
-    <mergeCell ref="BA40:BH40"/>
-    <mergeCell ref="BA41:BH41"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="H38:L39"/>
-    <mergeCell ref="M38:S39"/>
-    <mergeCell ref="T38:AB39"/>
-    <mergeCell ref="AC38:AM39"/>
-    <mergeCell ref="AN38:AQ39"/>
-    <mergeCell ref="AR38:AT39"/>
-    <mergeCell ref="AU38:AW39"/>
-    <mergeCell ref="AX38:AZ39"/>
-    <mergeCell ref="BA38:BH38"/>
-    <mergeCell ref="BA39:BH39"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="H40:L41"/>
-    <mergeCell ref="M40:S41"/>
-    <mergeCell ref="T40:AB41"/>
-    <mergeCell ref="AC40:AM41"/>
-    <mergeCell ref="AN40:AQ41"/>
-    <mergeCell ref="AR40:AT41"/>
-    <mergeCell ref="AU40:AW41"/>
-    <mergeCell ref="AX34:AZ35"/>
-    <mergeCell ref="AX28:AZ29"/>
-    <mergeCell ref="BA28:BH28"/>
-    <mergeCell ref="BA29:BH29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="H30:L31"/>
-    <mergeCell ref="M30:S31"/>
-    <mergeCell ref="T30:AB31"/>
-    <mergeCell ref="AC30:AM31"/>
-    <mergeCell ref="AN30:AQ31"/>
-    <mergeCell ref="AR30:AT31"/>
-    <mergeCell ref="AU30:AW31"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="H28:L29"/>
-    <mergeCell ref="M28:S29"/>
-    <mergeCell ref="T28:AB29"/>
-    <mergeCell ref="AC28:AM29"/>
-    <mergeCell ref="AN28:AQ29"/>
-    <mergeCell ref="AR28:AT29"/>
-    <mergeCell ref="AU28:AW29"/>
-    <mergeCell ref="BA30:BH30"/>
-    <mergeCell ref="AN24:AQ25"/>
-    <mergeCell ref="AR24:AT25"/>
-    <mergeCell ref="AU24:AW25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="H26:L27"/>
-    <mergeCell ref="M26:S27"/>
-    <mergeCell ref="T26:AB27"/>
-    <mergeCell ref="AC26:AM27"/>
-    <mergeCell ref="AN26:AQ27"/>
-    <mergeCell ref="AR26:AT27"/>
-    <mergeCell ref="AU26:AW27"/>
-    <mergeCell ref="C26:G35"/>
-    <mergeCell ref="AU34:AW35"/>
-    <mergeCell ref="AR34:AT35"/>
-    <mergeCell ref="AN34:AQ35"/>
-    <mergeCell ref="AC34:AM35"/>
-    <mergeCell ref="T34:AB35"/>
-    <mergeCell ref="AX22:AZ23"/>
-    <mergeCell ref="BA22:BH22"/>
-    <mergeCell ref="BA23:BH23"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="H20:L21"/>
-    <mergeCell ref="M20:S21"/>
-    <mergeCell ref="T20:AB21"/>
-    <mergeCell ref="AC20:AM21"/>
-    <mergeCell ref="AN20:AQ21"/>
-    <mergeCell ref="AR20:AT21"/>
-    <mergeCell ref="AU20:AW21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="H22:L23"/>
-    <mergeCell ref="M22:S23"/>
-    <mergeCell ref="T22:AB23"/>
-    <mergeCell ref="AC22:AM23"/>
-    <mergeCell ref="AN22:AQ23"/>
-    <mergeCell ref="AR22:AT23"/>
-    <mergeCell ref="AU22:AW23"/>
-    <mergeCell ref="BA14:BH14"/>
-    <mergeCell ref="BA15:BH15"/>
-    <mergeCell ref="AN14:AQ15"/>
-    <mergeCell ref="AN46:AQ47"/>
-    <mergeCell ref="AN16:AQ17"/>
-    <mergeCell ref="AR14:AT15"/>
-    <mergeCell ref="AR16:AT17"/>
-    <mergeCell ref="AR46:AT47"/>
-    <mergeCell ref="AU14:AW15"/>
-    <mergeCell ref="AX18:AZ19"/>
-    <mergeCell ref="BA18:BH18"/>
-    <mergeCell ref="BA19:BH19"/>
-    <mergeCell ref="AX20:AZ21"/>
-    <mergeCell ref="BA20:BH20"/>
-    <mergeCell ref="BA21:BH21"/>
-    <mergeCell ref="AX24:AZ25"/>
-    <mergeCell ref="BA24:BH24"/>
-    <mergeCell ref="BA25:BH25"/>
-    <mergeCell ref="AX26:AZ27"/>
-    <mergeCell ref="BA26:BH26"/>
-    <mergeCell ref="BA27:BH27"/>
-    <mergeCell ref="AN18:AQ19"/>
-    <mergeCell ref="AR18:AT19"/>
-    <mergeCell ref="AU18:AW19"/>
-    <mergeCell ref="AU16:AW17"/>
-    <mergeCell ref="AU46:AW47"/>
-    <mergeCell ref="AX14:AZ15"/>
-    <mergeCell ref="AX16:AZ17"/>
-    <mergeCell ref="BA16:BH16"/>
-    <mergeCell ref="BA17:BH17"/>
-    <mergeCell ref="BA46:BH46"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="H14:L15"/>
-    <mergeCell ref="M14:S15"/>
-    <mergeCell ref="T14:AB15"/>
-    <mergeCell ref="AC14:AM15"/>
-    <mergeCell ref="H16:L17"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="BA47:BH47"/>
-    <mergeCell ref="AC46:AM47"/>
-    <mergeCell ref="T46:AB47"/>
-    <mergeCell ref="M46:S47"/>
-    <mergeCell ref="H46:L47"/>
-    <mergeCell ref="AX46:AZ47"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="M16:S17"/>
-    <mergeCell ref="T16:AB17"/>
-    <mergeCell ref="AC16:AM17"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BH2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="AN3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BA3:BH3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="BA4:BH4"/>
-    <mergeCell ref="BA10:BH10"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="BA12:BH12"/>
-    <mergeCell ref="BA13:BH13"/>
-    <mergeCell ref="C6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="AR6:AT7"/>
-    <mergeCell ref="AU6:AW7"/>
-    <mergeCell ref="AX6:AZ7"/>
-    <mergeCell ref="AN6:AQ7"/>
-    <mergeCell ref="BA6:BH7"/>
-    <mergeCell ref="AN10:AQ11"/>
-    <mergeCell ref="T12:AB13"/>
-    <mergeCell ref="AC12:AM13"/>
-    <mergeCell ref="AR12:AT13"/>
-    <mergeCell ref="AU12:AW13"/>
-    <mergeCell ref="AX12:AZ13"/>
-    <mergeCell ref="AN12:AQ13"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="H3:AI4"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="T6:AB7"/>
-    <mergeCell ref="AC6:AM7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="H8:L9"/>
-    <mergeCell ref="M8:S9"/>
-    <mergeCell ref="T8:AB9"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="C8:G25"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="H18:L19"/>
-    <mergeCell ref="M18:S19"/>
-    <mergeCell ref="T18:AB19"/>
-    <mergeCell ref="AC18:AM19"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="H24:L25"/>
-    <mergeCell ref="M24:S25"/>
-    <mergeCell ref="T24:AB25"/>
-    <mergeCell ref="AC24:AM25"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:L13"/>
-    <mergeCell ref="M12:S13"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="H10:L11"/>
-    <mergeCell ref="M10:S11"/>
-    <mergeCell ref="T10:AB11"/>
-    <mergeCell ref="BA8:BH8"/>
-    <mergeCell ref="AX8:AZ9"/>
-    <mergeCell ref="AU8:AW9"/>
-    <mergeCell ref="AR8:AT9"/>
-    <mergeCell ref="AN8:AQ9"/>
-    <mergeCell ref="BA9:BH9"/>
-    <mergeCell ref="AC8:AM9"/>
-    <mergeCell ref="AC10:AM11"/>
-    <mergeCell ref="AR10:AT11"/>
-    <mergeCell ref="AU10:AW11"/>
-    <mergeCell ref="AX10:AZ11"/>
-    <mergeCell ref="BA11:BH11"/>
-    <mergeCell ref="H42:L43"/>
-    <mergeCell ref="M42:S43"/>
-    <mergeCell ref="T42:AB43"/>
-    <mergeCell ref="AC42:AM43"/>
-    <mergeCell ref="H44:L45"/>
-    <mergeCell ref="M44:S45"/>
-    <mergeCell ref="T44:AB45"/>
-    <mergeCell ref="AC44:AM45"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C36:G47"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="H36:L37"/>
-    <mergeCell ref="M36:S37"/>
-    <mergeCell ref="T36:AB37"/>
-    <mergeCell ref="AC36:AM37"/>
-    <mergeCell ref="AN42:AQ43"/>
-    <mergeCell ref="AR42:AT43"/>
-    <mergeCell ref="AU42:AW43"/>
-    <mergeCell ref="AX42:AZ43"/>
-    <mergeCell ref="BA42:BH42"/>
-    <mergeCell ref="BA43:BH43"/>
-    <mergeCell ref="BA44:BH44"/>
-    <mergeCell ref="BA45:BH45"/>
-    <mergeCell ref="AX44:AZ45"/>
-    <mergeCell ref="AU44:AW45"/>
-    <mergeCell ref="AR44:AT45"/>
-    <mergeCell ref="AN44:AQ45"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR26 AR28 AR10 AR12 AR14 AR16 AR18 AR20 AR22 AR24 AR30 AR32 AR34 AR36 AR38 AR40 AR42 AR44 AR46">
@@ -10893,151 +10893,151 @@
       <c r="E274" s="64"/>
     </row>
     <row r="275" spans="1:5" s="1" customFormat="1">
-      <c r="A275" s="174"/>
+      <c r="A275" s="71"/>
       <c r="B275" s="63"/>
-      <c r="C275" s="174"/>
-      <c r="D275" s="174"/>
-      <c r="E275" s="174"/>
+      <c r="C275" s="71"/>
+      <c r="D275" s="71"/>
+      <c r="E275" s="71"/>
     </row>
     <row r="276" spans="1:5" s="1" customFormat="1">
-      <c r="A276" s="174"/>
+      <c r="A276" s="71"/>
       <c r="B276" s="63"/>
-      <c r="C276" s="174"/>
-      <c r="D276" s="174"/>
-      <c r="E276" s="174"/>
+      <c r="C276" s="71"/>
+      <c r="D276" s="71"/>
+      <c r="E276" s="71"/>
     </row>
     <row r="277" spans="1:5" s="1" customFormat="1">
-      <c r="A277" s="174"/>
+      <c r="A277" s="71"/>
       <c r="B277" s="63"/>
-      <c r="C277" s="174"/>
-      <c r="D277" s="174"/>
-      <c r="E277" s="174"/>
+      <c r="C277" s="71"/>
+      <c r="D277" s="71"/>
+      <c r="E277" s="71"/>
     </row>
     <row r="278" spans="1:5" s="1" customFormat="1">
-      <c r="A278" s="174"/>
+      <c r="A278" s="71"/>
       <c r="B278" s="63"/>
-      <c r="C278" s="174"/>
-      <c r="D278" s="174"/>
-      <c r="E278" s="174"/>
+      <c r="C278" s="71"/>
+      <c r="D278" s="71"/>
+      <c r="E278" s="71"/>
     </row>
     <row r="279" spans="1:5" s="1" customFormat="1">
-      <c r="A279" s="174"/>
+      <c r="A279" s="71"/>
       <c r="B279" s="63"/>
-      <c r="C279" s="174"/>
-      <c r="D279" s="174"/>
-      <c r="E279" s="174"/>
+      <c r="C279" s="71"/>
+      <c r="D279" s="71"/>
+      <c r="E279" s="71"/>
     </row>
     <row r="280" spans="1:5" s="1" customFormat="1">
-      <c r="A280" s="174"/>
+      <c r="A280" s="71"/>
       <c r="B280" s="63"/>
-      <c r="C280" s="174"/>
-      <c r="D280" s="174"/>
-      <c r="E280" s="174"/>
+      <c r="C280" s="71"/>
+      <c r="D280" s="71"/>
+      <c r="E280" s="71"/>
     </row>
     <row r="281" spans="1:5" s="1" customFormat="1">
-      <c r="A281" s="174"/>
+      <c r="A281" s="71"/>
       <c r="B281" s="63"/>
-      <c r="C281" s="174"/>
-      <c r="D281" s="174"/>
-      <c r="E281" s="174"/>
+      <c r="C281" s="71"/>
+      <c r="D281" s="71"/>
+      <c r="E281" s="71"/>
     </row>
     <row r="282" spans="1:5" s="1" customFormat="1">
-      <c r="A282" s="174"/>
+      <c r="A282" s="71"/>
       <c r="B282" s="63"/>
-      <c r="C282" s="174"/>
-      <c r="D282" s="174"/>
-      <c r="E282" s="174"/>
+      <c r="C282" s="71"/>
+      <c r="D282" s="71"/>
+      <c r="E282" s="71"/>
     </row>
     <row r="283" spans="1:5" s="1" customFormat="1">
-      <c r="A283" s="174"/>
+      <c r="A283" s="71"/>
       <c r="B283" s="63"/>
-      <c r="C283" s="174"/>
-      <c r="D283" s="174"/>
-      <c r="E283" s="174"/>
+      <c r="C283" s="71"/>
+      <c r="D283" s="71"/>
+      <c r="E283" s="71"/>
     </row>
     <row r="284" spans="1:5" s="1" customFormat="1">
-      <c r="A284" s="174"/>
+      <c r="A284" s="71"/>
       <c r="B284" s="63"/>
-      <c r="C284" s="174"/>
-      <c r="D284" s="174"/>
-      <c r="E284" s="174"/>
+      <c r="C284" s="71"/>
+      <c r="D284" s="71"/>
+      <c r="E284" s="71"/>
     </row>
     <row r="285" spans="1:5" s="1" customFormat="1">
-      <c r="A285" s="174"/>
+      <c r="A285" s="71"/>
       <c r="B285" s="63"/>
-      <c r="C285" s="174"/>
-      <c r="D285" s="174"/>
-      <c r="E285" s="174"/>
+      <c r="C285" s="71"/>
+      <c r="D285" s="71"/>
+      <c r="E285" s="71"/>
     </row>
     <row r="286" spans="1:5" s="1" customFormat="1">
-      <c r="A286" s="174"/>
+      <c r="A286" s="71"/>
       <c r="B286" s="63"/>
-      <c r="C286" s="174"/>
-      <c r="D286" s="174"/>
-      <c r="E286" s="174"/>
+      <c r="C286" s="71"/>
+      <c r="D286" s="71"/>
+      <c r="E286" s="71"/>
     </row>
     <row r="287" spans="1:5" s="1" customFormat="1">
-      <c r="A287" s="174"/>
+      <c r="A287" s="71"/>
       <c r="B287" s="63"/>
-      <c r="C287" s="174"/>
-      <c r="D287" s="174"/>
-      <c r="E287" s="174"/>
+      <c r="C287" s="71"/>
+      <c r="D287" s="71"/>
+      <c r="E287" s="71"/>
     </row>
     <row r="288" spans="1:5" s="1" customFormat="1">
-      <c r="A288" s="174"/>
+      <c r="A288" s="71"/>
       <c r="B288" s="63"/>
-      <c r="C288" s="174"/>
-      <c r="D288" s="174"/>
-      <c r="E288" s="174"/>
+      <c r="C288" s="71"/>
+      <c r="D288" s="71"/>
+      <c r="E288" s="71"/>
     </row>
     <row r="289" spans="1:5" s="1" customFormat="1">
-      <c r="A289" s="174"/>
+      <c r="A289" s="71"/>
       <c r="B289" s="63"/>
-      <c r="C289" s="174"/>
-      <c r="D289" s="174"/>
-      <c r="E289" s="174"/>
+      <c r="C289" s="71"/>
+      <c r="D289" s="71"/>
+      <c r="E289" s="71"/>
     </row>
     <row r="290" spans="1:5" s="1" customFormat="1">
-      <c r="A290" s="174"/>
+      <c r="A290" s="71"/>
       <c r="B290" s="63"/>
-      <c r="C290" s="174"/>
-      <c r="D290" s="174"/>
-      <c r="E290" s="174"/>
+      <c r="C290" s="71"/>
+      <c r="D290" s="71"/>
+      <c r="E290" s="71"/>
     </row>
     <row r="291" spans="1:5" s="1" customFormat="1">
-      <c r="A291" s="174"/>
+      <c r="A291" s="71"/>
       <c r="B291" s="63"/>
-      <c r="C291" s="174"/>
-      <c r="D291" s="174"/>
-      <c r="E291" s="174"/>
+      <c r="C291" s="71"/>
+      <c r="D291" s="71"/>
+      <c r="E291" s="71"/>
     </row>
     <row r="292" spans="1:5" s="1" customFormat="1">
-      <c r="A292" s="174"/>
+      <c r="A292" s="71"/>
       <c r="B292" s="63"/>
-      <c r="C292" s="174"/>
-      <c r="D292" s="174"/>
-      <c r="E292" s="174"/>
+      <c r="C292" s="71"/>
+      <c r="D292" s="71"/>
+      <c r="E292" s="71"/>
     </row>
     <row r="293" spans="1:5" s="1" customFormat="1">
-      <c r="A293" s="174"/>
+      <c r="A293" s="71"/>
       <c r="B293" s="63"/>
-      <c r="C293" s="174"/>
-      <c r="D293" s="174"/>
-      <c r="E293" s="174"/>
+      <c r="C293" s="71"/>
+      <c r="D293" s="71"/>
+      <c r="E293" s="71"/>
     </row>
     <row r="294" spans="1:5" s="1" customFormat="1">
-      <c r="A294" s="174"/>
+      <c r="A294" s="71"/>
       <c r="B294" s="63"/>
-      <c r="C294" s="174"/>
-      <c r="D294" s="174"/>
-      <c r="E294" s="174"/>
+      <c r="C294" s="71"/>
+      <c r="D294" s="71"/>
+      <c r="E294" s="71"/>
     </row>
     <row r="295" spans="1:5" s="62" customFormat="1">
-      <c r="A295" s="174"/>
+      <c r="A295" s="71"/>
       <c r="B295" s="63"/>
-      <c r="C295" s="174"/>
-      <c r="D295" s="174"/>
-      <c r="E295" s="174"/>
+      <c r="C295" s="71"/>
+      <c r="D295" s="71"/>
+      <c r="E295" s="71"/>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="64">
@@ -11049,144 +11049,144 @@
       <c r="E296" s="64"/>
     </row>
     <row r="297" spans="1:5" s="1" customFormat="1">
-      <c r="A297" s="174"/>
+      <c r="A297" s="71"/>
       <c r="B297" s="63"/>
-      <c r="C297" s="174"/>
-      <c r="D297" s="174"/>
-      <c r="E297" s="174"/>
+      <c r="C297" s="71"/>
+      <c r="D297" s="71"/>
+      <c r="E297" s="71"/>
     </row>
     <row r="298" spans="1:5" s="1" customFormat="1">
-      <c r="A298" s="174"/>
+      <c r="A298" s="71"/>
       <c r="B298" s="63"/>
-      <c r="C298" s="174"/>
-      <c r="D298" s="174"/>
-      <c r="E298" s="174"/>
+      <c r="C298" s="71"/>
+      <c r="D298" s="71"/>
+      <c r="E298" s="71"/>
     </row>
     <row r="299" spans="1:5" s="1" customFormat="1">
-      <c r="A299" s="174"/>
+      <c r="A299" s="71"/>
       <c r="B299" s="63"/>
-      <c r="C299" s="174"/>
-      <c r="D299" s="174"/>
-      <c r="E299" s="174"/>
+      <c r="C299" s="71"/>
+      <c r="D299" s="71"/>
+      <c r="E299" s="71"/>
     </row>
     <row r="300" spans="1:5" s="1" customFormat="1">
-      <c r="A300" s="174"/>
+      <c r="A300" s="71"/>
       <c r="B300" s="63"/>
-      <c r="C300" s="174"/>
-      <c r="D300" s="174"/>
-      <c r="E300" s="174"/>
+      <c r="C300" s="71"/>
+      <c r="D300" s="71"/>
+      <c r="E300" s="71"/>
     </row>
     <row r="301" spans="1:5" s="1" customFormat="1">
-      <c r="A301" s="174"/>
+      <c r="A301" s="71"/>
       <c r="B301" s="63"/>
-      <c r="C301" s="174"/>
-      <c r="D301" s="174"/>
-      <c r="E301" s="174"/>
+      <c r="C301" s="71"/>
+      <c r="D301" s="71"/>
+      <c r="E301" s="71"/>
     </row>
     <row r="302" spans="1:5" s="1" customFormat="1">
-      <c r="A302" s="174"/>
+      <c r="A302" s="71"/>
       <c r="B302" s="63"/>
-      <c r="C302" s="174"/>
-      <c r="D302" s="174"/>
-      <c r="E302" s="174"/>
+      <c r="C302" s="71"/>
+      <c r="D302" s="71"/>
+      <c r="E302" s="71"/>
     </row>
     <row r="303" spans="1:5" s="1" customFormat="1">
-      <c r="A303" s="174"/>
+      <c r="A303" s="71"/>
       <c r="B303" s="63"/>
-      <c r="C303" s="174"/>
-      <c r="D303" s="174"/>
-      <c r="E303" s="174"/>
+      <c r="C303" s="71"/>
+      <c r="D303" s="71"/>
+      <c r="E303" s="71"/>
     </row>
     <row r="304" spans="1:5" s="1" customFormat="1">
-      <c r="A304" s="174"/>
+      <c r="A304" s="71"/>
       <c r="B304" s="63"/>
-      <c r="C304" s="174"/>
-      <c r="D304" s="174"/>
-      <c r="E304" s="174"/>
+      <c r="C304" s="71"/>
+      <c r="D304" s="71"/>
+      <c r="E304" s="71"/>
     </row>
     <row r="305" spans="1:5" s="1" customFormat="1">
-      <c r="A305" s="174"/>
+      <c r="A305" s="71"/>
       <c r="B305" s="63"/>
-      <c r="C305" s="174"/>
-      <c r="D305" s="174"/>
-      <c r="E305" s="174"/>
+      <c r="C305" s="71"/>
+      <c r="D305" s="71"/>
+      <c r="E305" s="71"/>
     </row>
     <row r="306" spans="1:5" s="1" customFormat="1">
-      <c r="A306" s="174"/>
+      <c r="A306" s="71"/>
       <c r="B306" s="63"/>
-      <c r="C306" s="174"/>
-      <c r="D306" s="174"/>
-      <c r="E306" s="174"/>
+      <c r="C306" s="71"/>
+      <c r="D306" s="71"/>
+      <c r="E306" s="71"/>
     </row>
     <row r="307" spans="1:5" s="1" customFormat="1">
-      <c r="A307" s="174"/>
+      <c r="A307" s="71"/>
       <c r="B307" s="63"/>
-      <c r="C307" s="174"/>
-      <c r="D307" s="174"/>
-      <c r="E307" s="174"/>
+      <c r="C307" s="71"/>
+      <c r="D307" s="71"/>
+      <c r="E307" s="71"/>
     </row>
     <row r="308" spans="1:5" s="1" customFormat="1">
-      <c r="A308" s="174"/>
+      <c r="A308" s="71"/>
       <c r="B308" s="63"/>
-      <c r="C308" s="174"/>
-      <c r="D308" s="174"/>
-      <c r="E308" s="174"/>
+      <c r="C308" s="71"/>
+      <c r="D308" s="71"/>
+      <c r="E308" s="71"/>
     </row>
     <row r="309" spans="1:5" s="1" customFormat="1">
-      <c r="A309" s="174"/>
+      <c r="A309" s="71"/>
       <c r="B309" s="63"/>
-      <c r="C309" s="174"/>
-      <c r="D309" s="174"/>
-      <c r="E309" s="174"/>
+      <c r="C309" s="71"/>
+      <c r="D309" s="71"/>
+      <c r="E309" s="71"/>
     </row>
     <row r="310" spans="1:5" s="1" customFormat="1">
-      <c r="A310" s="174"/>
+      <c r="A310" s="71"/>
       <c r="B310" s="63"/>
-      <c r="C310" s="174"/>
-      <c r="D310" s="174"/>
-      <c r="E310" s="174"/>
+      <c r="C310" s="71"/>
+      <c r="D310" s="71"/>
+      <c r="E310" s="71"/>
     </row>
     <row r="311" spans="1:5" s="1" customFormat="1">
-      <c r="A311" s="174"/>
+      <c r="A311" s="71"/>
       <c r="B311" s="63"/>
-      <c r="C311" s="174"/>
-      <c r="D311" s="174"/>
-      <c r="E311" s="174"/>
+      <c r="C311" s="71"/>
+      <c r="D311" s="71"/>
+      <c r="E311" s="71"/>
     </row>
     <row r="312" spans="1:5" s="1" customFormat="1">
-      <c r="A312" s="174"/>
+      <c r="A312" s="71"/>
       <c r="B312" s="63"/>
-      <c r="C312" s="174"/>
-      <c r="D312" s="174"/>
-      <c r="E312" s="174"/>
+      <c r="C312" s="71"/>
+      <c r="D312" s="71"/>
+      <c r="E312" s="71"/>
     </row>
     <row r="313" spans="1:5" s="1" customFormat="1">
-      <c r="A313" s="174"/>
+      <c r="A313" s="71"/>
       <c r="B313" s="63"/>
-      <c r="C313" s="174"/>
-      <c r="D313" s="174"/>
-      <c r="E313" s="174"/>
+      <c r="C313" s="71"/>
+      <c r="D313" s="71"/>
+      <c r="E313" s="71"/>
     </row>
     <row r="314" spans="1:5" s="1" customFormat="1">
-      <c r="A314" s="174"/>
+      <c r="A314" s="71"/>
       <c r="B314" s="63"/>
-      <c r="C314" s="174"/>
-      <c r="D314" s="174"/>
-      <c r="E314" s="174"/>
+      <c r="C314" s="71"/>
+      <c r="D314" s="71"/>
+      <c r="E314" s="71"/>
     </row>
     <row r="315" spans="1:5" s="1" customFormat="1">
-      <c r="A315" s="174"/>
+      <c r="A315" s="71"/>
       <c r="B315" s="63"/>
-      <c r="C315" s="174"/>
-      <c r="D315" s="174"/>
-      <c r="E315" s="174"/>
+      <c r="C315" s="71"/>
+      <c r="D315" s="71"/>
+      <c r="E315" s="71"/>
     </row>
     <row r="316" spans="1:5" s="1" customFormat="1">
-      <c r="A316" s="174"/>
+      <c r="A316" s="71"/>
       <c r="B316" s="63"/>
-      <c r="C316" s="174"/>
-      <c r="D316" s="174"/>
-      <c r="E316" s="174"/>
+      <c r="C316" s="71"/>
+      <c r="D316" s="71"/>
+      <c r="E316" s="71"/>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="64">
@@ -11198,228 +11198,228 @@
       <c r="E317" s="64"/>
     </row>
     <row r="318" spans="1:5" s="1" customFormat="1">
-      <c r="A318" s="174"/>
+      <c r="A318" s="71"/>
       <c r="B318" s="63"/>
-      <c r="C318" s="174"/>
-      <c r="D318" s="174"/>
-      <c r="E318" s="174"/>
+      <c r="C318" s="71"/>
+      <c r="D318" s="71"/>
+      <c r="E318" s="71"/>
     </row>
     <row r="319" spans="1:5" s="1" customFormat="1">
-      <c r="A319" s="174"/>
+      <c r="A319" s="71"/>
       <c r="B319" s="63"/>
-      <c r="C319" s="174"/>
-      <c r="D319" s="174"/>
-      <c r="E319" s="174"/>
+      <c r="C319" s="71"/>
+      <c r="D319" s="71"/>
+      <c r="E319" s="71"/>
     </row>
     <row r="320" spans="1:5" s="1" customFormat="1">
-      <c r="A320" s="174"/>
+      <c r="A320" s="71"/>
       <c r="B320" s="63"/>
-      <c r="C320" s="174"/>
-      <c r="D320" s="174"/>
-      <c r="E320" s="174"/>
+      <c r="C320" s="71"/>
+      <c r="D320" s="71"/>
+      <c r="E320" s="71"/>
     </row>
     <row r="321" spans="1:5" s="1" customFormat="1">
-      <c r="A321" s="174"/>
+      <c r="A321" s="71"/>
       <c r="B321" s="63"/>
-      <c r="C321" s="174"/>
-      <c r="D321" s="174"/>
-      <c r="E321" s="174"/>
+      <c r="C321" s="71"/>
+      <c r="D321" s="71"/>
+      <c r="E321" s="71"/>
     </row>
     <row r="322" spans="1:5" s="1" customFormat="1">
-      <c r="A322" s="174"/>
+      <c r="A322" s="71"/>
       <c r="B322" s="63"/>
-      <c r="C322" s="174"/>
-      <c r="D322" s="174"/>
-      <c r="E322" s="174"/>
+      <c r="C322" s="71"/>
+      <c r="D322" s="71"/>
+      <c r="E322" s="71"/>
     </row>
     <row r="323" spans="1:5" s="1" customFormat="1">
-      <c r="A323" s="174"/>
+      <c r="A323" s="71"/>
       <c r="B323" s="63"/>
-      <c r="C323" s="174"/>
-      <c r="D323" s="174"/>
-      <c r="E323" s="174"/>
+      <c r="C323" s="71"/>
+      <c r="D323" s="71"/>
+      <c r="E323" s="71"/>
     </row>
     <row r="324" spans="1:5" s="1" customFormat="1">
-      <c r="A324" s="174"/>
+      <c r="A324" s="71"/>
       <c r="B324" s="63"/>
-      <c r="C324" s="174"/>
-      <c r="D324" s="174"/>
-      <c r="E324" s="174"/>
+      <c r="C324" s="71"/>
+      <c r="D324" s="71"/>
+      <c r="E324" s="71"/>
     </row>
     <row r="325" spans="1:5" s="1" customFormat="1">
-      <c r="A325" s="174"/>
+      <c r="A325" s="71"/>
       <c r="B325" s="63"/>
-      <c r="C325" s="174"/>
-      <c r="D325" s="174"/>
-      <c r="E325" s="174"/>
+      <c r="C325" s="71"/>
+      <c r="D325" s="71"/>
+      <c r="E325" s="71"/>
     </row>
     <row r="326" spans="1:5" s="1" customFormat="1">
-      <c r="A326" s="174"/>
+      <c r="A326" s="71"/>
       <c r="B326" s="63"/>
-      <c r="C326" s="174"/>
-      <c r="D326" s="174"/>
-      <c r="E326" s="174"/>
+      <c r="C326" s="71"/>
+      <c r="D326" s="71"/>
+      <c r="E326" s="71"/>
     </row>
     <row r="327" spans="1:5" s="1" customFormat="1">
-      <c r="A327" s="174"/>
+      <c r="A327" s="71"/>
       <c r="B327" s="63"/>
-      <c r="C327" s="174"/>
-      <c r="D327" s="174"/>
-      <c r="E327" s="174"/>
+      <c r="C327" s="71"/>
+      <c r="D327" s="71"/>
+      <c r="E327" s="71"/>
     </row>
     <row r="328" spans="1:5" s="1" customFormat="1">
-      <c r="A328" s="174"/>
+      <c r="A328" s="71"/>
       <c r="B328" s="63"/>
-      <c r="C328" s="174"/>
-      <c r="D328" s="174"/>
-      <c r="E328" s="174"/>
+      <c r="C328" s="71"/>
+      <c r="D328" s="71"/>
+      <c r="E328" s="71"/>
     </row>
     <row r="329" spans="1:5" s="1" customFormat="1">
-      <c r="A329" s="174"/>
+      <c r="A329" s="71"/>
       <c r="B329" s="63"/>
-      <c r="C329" s="174"/>
-      <c r="D329" s="174"/>
-      <c r="E329" s="174"/>
+      <c r="C329" s="71"/>
+      <c r="D329" s="71"/>
+      <c r="E329" s="71"/>
     </row>
     <row r="330" spans="1:5" s="1" customFormat="1">
-      <c r="A330" s="174"/>
+      <c r="A330" s="71"/>
       <c r="B330" s="63"/>
-      <c r="C330" s="174"/>
-      <c r="D330" s="174"/>
-      <c r="E330" s="174"/>
+      <c r="C330" s="71"/>
+      <c r="D330" s="71"/>
+      <c r="E330" s="71"/>
     </row>
     <row r="331" spans="1:5" s="1" customFormat="1">
-      <c r="A331" s="174"/>
+      <c r="A331" s="71"/>
       <c r="B331" s="63"/>
-      <c r="C331" s="174"/>
-      <c r="D331" s="174"/>
-      <c r="E331" s="174"/>
+      <c r="C331" s="71"/>
+      <c r="D331" s="71"/>
+      <c r="E331" s="71"/>
     </row>
     <row r="332" spans="1:5" s="1" customFormat="1">
-      <c r="A332" s="174"/>
+      <c r="A332" s="71"/>
       <c r="B332" s="63"/>
-      <c r="C332" s="174"/>
-      <c r="D332" s="174"/>
-      <c r="E332" s="174"/>
+      <c r="C332" s="71"/>
+      <c r="D332" s="71"/>
+      <c r="E332" s="71"/>
     </row>
     <row r="333" spans="1:5" s="1" customFormat="1">
-      <c r="A333" s="174"/>
+      <c r="A333" s="71"/>
       <c r="B333" s="63"/>
-      <c r="C333" s="174"/>
-      <c r="D333" s="174"/>
-      <c r="E333" s="174"/>
+      <c r="C333" s="71"/>
+      <c r="D333" s="71"/>
+      <c r="E333" s="71"/>
     </row>
     <row r="334" spans="1:5" s="1" customFormat="1">
-      <c r="A334" s="174"/>
+      <c r="A334" s="71"/>
       <c r="B334" s="63"/>
-      <c r="C334" s="174"/>
-      <c r="D334" s="174"/>
-      <c r="E334" s="174"/>
+      <c r="C334" s="71"/>
+      <c r="D334" s="71"/>
+      <c r="E334" s="71"/>
     </row>
     <row r="335" spans="1:5" s="1" customFormat="1">
-      <c r="A335" s="174"/>
+      <c r="A335" s="71"/>
       <c r="B335" s="63"/>
-      <c r="C335" s="174"/>
-      <c r="D335" s="174"/>
-      <c r="E335" s="174"/>
+      <c r="C335" s="71"/>
+      <c r="D335" s="71"/>
+      <c r="E335" s="71"/>
     </row>
     <row r="336" spans="1:5" s="1" customFormat="1">
-      <c r="A336" s="174"/>
+      <c r="A336" s="71"/>
       <c r="B336" s="63"/>
-      <c r="C336" s="174"/>
-      <c r="D336" s="174"/>
-      <c r="E336" s="174"/>
+      <c r="C336" s="71"/>
+      <c r="D336" s="71"/>
+      <c r="E336" s="71"/>
     </row>
     <row r="337" spans="1:5" s="1" customFormat="1">
-      <c r="A337" s="174"/>
+      <c r="A337" s="71"/>
       <c r="B337" s="63"/>
-      <c r="C337" s="174"/>
-      <c r="D337" s="174"/>
-      <c r="E337" s="174"/>
+      <c r="C337" s="71"/>
+      <c r="D337" s="71"/>
+      <c r="E337" s="71"/>
     </row>
     <row r="338" spans="1:5" s="1" customFormat="1">
-      <c r="A338" s="174"/>
+      <c r="A338" s="71"/>
       <c r="B338" s="63"/>
-      <c r="C338" s="174"/>
-      <c r="D338" s="174"/>
-      <c r="E338" s="174"/>
+      <c r="C338" s="71"/>
+      <c r="D338" s="71"/>
+      <c r="E338" s="71"/>
     </row>
     <row r="339" spans="1:5" s="1" customFormat="1">
-      <c r="A339" s="174"/>
+      <c r="A339" s="71"/>
       <c r="B339" s="63"/>
-      <c r="C339" s="174"/>
-      <c r="D339" s="174"/>
-      <c r="E339" s="174"/>
+      <c r="C339" s="71"/>
+      <c r="D339" s="71"/>
+      <c r="E339" s="71"/>
     </row>
     <row r="340" spans="1:5" s="1" customFormat="1">
-      <c r="A340" s="174"/>
+      <c r="A340" s="71"/>
       <c r="B340" s="63"/>
-      <c r="C340" s="174"/>
-      <c r="D340" s="174"/>
-      <c r="E340" s="174"/>
+      <c r="C340" s="71"/>
+      <c r="D340" s="71"/>
+      <c r="E340" s="71"/>
     </row>
     <row r="341" spans="1:5" s="1" customFormat="1">
-      <c r="A341" s="174"/>
+      <c r="A341" s="71"/>
       <c r="B341" s="63"/>
-      <c r="C341" s="174"/>
-      <c r="D341" s="174"/>
-      <c r="E341" s="174"/>
+      <c r="C341" s="71"/>
+      <c r="D341" s="71"/>
+      <c r="E341" s="71"/>
     </row>
     <row r="342" spans="1:5" s="1" customFormat="1">
-      <c r="A342" s="174"/>
+      <c r="A342" s="71"/>
       <c r="B342" s="63"/>
-      <c r="C342" s="174"/>
-      <c r="D342" s="174"/>
-      <c r="E342" s="174"/>
+      <c r="C342" s="71"/>
+      <c r="D342" s="71"/>
+      <c r="E342" s="71"/>
     </row>
     <row r="343" spans="1:5" s="1" customFormat="1">
-      <c r="A343" s="174"/>
+      <c r="A343" s="71"/>
       <c r="B343" s="63"/>
-      <c r="C343" s="174"/>
-      <c r="D343" s="174"/>
-      <c r="E343" s="174"/>
+      <c r="C343" s="71"/>
+      <c r="D343" s="71"/>
+      <c r="E343" s="71"/>
     </row>
     <row r="344" spans="1:5" s="1" customFormat="1">
-      <c r="A344" s="174"/>
+      <c r="A344" s="71"/>
       <c r="B344" s="63"/>
-      <c r="C344" s="174"/>
-      <c r="D344" s="174"/>
-      <c r="E344" s="174"/>
+      <c r="C344" s="71"/>
+      <c r="D344" s="71"/>
+      <c r="E344" s="71"/>
     </row>
     <row r="345" spans="1:5" s="1" customFormat="1">
-      <c r="A345" s="174"/>
+      <c r="A345" s="71"/>
       <c r="B345" s="63"/>
-      <c r="C345" s="174"/>
-      <c r="D345" s="174"/>
-      <c r="E345" s="174"/>
+      <c r="C345" s="71"/>
+      <c r="D345" s="71"/>
+      <c r="E345" s="71"/>
     </row>
     <row r="346" spans="1:5" s="1" customFormat="1">
-      <c r="A346" s="174"/>
+      <c r="A346" s="71"/>
       <c r="B346" s="63"/>
-      <c r="C346" s="174"/>
-      <c r="D346" s="174"/>
-      <c r="E346" s="174"/>
+      <c r="C346" s="71"/>
+      <c r="D346" s="71"/>
+      <c r="E346" s="71"/>
     </row>
     <row r="347" spans="1:5" s="1" customFormat="1">
-      <c r="A347" s="174"/>
+      <c r="A347" s="71"/>
       <c r="B347" s="63"/>
-      <c r="C347" s="174"/>
-      <c r="D347" s="174"/>
-      <c r="E347" s="174"/>
+      <c r="C347" s="71"/>
+      <c r="D347" s="71"/>
+      <c r="E347" s="71"/>
     </row>
     <row r="348" spans="1:5" s="1" customFormat="1">
-      <c r="A348" s="174"/>
+      <c r="A348" s="71"/>
       <c r="B348" s="63"/>
-      <c r="C348" s="174"/>
-      <c r="D348" s="174"/>
-      <c r="E348" s="174"/>
+      <c r="C348" s="71"/>
+      <c r="D348" s="71"/>
+      <c r="E348" s="71"/>
     </row>
     <row r="349" spans="1:5" s="1" customFormat="1">
-      <c r="A349" s="174"/>
+      <c r="A349" s="71"/>
       <c r="B349" s="63"/>
-      <c r="C349" s="174"/>
-      <c r="D349" s="174"/>
-      <c r="E349" s="174"/>
+      <c r="C349" s="71"/>
+      <c r="D349" s="71"/>
+      <c r="E349" s="71"/>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="64">
@@ -11431,277 +11431,277 @@
       <c r="E350" s="64"/>
     </row>
     <row r="351" spans="1:5" s="1" customFormat="1">
-      <c r="A351" s="174"/>
+      <c r="A351" s="71"/>
       <c r="B351" s="63"/>
-      <c r="C351" s="174"/>
-      <c r="D351" s="174"/>
-      <c r="E351" s="174"/>
+      <c r="C351" s="71"/>
+      <c r="D351" s="71"/>
+      <c r="E351" s="71"/>
     </row>
     <row r="352" spans="1:5" s="1" customFormat="1">
-      <c r="A352" s="174"/>
+      <c r="A352" s="71"/>
       <c r="B352" s="63"/>
-      <c r="C352" s="174"/>
-      <c r="D352" s="174"/>
-      <c r="E352" s="174"/>
+      <c r="C352" s="71"/>
+      <c r="D352" s="71"/>
+      <c r="E352" s="71"/>
     </row>
     <row r="353" spans="1:5" s="1" customFormat="1">
-      <c r="A353" s="174"/>
+      <c r="A353" s="71"/>
       <c r="B353" s="63"/>
-      <c r="C353" s="174"/>
-      <c r="D353" s="174"/>
-      <c r="E353" s="174"/>
+      <c r="C353" s="71"/>
+      <c r="D353" s="71"/>
+      <c r="E353" s="71"/>
     </row>
     <row r="354" spans="1:5" s="1" customFormat="1">
-      <c r="A354" s="174"/>
+      <c r="A354" s="71"/>
       <c r="B354" s="63"/>
-      <c r="C354" s="174"/>
-      <c r="D354" s="174"/>
-      <c r="E354" s="174"/>
+      <c r="C354" s="71"/>
+      <c r="D354" s="71"/>
+      <c r="E354" s="71"/>
     </row>
     <row r="355" spans="1:5" s="1" customFormat="1">
-      <c r="A355" s="174"/>
+      <c r="A355" s="71"/>
       <c r="B355" s="63"/>
-      <c r="C355" s="174"/>
-      <c r="D355" s="174"/>
-      <c r="E355" s="174"/>
+      <c r="C355" s="71"/>
+      <c r="D355" s="71"/>
+      <c r="E355" s="71"/>
     </row>
     <row r="356" spans="1:5" s="1" customFormat="1">
-      <c r="A356" s="174"/>
+      <c r="A356" s="71"/>
       <c r="B356" s="63"/>
-      <c r="C356" s="174"/>
-      <c r="D356" s="174"/>
-      <c r="E356" s="174"/>
+      <c r="C356" s="71"/>
+      <c r="D356" s="71"/>
+      <c r="E356" s="71"/>
     </row>
     <row r="357" spans="1:5" s="1" customFormat="1">
-      <c r="A357" s="174"/>
+      <c r="A357" s="71"/>
       <c r="B357" s="63"/>
-      <c r="C357" s="174"/>
-      <c r="D357" s="174"/>
-      <c r="E357" s="174"/>
+      <c r="C357" s="71"/>
+      <c r="D357" s="71"/>
+      <c r="E357" s="71"/>
     </row>
     <row r="358" spans="1:5" s="1" customFormat="1">
-      <c r="A358" s="174"/>
+      <c r="A358" s="71"/>
       <c r="B358" s="63"/>
-      <c r="C358" s="174"/>
-      <c r="D358" s="174"/>
-      <c r="E358" s="174"/>
+      <c r="C358" s="71"/>
+      <c r="D358" s="71"/>
+      <c r="E358" s="71"/>
     </row>
     <row r="359" spans="1:5" s="1" customFormat="1">
-      <c r="A359" s="174"/>
+      <c r="A359" s="71"/>
       <c r="B359" s="63"/>
-      <c r="C359" s="174"/>
-      <c r="D359" s="174"/>
-      <c r="E359" s="174"/>
+      <c r="C359" s="71"/>
+      <c r="D359" s="71"/>
+      <c r="E359" s="71"/>
     </row>
     <row r="360" spans="1:5" s="1" customFormat="1">
-      <c r="A360" s="174"/>
+      <c r="A360" s="71"/>
       <c r="B360" s="63"/>
-      <c r="C360" s="174"/>
-      <c r="D360" s="174"/>
-      <c r="E360" s="174"/>
+      <c r="C360" s="71"/>
+      <c r="D360" s="71"/>
+      <c r="E360" s="71"/>
     </row>
     <row r="361" spans="1:5" s="1" customFormat="1">
-      <c r="A361" s="174"/>
+      <c r="A361" s="71"/>
       <c r="B361" s="63"/>
-      <c r="C361" s="174"/>
-      <c r="D361" s="174"/>
-      <c r="E361" s="174"/>
+      <c r="C361" s="71"/>
+      <c r="D361" s="71"/>
+      <c r="E361" s="71"/>
     </row>
     <row r="362" spans="1:5" s="1" customFormat="1">
-      <c r="A362" s="174"/>
+      <c r="A362" s="71"/>
       <c r="B362" s="63"/>
-      <c r="C362" s="174"/>
-      <c r="D362" s="174"/>
-      <c r="E362" s="174"/>
+      <c r="C362" s="71"/>
+      <c r="D362" s="71"/>
+      <c r="E362" s="71"/>
     </row>
     <row r="363" spans="1:5" s="1" customFormat="1">
-      <c r="A363" s="174"/>
+      <c r="A363" s="71"/>
       <c r="B363" s="63"/>
-      <c r="C363" s="174"/>
-      <c r="D363" s="174"/>
-      <c r="E363" s="174"/>
+      <c r="C363" s="71"/>
+      <c r="D363" s="71"/>
+      <c r="E363" s="71"/>
     </row>
     <row r="364" spans="1:5" s="1" customFormat="1">
-      <c r="A364" s="174"/>
+      <c r="A364" s="71"/>
       <c r="B364" s="63"/>
-      <c r="C364" s="174"/>
-      <c r="D364" s="174"/>
-      <c r="E364" s="174"/>
+      <c r="C364" s="71"/>
+      <c r="D364" s="71"/>
+      <c r="E364" s="71"/>
     </row>
     <row r="365" spans="1:5" s="1" customFormat="1">
-      <c r="A365" s="174"/>
+      <c r="A365" s="71"/>
       <c r="B365" s="63"/>
-      <c r="C365" s="174"/>
-      <c r="D365" s="174"/>
-      <c r="E365" s="174"/>
+      <c r="C365" s="71"/>
+      <c r="D365" s="71"/>
+      <c r="E365" s="71"/>
     </row>
     <row r="366" spans="1:5" s="1" customFormat="1">
-      <c r="A366" s="174"/>
+      <c r="A366" s="71"/>
       <c r="B366" s="63"/>
-      <c r="C366" s="174"/>
-      <c r="D366" s="174"/>
-      <c r="E366" s="174"/>
+      <c r="C366" s="71"/>
+      <c r="D366" s="71"/>
+      <c r="E366" s="71"/>
     </row>
     <row r="367" spans="1:5" s="1" customFormat="1">
-      <c r="A367" s="174"/>
+      <c r="A367" s="71"/>
       <c r="B367" s="63"/>
-      <c r="C367" s="174"/>
-      <c r="D367" s="174"/>
-      <c r="E367" s="174"/>
+      <c r="C367" s="71"/>
+      <c r="D367" s="71"/>
+      <c r="E367" s="71"/>
     </row>
     <row r="368" spans="1:5" s="1" customFormat="1">
-      <c r="A368" s="174"/>
+      <c r="A368" s="71"/>
       <c r="B368" s="63"/>
-      <c r="C368" s="174"/>
-      <c r="D368" s="174"/>
-      <c r="E368" s="174"/>
+      <c r="C368" s="71"/>
+      <c r="D368" s="71"/>
+      <c r="E368" s="71"/>
     </row>
     <row r="369" spans="1:5" s="1" customFormat="1">
-      <c r="A369" s="174"/>
+      <c r="A369" s="71"/>
       <c r="B369" s="63"/>
-      <c r="C369" s="174"/>
-      <c r="D369" s="174"/>
-      <c r="E369" s="174"/>
+      <c r="C369" s="71"/>
+      <c r="D369" s="71"/>
+      <c r="E369" s="71"/>
     </row>
     <row r="370" spans="1:5" s="1" customFormat="1">
-      <c r="A370" s="174"/>
+      <c r="A370" s="71"/>
       <c r="B370" s="63"/>
-      <c r="C370" s="174"/>
-      <c r="D370" s="174"/>
-      <c r="E370" s="174"/>
+      <c r="C370" s="71"/>
+      <c r="D370" s="71"/>
+      <c r="E370" s="71"/>
     </row>
     <row r="371" spans="1:5" s="1" customFormat="1">
-      <c r="A371" s="174"/>
+      <c r="A371" s="71"/>
       <c r="B371" s="63"/>
-      <c r="C371" s="174"/>
-      <c r="D371" s="174"/>
-      <c r="E371" s="174"/>
+      <c r="C371" s="71"/>
+      <c r="D371" s="71"/>
+      <c r="E371" s="71"/>
     </row>
     <row r="372" spans="1:5" s="1" customFormat="1">
-      <c r="A372" s="174"/>
+      <c r="A372" s="71"/>
       <c r="B372" s="63"/>
-      <c r="C372" s="174"/>
-      <c r="D372" s="174"/>
-      <c r="E372" s="174"/>
+      <c r="C372" s="71"/>
+      <c r="D372" s="71"/>
+      <c r="E372" s="71"/>
     </row>
     <row r="373" spans="1:5" s="1" customFormat="1">
-      <c r="A373" s="174"/>
+      <c r="A373" s="71"/>
       <c r="B373" s="63"/>
-      <c r="C373" s="174"/>
-      <c r="D373" s="174"/>
-      <c r="E373" s="174"/>
+      <c r="C373" s="71"/>
+      <c r="D373" s="71"/>
+      <c r="E373" s="71"/>
     </row>
     <row r="374" spans="1:5" s="1" customFormat="1">
-      <c r="A374" s="174"/>
+      <c r="A374" s="71"/>
       <c r="B374" s="63"/>
-      <c r="C374" s="174"/>
-      <c r="D374" s="174"/>
-      <c r="E374" s="174"/>
+      <c r="C374" s="71"/>
+      <c r="D374" s="71"/>
+      <c r="E374" s="71"/>
     </row>
     <row r="375" spans="1:5" s="1" customFormat="1">
-      <c r="A375" s="174"/>
+      <c r="A375" s="71"/>
       <c r="B375" s="63"/>
-      <c r="C375" s="174"/>
-      <c r="D375" s="174"/>
-      <c r="E375" s="174"/>
+      <c r="C375" s="71"/>
+      <c r="D375" s="71"/>
+      <c r="E375" s="71"/>
     </row>
     <row r="376" spans="1:5" s="1" customFormat="1">
-      <c r="A376" s="174"/>
+      <c r="A376" s="71"/>
       <c r="B376" s="63"/>
-      <c r="C376" s="174"/>
-      <c r="D376" s="174"/>
-      <c r="E376" s="174"/>
+      <c r="C376" s="71"/>
+      <c r="D376" s="71"/>
+      <c r="E376" s="71"/>
     </row>
     <row r="377" spans="1:5" s="1" customFormat="1">
-      <c r="A377" s="174"/>
+      <c r="A377" s="71"/>
       <c r="B377" s="63"/>
-      <c r="C377" s="174"/>
-      <c r="D377" s="174"/>
-      <c r="E377" s="174"/>
+      <c r="C377" s="71"/>
+      <c r="D377" s="71"/>
+      <c r="E377" s="71"/>
     </row>
     <row r="378" spans="1:5" s="1" customFormat="1">
-      <c r="A378" s="174"/>
+      <c r="A378" s="71"/>
       <c r="B378" s="63"/>
-      <c r="C378" s="174"/>
-      <c r="D378" s="174"/>
-      <c r="E378" s="174"/>
+      <c r="C378" s="71"/>
+      <c r="D378" s="71"/>
+      <c r="E378" s="71"/>
     </row>
     <row r="379" spans="1:5" s="1" customFormat="1">
-      <c r="A379" s="174"/>
+      <c r="A379" s="71"/>
       <c r="B379" s="63"/>
-      <c r="C379" s="174"/>
-      <c r="D379" s="174"/>
-      <c r="E379" s="174"/>
+      <c r="C379" s="71"/>
+      <c r="D379" s="71"/>
+      <c r="E379" s="71"/>
     </row>
     <row r="380" spans="1:5" s="1" customFormat="1">
-      <c r="A380" s="174"/>
+      <c r="A380" s="71"/>
       <c r="B380" s="63"/>
-      <c r="C380" s="174"/>
-      <c r="D380" s="174"/>
-      <c r="E380" s="174"/>
+      <c r="C380" s="71"/>
+      <c r="D380" s="71"/>
+      <c r="E380" s="71"/>
     </row>
     <row r="381" spans="1:5" s="1" customFormat="1">
-      <c r="A381" s="174"/>
+      <c r="A381" s="71"/>
       <c r="B381" s="63"/>
-      <c r="C381" s="174"/>
-      <c r="D381" s="174"/>
-      <c r="E381" s="174"/>
+      <c r="C381" s="71"/>
+      <c r="D381" s="71"/>
+      <c r="E381" s="71"/>
     </row>
     <row r="382" spans="1:5" s="1" customFormat="1">
-      <c r="A382" s="174"/>
+      <c r="A382" s="71"/>
       <c r="B382" s="63"/>
-      <c r="C382" s="174"/>
-      <c r="D382" s="174"/>
-      <c r="E382" s="174"/>
+      <c r="C382" s="71"/>
+      <c r="D382" s="71"/>
+      <c r="E382" s="71"/>
     </row>
     <row r="383" spans="1:5" s="1" customFormat="1">
-      <c r="A383" s="174"/>
+      <c r="A383" s="71"/>
       <c r="B383" s="63"/>
-      <c r="C383" s="174"/>
-      <c r="D383" s="174"/>
-      <c r="E383" s="174"/>
+      <c r="C383" s="71"/>
+      <c r="D383" s="71"/>
+      <c r="E383" s="71"/>
     </row>
     <row r="384" spans="1:5" s="1" customFormat="1">
-      <c r="A384" s="174"/>
+      <c r="A384" s="71"/>
       <c r="B384" s="63"/>
-      <c r="C384" s="174"/>
-      <c r="D384" s="174"/>
-      <c r="E384" s="174"/>
+      <c r="C384" s="71"/>
+      <c r="D384" s="71"/>
+      <c r="E384" s="71"/>
     </row>
     <row r="385" spans="1:5" s="1" customFormat="1">
-      <c r="A385" s="174"/>
+      <c r="A385" s="71"/>
       <c r="B385" s="63"/>
-      <c r="C385" s="174"/>
-      <c r="D385" s="174"/>
-      <c r="E385" s="174"/>
+      <c r="C385" s="71"/>
+      <c r="D385" s="71"/>
+      <c r="E385" s="71"/>
     </row>
     <row r="386" spans="1:5" s="1" customFormat="1">
-      <c r="A386" s="174"/>
+      <c r="A386" s="71"/>
       <c r="B386" s="63"/>
-      <c r="C386" s="174"/>
-      <c r="D386" s="174"/>
-      <c r="E386" s="174"/>
+      <c r="C386" s="71"/>
+      <c r="D386" s="71"/>
+      <c r="E386" s="71"/>
     </row>
     <row r="387" spans="1:5" s="1" customFormat="1">
-      <c r="A387" s="174"/>
+      <c r="A387" s="71"/>
       <c r="B387" s="63"/>
-      <c r="C387" s="174"/>
-      <c r="D387" s="174"/>
-      <c r="E387" s="174"/>
+      <c r="C387" s="71"/>
+      <c r="D387" s="71"/>
+      <c r="E387" s="71"/>
     </row>
     <row r="388" spans="1:5" s="1" customFormat="1">
-      <c r="A388" s="174"/>
+      <c r="A388" s="71"/>
       <c r="B388" s="63"/>
-      <c r="C388" s="174"/>
-      <c r="D388" s="174"/>
-      <c r="E388" s="174"/>
+      <c r="C388" s="71"/>
+      <c r="D388" s="71"/>
+      <c r="E388" s="71"/>
     </row>
     <row r="389" spans="1:5" s="1" customFormat="1">
-      <c r="A389" s="174"/>
+      <c r="A389" s="71"/>
       <c r="B389" s="63"/>
-      <c r="C389" s="174"/>
-      <c r="D389" s="174"/>
-      <c r="E389" s="174"/>
+      <c r="C389" s="71"/>
+      <c r="D389" s="71"/>
+      <c r="E389" s="71"/>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="64">
@@ -11713,144 +11713,144 @@
       <c r="E390" s="64"/>
     </row>
     <row r="391" spans="1:5" s="1" customFormat="1">
-      <c r="A391" s="174"/>
+      <c r="A391" s="71"/>
       <c r="B391" s="63"/>
-      <c r="C391" s="174"/>
-      <c r="D391" s="174"/>
-      <c r="E391" s="174"/>
+      <c r="C391" s="71"/>
+      <c r="D391" s="71"/>
+      <c r="E391" s="71"/>
     </row>
     <row r="392" spans="1:5" s="1" customFormat="1">
-      <c r="A392" s="174"/>
+      <c r="A392" s="71"/>
       <c r="B392" s="63"/>
-      <c r="C392" s="174"/>
-      <c r="D392" s="174"/>
-      <c r="E392" s="174"/>
+      <c r="C392" s="71"/>
+      <c r="D392" s="71"/>
+      <c r="E392" s="71"/>
     </row>
     <row r="393" spans="1:5" s="1" customFormat="1">
-      <c r="A393" s="174"/>
+      <c r="A393" s="71"/>
       <c r="B393" s="63"/>
-      <c r="C393" s="174"/>
-      <c r="D393" s="174"/>
-      <c r="E393" s="174"/>
+      <c r="C393" s="71"/>
+      <c r="D393" s="71"/>
+      <c r="E393" s="71"/>
     </row>
     <row r="394" spans="1:5" s="1" customFormat="1">
-      <c r="A394" s="174"/>
+      <c r="A394" s="71"/>
       <c r="B394" s="63"/>
-      <c r="C394" s="174"/>
-      <c r="D394" s="174"/>
-      <c r="E394" s="174"/>
+      <c r="C394" s="71"/>
+      <c r="D394" s="71"/>
+      <c r="E394" s="71"/>
     </row>
     <row r="395" spans="1:5" s="1" customFormat="1">
-      <c r="A395" s="174"/>
+      <c r="A395" s="71"/>
       <c r="B395" s="63"/>
-      <c r="C395" s="174"/>
-      <c r="D395" s="174"/>
-      <c r="E395" s="174"/>
+      <c r="C395" s="71"/>
+      <c r="D395" s="71"/>
+      <c r="E395" s="71"/>
     </row>
     <row r="396" spans="1:5" s="1" customFormat="1">
-      <c r="A396" s="174"/>
+      <c r="A396" s="71"/>
       <c r="B396" s="63"/>
-      <c r="C396" s="174"/>
-      <c r="D396" s="174"/>
-      <c r="E396" s="174"/>
+      <c r="C396" s="71"/>
+      <c r="D396" s="71"/>
+      <c r="E396" s="71"/>
     </row>
     <row r="397" spans="1:5" s="1" customFormat="1">
-      <c r="A397" s="174"/>
+      <c r="A397" s="71"/>
       <c r="B397" s="63"/>
-      <c r="C397" s="174"/>
-      <c r="D397" s="174"/>
-      <c r="E397" s="174"/>
+      <c r="C397" s="71"/>
+      <c r="D397" s="71"/>
+      <c r="E397" s="71"/>
     </row>
     <row r="398" spans="1:5" s="1" customFormat="1">
-      <c r="A398" s="174"/>
+      <c r="A398" s="71"/>
       <c r="B398" s="63"/>
-      <c r="C398" s="174"/>
-      <c r="D398" s="174"/>
-      <c r="E398" s="174"/>
+      <c r="C398" s="71"/>
+      <c r="D398" s="71"/>
+      <c r="E398" s="71"/>
     </row>
     <row r="399" spans="1:5" s="1" customFormat="1">
-      <c r="A399" s="174"/>
+      <c r="A399" s="71"/>
       <c r="B399" s="63"/>
-      <c r="C399" s="174"/>
-      <c r="D399" s="174"/>
-      <c r="E399" s="174"/>
+      <c r="C399" s="71"/>
+      <c r="D399" s="71"/>
+      <c r="E399" s="71"/>
     </row>
     <row r="400" spans="1:5" s="1" customFormat="1">
-      <c r="A400" s="174"/>
+      <c r="A400" s="71"/>
       <c r="B400" s="63"/>
-      <c r="C400" s="174"/>
-      <c r="D400" s="174"/>
-      <c r="E400" s="174"/>
+      <c r="C400" s="71"/>
+      <c r="D400" s="71"/>
+      <c r="E400" s="71"/>
     </row>
     <row r="401" spans="1:5" s="1" customFormat="1">
-      <c r="A401" s="174"/>
+      <c r="A401" s="71"/>
       <c r="B401" s="63"/>
-      <c r="C401" s="174"/>
-      <c r="D401" s="174"/>
-      <c r="E401" s="174"/>
+      <c r="C401" s="71"/>
+      <c r="D401" s="71"/>
+      <c r="E401" s="71"/>
     </row>
     <row r="402" spans="1:5" s="1" customFormat="1">
-      <c r="A402" s="174"/>
+      <c r="A402" s="71"/>
       <c r="B402" s="63"/>
-      <c r="C402" s="174"/>
-      <c r="D402" s="174"/>
-      <c r="E402" s="174"/>
+      <c r="C402" s="71"/>
+      <c r="D402" s="71"/>
+      <c r="E402" s="71"/>
     </row>
     <row r="403" spans="1:5" s="1" customFormat="1">
-      <c r="A403" s="174"/>
+      <c r="A403" s="71"/>
       <c r="B403" s="63"/>
-      <c r="C403" s="174"/>
-      <c r="D403" s="174"/>
-      <c r="E403" s="174"/>
+      <c r="C403" s="71"/>
+      <c r="D403" s="71"/>
+      <c r="E403" s="71"/>
     </row>
     <row r="404" spans="1:5" s="1" customFormat="1">
-      <c r="A404" s="174"/>
+      <c r="A404" s="71"/>
       <c r="B404" s="63"/>
-      <c r="C404" s="174"/>
-      <c r="D404" s="174"/>
-      <c r="E404" s="174"/>
+      <c r="C404" s="71"/>
+      <c r="D404" s="71"/>
+      <c r="E404" s="71"/>
     </row>
     <row r="405" spans="1:5" s="1" customFormat="1">
-      <c r="A405" s="174"/>
+      <c r="A405" s="71"/>
       <c r="B405" s="63"/>
-      <c r="C405" s="174"/>
-      <c r="D405" s="174"/>
-      <c r="E405" s="174"/>
+      <c r="C405" s="71"/>
+      <c r="D405" s="71"/>
+      <c r="E405" s="71"/>
     </row>
     <row r="406" spans="1:5" s="1" customFormat="1">
-      <c r="A406" s="174"/>
+      <c r="A406" s="71"/>
       <c r="B406" s="63"/>
-      <c r="C406" s="174"/>
-      <c r="D406" s="174"/>
-      <c r="E406" s="174"/>
+      <c r="C406" s="71"/>
+      <c r="D406" s="71"/>
+      <c r="E406" s="71"/>
     </row>
     <row r="407" spans="1:5" s="1" customFormat="1">
-      <c r="A407" s="174"/>
+      <c r="A407" s="71"/>
       <c r="B407" s="63"/>
-      <c r="C407" s="174"/>
-      <c r="D407" s="174"/>
-      <c r="E407" s="174"/>
+      <c r="C407" s="71"/>
+      <c r="D407" s="71"/>
+      <c r="E407" s="71"/>
     </row>
     <row r="408" spans="1:5" s="1" customFormat="1">
-      <c r="A408" s="174"/>
+      <c r="A408" s="71"/>
       <c r="B408" s="63"/>
-      <c r="C408" s="174"/>
-      <c r="D408" s="174"/>
-      <c r="E408" s="174"/>
+      <c r="C408" s="71"/>
+      <c r="D408" s="71"/>
+      <c r="E408" s="71"/>
     </row>
     <row r="409" spans="1:5" s="1" customFormat="1">
-      <c r="A409" s="174"/>
+      <c r="A409" s="71"/>
       <c r="B409" s="63"/>
-      <c r="C409" s="174"/>
-      <c r="D409" s="174"/>
-      <c r="E409" s="174"/>
+      <c r="C409" s="71"/>
+      <c r="D409" s="71"/>
+      <c r="E409" s="71"/>
     </row>
     <row r="410" spans="1:5" s="1" customFormat="1">
-      <c r="A410" s="174"/>
+      <c r="A410" s="71"/>
       <c r="B410" s="63"/>
-      <c r="C410" s="174"/>
-      <c r="D410" s="174"/>
-      <c r="E410" s="174"/>
+      <c r="C410" s="71"/>
+      <c r="D410" s="71"/>
+      <c r="E410" s="71"/>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="64">
@@ -11862,144 +11862,144 @@
       <c r="E411" s="64"/>
     </row>
     <row r="412" spans="1:5">
-      <c r="A412" s="174"/>
+      <c r="A412" s="71"/>
       <c r="B412" s="63"/>
-      <c r="C412" s="174"/>
-      <c r="D412" s="174"/>
-      <c r="E412" s="174"/>
+      <c r="C412" s="71"/>
+      <c r="D412" s="71"/>
+      <c r="E412" s="71"/>
     </row>
     <row r="413" spans="1:5">
-      <c r="A413" s="174"/>
+      <c r="A413" s="71"/>
       <c r="B413" s="63"/>
-      <c r="C413" s="174"/>
-      <c r="D413" s="174"/>
-      <c r="E413" s="174"/>
+      <c r="C413" s="71"/>
+      <c r="D413" s="71"/>
+      <c r="E413" s="71"/>
     </row>
     <row r="414" spans="1:5">
-      <c r="A414" s="174"/>
+      <c r="A414" s="71"/>
       <c r="B414" s="63"/>
-      <c r="C414" s="174"/>
-      <c r="D414" s="174"/>
-      <c r="E414" s="174"/>
+      <c r="C414" s="71"/>
+      <c r="D414" s="71"/>
+      <c r="E414" s="71"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="174"/>
+      <c r="A415" s="71"/>
       <c r="B415" s="63"/>
-      <c r="C415" s="174"/>
-      <c r="D415" s="174"/>
-      <c r="E415" s="174"/>
+      <c r="C415" s="71"/>
+      <c r="D415" s="71"/>
+      <c r="E415" s="71"/>
     </row>
     <row r="416" spans="1:5">
-      <c r="A416" s="174"/>
+      <c r="A416" s="71"/>
       <c r="B416" s="63"/>
-      <c r="C416" s="174"/>
-      <c r="D416" s="174"/>
-      <c r="E416" s="174"/>
+      <c r="C416" s="71"/>
+      <c r="D416" s="71"/>
+      <c r="E416" s="71"/>
     </row>
     <row r="417" spans="1:5">
-      <c r="A417" s="174"/>
+      <c r="A417" s="71"/>
       <c r="B417" s="63"/>
-      <c r="C417" s="174"/>
-      <c r="D417" s="174"/>
-      <c r="E417" s="174"/>
+      <c r="C417" s="71"/>
+      <c r="D417" s="71"/>
+      <c r="E417" s="71"/>
     </row>
     <row r="418" spans="1:5">
-      <c r="A418" s="174"/>
+      <c r="A418" s="71"/>
       <c r="B418" s="63"/>
-      <c r="C418" s="174"/>
-      <c r="D418" s="174"/>
-      <c r="E418" s="174"/>
+      <c r="C418" s="71"/>
+      <c r="D418" s="71"/>
+      <c r="E418" s="71"/>
     </row>
     <row r="419" spans="1:5">
-      <c r="A419" s="174"/>
+      <c r="A419" s="71"/>
       <c r="B419" s="63"/>
-      <c r="C419" s="174"/>
-      <c r="D419" s="174"/>
-      <c r="E419" s="174"/>
+      <c r="C419" s="71"/>
+      <c r="D419" s="71"/>
+      <c r="E419" s="71"/>
     </row>
     <row r="420" spans="1:5">
-      <c r="A420" s="174"/>
+      <c r="A420" s="71"/>
       <c r="B420" s="63"/>
-      <c r="C420" s="174"/>
-      <c r="D420" s="174"/>
-      <c r="E420" s="174"/>
+      <c r="C420" s="71"/>
+      <c r="D420" s="71"/>
+      <c r="E420" s="71"/>
     </row>
     <row r="421" spans="1:5">
-      <c r="A421" s="174"/>
+      <c r="A421" s="71"/>
       <c r="B421" s="63"/>
-      <c r="C421" s="174"/>
-      <c r="D421" s="174"/>
-      <c r="E421" s="174"/>
+      <c r="C421" s="71"/>
+      <c r="D421" s="71"/>
+      <c r="E421" s="71"/>
     </row>
     <row r="422" spans="1:5">
-      <c r="A422" s="174"/>
+      <c r="A422" s="71"/>
       <c r="B422" s="63"/>
-      <c r="C422" s="174"/>
-      <c r="D422" s="174"/>
-      <c r="E422" s="174"/>
+      <c r="C422" s="71"/>
+      <c r="D422" s="71"/>
+      <c r="E422" s="71"/>
     </row>
     <row r="423" spans="1:5">
-      <c r="A423" s="174"/>
+      <c r="A423" s="71"/>
       <c r="B423" s="63"/>
-      <c r="C423" s="174"/>
-      <c r="D423" s="174"/>
-      <c r="E423" s="174"/>
+      <c r="C423" s="71"/>
+      <c r="D423" s="71"/>
+      <c r="E423" s="71"/>
     </row>
     <row r="424" spans="1:5">
-      <c r="A424" s="174"/>
+      <c r="A424" s="71"/>
       <c r="B424" s="63"/>
-      <c r="C424" s="174"/>
-      <c r="D424" s="174"/>
-      <c r="E424" s="174"/>
+      <c r="C424" s="71"/>
+      <c r="D424" s="71"/>
+      <c r="E424" s="71"/>
     </row>
     <row r="425" spans="1:5">
-      <c r="A425" s="174"/>
+      <c r="A425" s="71"/>
       <c r="B425" s="63"/>
-      <c r="C425" s="174"/>
-      <c r="D425" s="174"/>
-      <c r="E425" s="174"/>
+      <c r="C425" s="71"/>
+      <c r="D425" s="71"/>
+      <c r="E425" s="71"/>
     </row>
     <row r="426" spans="1:5">
-      <c r="A426" s="174"/>
+      <c r="A426" s="71"/>
       <c r="B426" s="63"/>
-      <c r="C426" s="174"/>
-      <c r="D426" s="174"/>
-      <c r="E426" s="174"/>
+      <c r="C426" s="71"/>
+      <c r="D426" s="71"/>
+      <c r="E426" s="71"/>
     </row>
     <row r="427" spans="1:5">
-      <c r="A427" s="174"/>
+      <c r="A427" s="71"/>
       <c r="B427" s="63"/>
-      <c r="C427" s="174"/>
-      <c r="D427" s="174"/>
-      <c r="E427" s="174"/>
+      <c r="C427" s="71"/>
+      <c r="D427" s="71"/>
+      <c r="E427" s="71"/>
     </row>
     <row r="428" spans="1:5">
-      <c r="A428" s="174"/>
+      <c r="A428" s="71"/>
       <c r="B428" s="63"/>
-      <c r="C428" s="174"/>
-      <c r="D428" s="174"/>
-      <c r="E428" s="174"/>
+      <c r="C428" s="71"/>
+      <c r="D428" s="71"/>
+      <c r="E428" s="71"/>
     </row>
     <row r="429" spans="1:5">
-      <c r="A429" s="174"/>
+      <c r="A429" s="71"/>
       <c r="B429" s="63"/>
-      <c r="C429" s="174"/>
-      <c r="D429" s="174"/>
-      <c r="E429" s="174"/>
+      <c r="C429" s="71"/>
+      <c r="D429" s="71"/>
+      <c r="E429" s="71"/>
     </row>
     <row r="430" spans="1:5">
-      <c r="A430" s="174"/>
+      <c r="A430" s="71"/>
       <c r="B430" s="63"/>
-      <c r="C430" s="174"/>
-      <c r="D430" s="174"/>
-      <c r="E430" s="174"/>
+      <c r="C430" s="71"/>
+      <c r="D430" s="71"/>
+      <c r="E430" s="71"/>
     </row>
     <row r="431" spans="1:5" s="1" customFormat="1">
-      <c r="A431" s="174"/>
+      <c r="A431" s="71"/>
       <c r="B431" s="63"/>
-      <c r="C431" s="174"/>
-      <c r="D431" s="174"/>
-      <c r="E431" s="174"/>
+      <c r="C431" s="71"/>
+      <c r="D431" s="71"/>
+      <c r="E431" s="71"/>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="64">
@@ -12011,144 +12011,144 @@
       <c r="E432" s="64"/>
     </row>
     <row r="433" spans="1:5" s="1" customFormat="1">
-      <c r="A433" s="174"/>
+      <c r="A433" s="71"/>
       <c r="B433" s="63"/>
-      <c r="C433" s="174"/>
-      <c r="D433" s="174"/>
-      <c r="E433" s="174"/>
+      <c r="C433" s="71"/>
+      <c r="D433" s="71"/>
+      <c r="E433" s="71"/>
     </row>
     <row r="434" spans="1:5" s="1" customFormat="1">
-      <c r="A434" s="174"/>
+      <c r="A434" s="71"/>
       <c r="B434" s="63"/>
-      <c r="C434" s="174"/>
-      <c r="D434" s="174"/>
-      <c r="E434" s="174"/>
+      <c r="C434" s="71"/>
+      <c r="D434" s="71"/>
+      <c r="E434" s="71"/>
     </row>
     <row r="435" spans="1:5" s="1" customFormat="1">
-      <c r="A435" s="174"/>
+      <c r="A435" s="71"/>
       <c r="B435" s="63"/>
-      <c r="C435" s="174"/>
-      <c r="D435" s="174"/>
-      <c r="E435" s="174"/>
+      <c r="C435" s="71"/>
+      <c r="D435" s="71"/>
+      <c r="E435" s="71"/>
     </row>
     <row r="436" spans="1:5" s="1" customFormat="1">
-      <c r="A436" s="174"/>
+      <c r="A436" s="71"/>
       <c r="B436" s="63"/>
-      <c r="C436" s="174"/>
-      <c r="D436" s="174"/>
-      <c r="E436" s="174"/>
+      <c r="C436" s="71"/>
+      <c r="D436" s="71"/>
+      <c r="E436" s="71"/>
     </row>
     <row r="437" spans="1:5" s="1" customFormat="1">
-      <c r="A437" s="174"/>
+      <c r="A437" s="71"/>
       <c r="B437" s="63"/>
-      <c r="C437" s="174"/>
-      <c r="D437" s="174"/>
-      <c r="E437" s="174"/>
+      <c r="C437" s="71"/>
+      <c r="D437" s="71"/>
+      <c r="E437" s="71"/>
     </row>
     <row r="438" spans="1:5" s="1" customFormat="1">
-      <c r="A438" s="174"/>
+      <c r="A438" s="71"/>
       <c r="B438" s="63"/>
-      <c r="C438" s="174"/>
-      <c r="D438" s="174"/>
-      <c r="E438" s="174"/>
+      <c r="C438" s="71"/>
+      <c r="D438" s="71"/>
+      <c r="E438" s="71"/>
     </row>
     <row r="439" spans="1:5" s="1" customFormat="1">
-      <c r="A439" s="174"/>
+      <c r="A439" s="71"/>
       <c r="B439" s="63"/>
-      <c r="C439" s="174"/>
-      <c r="D439" s="174"/>
-      <c r="E439" s="174"/>
+      <c r="C439" s="71"/>
+      <c r="D439" s="71"/>
+      <c r="E439" s="71"/>
     </row>
     <row r="440" spans="1:5" s="1" customFormat="1">
-      <c r="A440" s="174"/>
+      <c r="A440" s="71"/>
       <c r="B440" s="63"/>
-      <c r="C440" s="174"/>
-      <c r="D440" s="174"/>
-      <c r="E440" s="174"/>
+      <c r="C440" s="71"/>
+      <c r="D440" s="71"/>
+      <c r="E440" s="71"/>
     </row>
     <row r="441" spans="1:5" s="1" customFormat="1">
-      <c r="A441" s="174"/>
+      <c r="A441" s="71"/>
       <c r="B441" s="63"/>
-      <c r="C441" s="174"/>
-      <c r="D441" s="174"/>
-      <c r="E441" s="174"/>
+      <c r="C441" s="71"/>
+      <c r="D441" s="71"/>
+      <c r="E441" s="71"/>
     </row>
     <row r="442" spans="1:5" s="1" customFormat="1">
-      <c r="A442" s="174"/>
+      <c r="A442" s="71"/>
       <c r="B442" s="63"/>
-      <c r="C442" s="174"/>
-      <c r="D442" s="174"/>
-      <c r="E442" s="174"/>
+      <c r="C442" s="71"/>
+      <c r="D442" s="71"/>
+      <c r="E442" s="71"/>
     </row>
     <row r="443" spans="1:5" s="1" customFormat="1">
-      <c r="A443" s="174"/>
+      <c r="A443" s="71"/>
       <c r="B443" s="63"/>
-      <c r="C443" s="174"/>
-      <c r="D443" s="174"/>
-      <c r="E443" s="174"/>
+      <c r="C443" s="71"/>
+      <c r="D443" s="71"/>
+      <c r="E443" s="71"/>
     </row>
     <row r="444" spans="1:5" s="1" customFormat="1">
-      <c r="A444" s="174"/>
+      <c r="A444" s="71"/>
       <c r="B444" s="63"/>
-      <c r="C444" s="174"/>
-      <c r="D444" s="174"/>
-      <c r="E444" s="174"/>
+      <c r="C444" s="71"/>
+      <c r="D444" s="71"/>
+      <c r="E444" s="71"/>
     </row>
     <row r="445" spans="1:5" s="1" customFormat="1">
-      <c r="A445" s="174"/>
+      <c r="A445" s="71"/>
       <c r="B445" s="63"/>
-      <c r="C445" s="174"/>
-      <c r="D445" s="174"/>
-      <c r="E445" s="174"/>
+      <c r="C445" s="71"/>
+      <c r="D445" s="71"/>
+      <c r="E445" s="71"/>
     </row>
     <row r="446" spans="1:5" s="1" customFormat="1">
-      <c r="A446" s="174"/>
+      <c r="A446" s="71"/>
       <c r="B446" s="63"/>
-      <c r="C446" s="174"/>
-      <c r="D446" s="174"/>
-      <c r="E446" s="174"/>
+      <c r="C446" s="71"/>
+      <c r="D446" s="71"/>
+      <c r="E446" s="71"/>
     </row>
     <row r="447" spans="1:5" s="1" customFormat="1">
-      <c r="A447" s="174"/>
+      <c r="A447" s="71"/>
       <c r="B447" s="63"/>
-      <c r="C447" s="174"/>
-      <c r="D447" s="174"/>
-      <c r="E447" s="174"/>
+      <c r="C447" s="71"/>
+      <c r="D447" s="71"/>
+      <c r="E447" s="71"/>
     </row>
     <row r="448" spans="1:5" s="1" customFormat="1">
-      <c r="A448" s="174"/>
+      <c r="A448" s="71"/>
       <c r="B448" s="63"/>
-      <c r="C448" s="174"/>
-      <c r="D448" s="174"/>
-      <c r="E448" s="174"/>
+      <c r="C448" s="71"/>
+      <c r="D448" s="71"/>
+      <c r="E448" s="71"/>
     </row>
     <row r="449" spans="1:5" s="1" customFormat="1">
-      <c r="A449" s="174"/>
+      <c r="A449" s="71"/>
       <c r="B449" s="63"/>
-      <c r="C449" s="174"/>
-      <c r="D449" s="174"/>
-      <c r="E449" s="174"/>
+      <c r="C449" s="71"/>
+      <c r="D449" s="71"/>
+      <c r="E449" s="71"/>
     </row>
     <row r="450" spans="1:5" s="1" customFormat="1">
-      <c r="A450" s="174"/>
+      <c r="A450" s="71"/>
       <c r="B450" s="63"/>
-      <c r="C450" s="174"/>
-      <c r="D450" s="174"/>
-      <c r="E450" s="174"/>
+      <c r="C450" s="71"/>
+      <c r="D450" s="71"/>
+      <c r="E450" s="71"/>
     </row>
     <row r="451" spans="1:5" s="1" customFormat="1">
-      <c r="A451" s="174"/>
+      <c r="A451" s="71"/>
       <c r="B451" s="63"/>
-      <c r="C451" s="174"/>
-      <c r="D451" s="174"/>
-      <c r="E451" s="174"/>
+      <c r="C451" s="71"/>
+      <c r="D451" s="71"/>
+      <c r="E451" s="71"/>
     </row>
     <row r="452" spans="1:5" s="1" customFormat="1">
-      <c r="A452" s="174"/>
+      <c r="A452" s="71"/>
       <c r="B452" s="63"/>
-      <c r="C452" s="174"/>
-      <c r="D452" s="174"/>
-      <c r="E452" s="174"/>
+      <c r="C452" s="71"/>
+      <c r="D452" s="71"/>
+      <c r="E452" s="71"/>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="64">
@@ -12160,144 +12160,144 @@
       <c r="E453" s="64"/>
     </row>
     <row r="454" spans="1:5" s="1" customFormat="1">
-      <c r="A454" s="174"/>
+      <c r="A454" s="71"/>
       <c r="B454" s="63"/>
-      <c r="C454" s="174"/>
-      <c r="D454" s="174"/>
-      <c r="E454" s="174"/>
+      <c r="C454" s="71"/>
+      <c r="D454" s="71"/>
+      <c r="E454" s="71"/>
     </row>
     <row r="455" spans="1:5" s="1" customFormat="1">
-      <c r="A455" s="174"/>
+      <c r="A455" s="71"/>
       <c r="B455" s="63"/>
-      <c r="C455" s="174"/>
-      <c r="D455" s="174"/>
-      <c r="E455" s="174"/>
+      <c r="C455" s="71"/>
+      <c r="D455" s="71"/>
+      <c r="E455" s="71"/>
     </row>
     <row r="456" spans="1:5" s="1" customFormat="1">
-      <c r="A456" s="174"/>
+      <c r="A456" s="71"/>
       <c r="B456" s="63"/>
-      <c r="C456" s="174"/>
-      <c r="D456" s="174"/>
-      <c r="E456" s="174"/>
+      <c r="C456" s="71"/>
+      <c r="D456" s="71"/>
+      <c r="E456" s="71"/>
     </row>
     <row r="457" spans="1:5" s="1" customFormat="1">
-      <c r="A457" s="174"/>
+      <c r="A457" s="71"/>
       <c r="B457" s="63"/>
-      <c r="C457" s="174"/>
-      <c r="D457" s="174"/>
-      <c r="E457" s="174"/>
+      <c r="C457" s="71"/>
+      <c r="D457" s="71"/>
+      <c r="E457" s="71"/>
     </row>
     <row r="458" spans="1:5" s="1" customFormat="1">
-      <c r="A458" s="174"/>
+      <c r="A458" s="71"/>
       <c r="B458" s="63"/>
-      <c r="C458" s="174"/>
-      <c r="D458" s="174"/>
-      <c r="E458" s="174"/>
+      <c r="C458" s="71"/>
+      <c r="D458" s="71"/>
+      <c r="E458" s="71"/>
     </row>
     <row r="459" spans="1:5" s="1" customFormat="1">
-      <c r="A459" s="174"/>
+      <c r="A459" s="71"/>
       <c r="B459" s="63"/>
-      <c r="C459" s="174"/>
-      <c r="D459" s="174"/>
-      <c r="E459" s="174"/>
+      <c r="C459" s="71"/>
+      <c r="D459" s="71"/>
+      <c r="E459" s="71"/>
     </row>
     <row r="460" spans="1:5" s="1" customFormat="1">
-      <c r="A460" s="174"/>
+      <c r="A460" s="71"/>
       <c r="B460" s="63"/>
-      <c r="C460" s="174"/>
-      <c r="D460" s="174"/>
-      <c r="E460" s="174"/>
+      <c r="C460" s="71"/>
+      <c r="D460" s="71"/>
+      <c r="E460" s="71"/>
     </row>
     <row r="461" spans="1:5" s="1" customFormat="1">
-      <c r="A461" s="174"/>
+      <c r="A461" s="71"/>
       <c r="B461" s="63"/>
-      <c r="C461" s="174"/>
-      <c r="D461" s="174"/>
-      <c r="E461" s="174"/>
+      <c r="C461" s="71"/>
+      <c r="D461" s="71"/>
+      <c r="E461" s="71"/>
     </row>
     <row r="462" spans="1:5" s="1" customFormat="1">
-      <c r="A462" s="174"/>
+      <c r="A462" s="71"/>
       <c r="B462" s="63"/>
-      <c r="C462" s="174"/>
-      <c r="D462" s="174"/>
-      <c r="E462" s="174"/>
+      <c r="C462" s="71"/>
+      <c r="D462" s="71"/>
+      <c r="E462" s="71"/>
     </row>
     <row r="463" spans="1:5" s="1" customFormat="1">
-      <c r="A463" s="174"/>
+      <c r="A463" s="71"/>
       <c r="B463" s="63"/>
-      <c r="C463" s="174"/>
-      <c r="D463" s="174"/>
-      <c r="E463" s="174"/>
+      <c r="C463" s="71"/>
+      <c r="D463" s="71"/>
+      <c r="E463" s="71"/>
     </row>
     <row r="464" spans="1:5" s="1" customFormat="1">
-      <c r="A464" s="174"/>
+      <c r="A464" s="71"/>
       <c r="B464" s="63"/>
-      <c r="C464" s="174"/>
-      <c r="D464" s="174"/>
-      <c r="E464" s="174"/>
+      <c r="C464" s="71"/>
+      <c r="D464" s="71"/>
+      <c r="E464" s="71"/>
     </row>
     <row r="465" spans="1:5" s="1" customFormat="1">
-      <c r="A465" s="174"/>
+      <c r="A465" s="71"/>
       <c r="B465" s="63"/>
-      <c r="C465" s="174"/>
-      <c r="D465" s="174"/>
-      <c r="E465" s="174"/>
+      <c r="C465" s="71"/>
+      <c r="D465" s="71"/>
+      <c r="E465" s="71"/>
     </row>
     <row r="466" spans="1:5" s="1" customFormat="1">
-      <c r="A466" s="174"/>
+      <c r="A466" s="71"/>
       <c r="B466" s="63"/>
-      <c r="C466" s="174"/>
-      <c r="D466" s="174"/>
-      <c r="E466" s="174"/>
+      <c r="C466" s="71"/>
+      <c r="D466" s="71"/>
+      <c r="E466" s="71"/>
     </row>
     <row r="467" spans="1:5" s="1" customFormat="1">
-      <c r="A467" s="174"/>
+      <c r="A467" s="71"/>
       <c r="B467" s="63"/>
-      <c r="C467" s="174"/>
-      <c r="D467" s="174"/>
-      <c r="E467" s="174"/>
+      <c r="C467" s="71"/>
+      <c r="D467" s="71"/>
+      <c r="E467" s="71"/>
     </row>
     <row r="468" spans="1:5" s="1" customFormat="1">
-      <c r="A468" s="174"/>
+      <c r="A468" s="71"/>
       <c r="B468" s="63"/>
-      <c r="C468" s="174"/>
-      <c r="D468" s="174"/>
-      <c r="E468" s="174"/>
+      <c r="C468" s="71"/>
+      <c r="D468" s="71"/>
+      <c r="E468" s="71"/>
     </row>
     <row r="469" spans="1:5" s="1" customFormat="1">
-      <c r="A469" s="174"/>
+      <c r="A469" s="71"/>
       <c r="B469" s="63"/>
-      <c r="C469" s="174"/>
-      <c r="D469" s="174"/>
-      <c r="E469" s="174"/>
+      <c r="C469" s="71"/>
+      <c r="D469" s="71"/>
+      <c r="E469" s="71"/>
     </row>
     <row r="470" spans="1:5" s="1" customFormat="1">
-      <c r="A470" s="174"/>
+      <c r="A470" s="71"/>
       <c r="B470" s="63"/>
-      <c r="C470" s="174"/>
-      <c r="D470" s="174"/>
-      <c r="E470" s="174"/>
+      <c r="C470" s="71"/>
+      <c r="D470" s="71"/>
+      <c r="E470" s="71"/>
     </row>
     <row r="471" spans="1:5" s="1" customFormat="1">
-      <c r="A471" s="174"/>
+      <c r="A471" s="71"/>
       <c r="B471" s="63"/>
-      <c r="C471" s="174"/>
-      <c r="D471" s="174"/>
-      <c r="E471" s="174"/>
+      <c r="C471" s="71"/>
+      <c r="D471" s="71"/>
+      <c r="E471" s="71"/>
     </row>
     <row r="472" spans="1:5" s="1" customFormat="1">
-      <c r="A472" s="174"/>
+      <c r="A472" s="71"/>
       <c r="B472" s="63"/>
-      <c r="C472" s="174"/>
-      <c r="D472" s="174"/>
-      <c r="E472" s="174"/>
+      <c r="C472" s="71"/>
+      <c r="D472" s="71"/>
+      <c r="E472" s="71"/>
     </row>
     <row r="473" spans="1:5" s="1" customFormat="1">
-      <c r="A473" s="174"/>
+      <c r="A473" s="71"/>
       <c r="B473" s="63"/>
-      <c r="C473" s="174"/>
-      <c r="D473" s="174"/>
-      <c r="E473" s="174"/>
+      <c r="C473" s="71"/>
+      <c r="D473" s="71"/>
+      <c r="E473" s="71"/>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="64">
@@ -12309,137 +12309,137 @@
       <c r="E474" s="64"/>
     </row>
     <row r="475" spans="1:5" s="1" customFormat="1">
-      <c r="A475" s="174"/>
+      <c r="A475" s="71"/>
       <c r="B475" s="63"/>
-      <c r="C475" s="174"/>
-      <c r="D475" s="174"/>
-      <c r="E475" s="174"/>
+      <c r="C475" s="71"/>
+      <c r="D475" s="71"/>
+      <c r="E475" s="71"/>
     </row>
     <row r="476" spans="1:5" s="1" customFormat="1">
-      <c r="A476" s="174"/>
+      <c r="A476" s="71"/>
       <c r="B476" s="63"/>
-      <c r="C476" s="174"/>
-      <c r="D476" s="174"/>
-      <c r="E476" s="174"/>
+      <c r="C476" s="71"/>
+      <c r="D476" s="71"/>
+      <c r="E476" s="71"/>
     </row>
     <row r="477" spans="1:5" s="1" customFormat="1">
-      <c r="A477" s="174"/>
+      <c r="A477" s="71"/>
       <c r="B477" s="63"/>
-      <c r="C477" s="174"/>
-      <c r="D477" s="174"/>
-      <c r="E477" s="174"/>
+      <c r="C477" s="71"/>
+      <c r="D477" s="71"/>
+      <c r="E477" s="71"/>
     </row>
     <row r="478" spans="1:5" s="1" customFormat="1">
-      <c r="A478" s="174"/>
+      <c r="A478" s="71"/>
       <c r="B478" s="63"/>
-      <c r="C478" s="174"/>
-      <c r="D478" s="174"/>
-      <c r="E478" s="174"/>
+      <c r="C478" s="71"/>
+      <c r="D478" s="71"/>
+      <c r="E478" s="71"/>
     </row>
     <row r="479" spans="1:5" s="1" customFormat="1">
-      <c r="A479" s="174"/>
+      <c r="A479" s="71"/>
       <c r="B479" s="63"/>
-      <c r="C479" s="174"/>
-      <c r="D479" s="174"/>
-      <c r="E479" s="174"/>
+      <c r="C479" s="71"/>
+      <c r="D479" s="71"/>
+      <c r="E479" s="71"/>
     </row>
     <row r="480" spans="1:5" s="1" customFormat="1">
-      <c r="A480" s="174"/>
+      <c r="A480" s="71"/>
       <c r="B480" s="63"/>
-      <c r="C480" s="174"/>
-      <c r="D480" s="174"/>
-      <c r="E480" s="174"/>
+      <c r="C480" s="71"/>
+      <c r="D480" s="71"/>
+      <c r="E480" s="71"/>
     </row>
     <row r="481" spans="1:5" s="1" customFormat="1">
-      <c r="A481" s="174"/>
+      <c r="A481" s="71"/>
       <c r="B481" s="63"/>
-      <c r="C481" s="174"/>
-      <c r="D481" s="174"/>
-      <c r="E481" s="174"/>
+      <c r="C481" s="71"/>
+      <c r="D481" s="71"/>
+      <c r="E481" s="71"/>
     </row>
     <row r="482" spans="1:5" s="1" customFormat="1">
-      <c r="A482" s="174"/>
+      <c r="A482" s="71"/>
       <c r="B482" s="63"/>
-      <c r="C482" s="174"/>
-      <c r="D482" s="174"/>
-      <c r="E482" s="174"/>
+      <c r="C482" s="71"/>
+      <c r="D482" s="71"/>
+      <c r="E482" s="71"/>
     </row>
     <row r="483" spans="1:5" s="1" customFormat="1">
-      <c r="A483" s="174"/>
+      <c r="A483" s="71"/>
       <c r="B483" s="63"/>
-      <c r="C483" s="174"/>
-      <c r="D483" s="174"/>
-      <c r="E483" s="174"/>
+      <c r="C483" s="71"/>
+      <c r="D483" s="71"/>
+      <c r="E483" s="71"/>
     </row>
     <row r="484" spans="1:5" s="1" customFormat="1">
-      <c r="A484" s="174"/>
+      <c r="A484" s="71"/>
       <c r="B484" s="63"/>
-      <c r="C484" s="174"/>
-      <c r="D484" s="174"/>
-      <c r="E484" s="174"/>
+      <c r="C484" s="71"/>
+      <c r="D484" s="71"/>
+      <c r="E484" s="71"/>
     </row>
     <row r="485" spans="1:5" s="1" customFormat="1">
-      <c r="A485" s="174"/>
+      <c r="A485" s="71"/>
       <c r="B485" s="63"/>
-      <c r="C485" s="174"/>
-      <c r="D485" s="174"/>
-      <c r="E485" s="174"/>
+      <c r="C485" s="71"/>
+      <c r="D485" s="71"/>
+      <c r="E485" s="71"/>
     </row>
     <row r="486" spans="1:5" s="1" customFormat="1">
-      <c r="A486" s="174"/>
+      <c r="A486" s="71"/>
       <c r="B486" s="63"/>
-      <c r="C486" s="174"/>
-      <c r="D486" s="174"/>
-      <c r="E486" s="174"/>
+      <c r="C486" s="71"/>
+      <c r="D486" s="71"/>
+      <c r="E486" s="71"/>
     </row>
     <row r="487" spans="1:5" s="1" customFormat="1">
-      <c r="A487" s="174"/>
+      <c r="A487" s="71"/>
       <c r="B487" s="63"/>
-      <c r="C487" s="174"/>
-      <c r="D487" s="174"/>
-      <c r="E487" s="174"/>
+      <c r="C487" s="71"/>
+      <c r="D487" s="71"/>
+      <c r="E487" s="71"/>
     </row>
     <row r="488" spans="1:5" s="1" customFormat="1">
-      <c r="A488" s="174"/>
+      <c r="A488" s="71"/>
       <c r="B488" s="63"/>
-      <c r="C488" s="174"/>
-      <c r="D488" s="174"/>
-      <c r="E488" s="174"/>
+      <c r="C488" s="71"/>
+      <c r="D488" s="71"/>
+      <c r="E488" s="71"/>
     </row>
     <row r="489" spans="1:5" s="1" customFormat="1">
-      <c r="A489" s="174"/>
+      <c r="A489" s="71"/>
       <c r="B489" s="63"/>
-      <c r="C489" s="174"/>
-      <c r="D489" s="174"/>
-      <c r="E489" s="174"/>
+      <c r="C489" s="71"/>
+      <c r="D489" s="71"/>
+      <c r="E489" s="71"/>
     </row>
     <row r="490" spans="1:5" s="1" customFormat="1">
-      <c r="A490" s="174"/>
+      <c r="A490" s="71"/>
       <c r="B490" s="63"/>
-      <c r="C490" s="174"/>
-      <c r="D490" s="174"/>
-      <c r="E490" s="174"/>
+      <c r="C490" s="71"/>
+      <c r="D490" s="71"/>
+      <c r="E490" s="71"/>
     </row>
     <row r="491" spans="1:5" s="1" customFormat="1">
-      <c r="A491" s="174"/>
+      <c r="A491" s="71"/>
       <c r="B491" s="63"/>
-      <c r="C491" s="174"/>
-      <c r="D491" s="174"/>
-      <c r="E491" s="174"/>
+      <c r="C491" s="71"/>
+      <c r="D491" s="71"/>
+      <c r="E491" s="71"/>
     </row>
     <row r="492" spans="1:5" s="1" customFormat="1">
-      <c r="A492" s="174"/>
+      <c r="A492" s="71"/>
       <c r="B492" s="63"/>
-      <c r="C492" s="174"/>
-      <c r="D492" s="174"/>
-      <c r="E492" s="174"/>
+      <c r="C492" s="71"/>
+      <c r="D492" s="71"/>
+      <c r="E492" s="71"/>
     </row>
     <row r="493" spans="1:5" s="1" customFormat="1">
-      <c r="A493" s="174"/>
+      <c r="A493" s="71"/>
       <c r="B493" s="63"/>
-      <c r="C493" s="174"/>
-      <c r="D493" s="174"/>
-      <c r="E493" s="174"/>
+      <c r="C493" s="71"/>
+      <c r="D493" s="71"/>
+      <c r="E493" s="71"/>
     </row>
     <row r="494" spans="1:5" s="1" customFormat="1">
       <c r="B494" s="2"/>
